--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3405" windowWidth="21735" windowHeight="5235" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="3435" windowWidth="21735" windowHeight="5205" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="userInfo" sheetId="1" r:id="rId1"/>
@@ -15,14 +15,15 @@
     <sheet name="虚拟信用卡准入case" sheetId="6" r:id="rId6"/>
     <sheet name="虚拟信用卡消费数据生成" sheetId="8" r:id="rId7"/>
     <sheet name="虚拟信用卡消费case" sheetId="9" r:id="rId8"/>
-    <sheet name="config" sheetId="3" r:id="rId9"/>
+    <sheet name="虚拟信用卡额度case" sheetId="10" r:id="rId9"/>
+    <sheet name="config" sheetId="3" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2898" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2530" uniqueCount="927">
   <si>
     <t>loginName</t>
   </si>
@@ -1130,12 +1131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"addrAuthStatus":"AS","nowProvince"
-:"江苏省","nowCity":"苏州市","fullAddr"
-:"苏州市高新区"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VA_F003_学生</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2061,10 +2056,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nowAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VA_F014</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2247,10 +2238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"schoolRollAuthStatus":"AF","entranceTime":"2014-09-01","province":"江苏省","city":"苏州市","collegeName":"苏州大学","professionName":"","clogLevel":"本科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"schoolRollAuthStatus":"AS","entranceTime":"2014-09-01","province":"江苏省","city":"苏州市","collegeName":"苏州市职业大学","professionName":"","clogLevel":"专科"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2267,14 +2254,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"schoolRollAuthStatus":"AF","entranceTime":"2014-09-01","province":"新疆","city":"乌鲁木齐市","collegeName":"新疆大学","professionName":"","clogLevel":"本科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2014-09-01","province":"新疆","city":"乌鲁木齐市","collegeName":"乌鲁木齐职业大学","professionName":"","clogLevel":"专科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>platForm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2502,14 +2481,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"schoolRollAuthStatus":"AF","entranceTime":"2014-09-01","province":"江苏省","city":"苏州市","collegeName":"苏州大学","professionName":"","clogLevel":"本科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"educationAuthStatus":"AF","entranceTime":"2011-07-01","collegeName":"苏州大学","professionName":"","clogLevel":"本科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"educationAuthStatus":"AS","entranceTime":"2013-07-01","collegeName":"苏州大学","professionName":"计算机类","clogLevel":"本科"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2531,10 +2502,6 @@
   </si>
   <si>
     <t>{"educationAuthStatus":"AS","entranceTime":"2013-07-01","collegeName":"苏州大学","professionName":"计算机类","clogLevel":"本科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"educationAuthStatus":"AF","entranceTime":"2011-07-01","collegeName":"苏州大学","professionName":"计算机类","clogLevel":"本科"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3655,6 +3622,176 @@
   </si>
   <si>
     <t>VA_U001_年龄小于50(graduate7+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caseName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isRun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userInfoNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新用户一线城市本科(学生)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2014-09-01","province":"江苏省","city":"淮安市","collegeName":"淮阴师范学院","professionName":"计算机科学与技术","clogLevel":"本科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"addrAuthStatus":"AS","nowProvince"
+:"江苏省","nowCity":"淮安市","fullAddr"
+:"淮安市高新区"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新用户二线城市本科(学生)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新用户三线城市本科(学生)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "province":"上海市", "city":"杨浦区", "contractor":[ {"name":"父母","relation":"父母","mobile":"15221526888"}, {"name":"配偶","relation":"配偶","mobile":"15221525888"} ] }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"addrAuthStatus":"AS","nowProvince"
+:"上海市","nowCity":"杨浦区","fullAddr"
+:"杨浦区"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新用户一线城市专科(学生)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新用户二线城市专科(学生)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新用户三线城市专科(学生)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student一线城市本科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student三线城市本科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student一线城市专科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2014-09-01","province":"上海市","city":"杨浦区","collegeName":"上海健康职业技术学院","professionName":"护理","clogLevel":"专科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student三线城市专科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student一线城市本科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student一线城市专科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student三线城市专科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2014-09-01","province":"江苏省","city":"淮安市","collegeName":"淮安信息职业技术学院","professionName":"软件技术","clogLevel":"专科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "province":"江苏省", "city":"淮安市", "contractor":[ {"name":"父母","relation":"父母","mobile":"15221526888"}, {"name":"配偶","relation":"配偶","mobile":"15221525888"} ] }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2014-09-01","province":"新疆","city":"乌鲁木齐市","collegeName":"乌鲁木齐职业大学","professionName":"","clogLevel":"专科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "province":"江苏省", "city":"乌鲁木齐市", "contractor":[ {"name":"父母","relation":"父母","mobile":"15221526888"}, {"name":"配偶","relation":"配偶","mobile":"15221525888"} ] }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"addrAuthStatus":"AS","nowProvince"
+:"江苏省","nowCity":"乌鲁木齐","fullAddr"
+:"乌鲁木齐高新区"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新用户一线城市本科(毕业0-6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新用户一线城市专科(毕业0-6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2014-09-01","province":"上海市","city":"杨浦区","collegeName":"复旦大学","professionName":"软件工程","clogLevel":"本科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"educationAuthStatus":"AS","entranceTime":"2013-07-01","collegeName":"复旦大学","professionName":"软件工程","clogLevel":"本科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduate0-6一线城市专科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"educationAuthStatus":"AS","entranceTime":"2014-07-01","collegeName":"上海健康职业技术学院","professionName":"护理","clogLevel":"专科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduate0-6一线城市本科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduate0-6一线城市专科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nowAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据手机号判断所在地</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3662,7 +3799,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -4089,25 +4225,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="17.75" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="22.875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="21.75" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="53.25" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.375" collapsed="true"/>
+    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="22.875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21.75" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="53.25" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -4118,34 +4254,34 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="F1" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" ht="135">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="4" customFormat="1" ht="121.5">
       <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
@@ -4153,13 +4289,11 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>617</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="4" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>12</v>
@@ -4168,7 +4302,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>14</v>
@@ -4177,7 +4311,7 @@
         <v>158</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>273</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="135">
@@ -4188,22 +4322,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>168</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>169</v>
@@ -4215,19 +4349,17 @@
     </row>
     <row r="4" spans="1:11" ht="140.25" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>617</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="4" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>12</v>
@@ -4236,10 +4368,10 @@
         <v>3</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>158</v>
@@ -4248,56 +4380,52 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="135">
+    <row r="5" spans="1:11" ht="140.25" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>482</v>
+        <v>904</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>617</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="4" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>481</v>
+        <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>551</v>
+        <v>919</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>158</v>
+        <v>899</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="135">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="140.25" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>761</v>
+        <v>906</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>621</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="4" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
@@ -4306,33 +4434,31 @@
         <v>3</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>550</v>
+        <v>907</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>158</v>
+        <v>899</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="135">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="140.25" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>219</v>
+        <v>905</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>620</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="4" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>12</v>
@@ -4341,33 +4467,31 @@
         <v>3</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>550</v>
+        <v>894</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>158</v>
+        <v>913</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="135">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="140.25" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>331</v>
+        <v>908</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>617</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="4" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>12</v>
@@ -4376,48 +4500,46 @@
         <v>3</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>552</v>
+        <v>912</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>14</v>
+        <v>351</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>158</v>
+        <v>913</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="135">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="121.5">
       <c r="A9" s="5" t="s">
-        <v>329</v>
+        <v>481</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>617</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="4" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>12</v>
+        <v>480</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>14</v>
+        <v>351</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>327</v>
+        <v>158</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>159</v>
@@ -4425,19 +4547,19 @@
     </row>
     <row r="10" spans="1:11" ht="135">
       <c r="A10" s="5" t="s">
-        <v>336</v>
+        <v>753</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>12</v>
@@ -4445,11 +4567,9 @@
       <c r="G10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>553</v>
-      </c>
+      <c r="H10" s="4"/>
       <c r="I10" s="4" t="s">
-        <v>14</v>
+        <v>351</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>158</v>
@@ -4460,19 +4580,19 @@
     </row>
     <row r="11" spans="1:11" ht="135">
       <c r="A11" s="5" t="s">
-        <v>464</v>
+        <v>219</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>12</v>
@@ -4480,11 +4600,9 @@
       <c r="G11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>554</v>
-      </c>
+      <c r="H11" s="4"/>
       <c r="I11" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>158</v>
@@ -4493,21 +4611,19 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="135">
+    <row r="12" spans="1:11" ht="121.5">
       <c r="A12" s="5" t="s">
-        <v>483</v>
+        <v>330</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>619</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="4" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>12</v>
@@ -4516,10 +4632,10 @@
         <v>3</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>352</v>
+        <v>14</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>158</v>
@@ -4528,21 +4644,19 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="135">
+    <row r="13" spans="1:11" ht="121.5">
       <c r="A13" s="5" t="s">
-        <v>472</v>
+        <v>328</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>617</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="4" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>12</v>
@@ -4551,33 +4665,31 @@
         <v>3</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>352</v>
+        <v>14</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>158</v>
+        <v>326</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="148.5">
+    <row r="14" spans="1:11" ht="121.5">
       <c r="A14" s="5" t="s">
-        <v>488</v>
+        <v>335</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>618</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="D14" s="2"/>
       <c r="E14" s="4" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>12</v>
@@ -4586,10 +4698,10 @@
         <v>3</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>352</v>
+        <v>14</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>158</v>
@@ -4598,33 +4710,31 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="135">
+    <row r="15" spans="1:11" ht="121.5">
       <c r="A15" s="5" t="s">
-        <v>561</v>
+        <v>463</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>560</v>
+        <v>4</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>622</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="D15" s="2"/>
       <c r="E15" s="4" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>562</v>
+        <v>12</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>158</v>
@@ -4635,31 +4745,29 @@
     </row>
     <row r="16" spans="1:11" ht="135">
       <c r="A16" s="5" t="s">
-        <v>596</v>
+        <v>482</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>595</v>
+        <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>599</v>
+        <v>12</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>558</v>
-      </c>
+      <c r="H16" s="4"/>
       <c r="I16" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>158</v>
@@ -4668,68 +4776,64 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="135">
+    <row r="17" spans="1:11" ht="121.5">
       <c r="A17" s="5" t="s">
-        <v>574</v>
+        <v>471</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>560</v>
+        <v>4</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>617</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="D17" s="2"/>
       <c r="E17" s="4" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>562</v>
+        <v>12</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>573</v>
+        <v>914</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>158</v>
+        <v>915</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="135">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="148.5">
       <c r="A18" s="5" t="s">
-        <v>581</v>
+        <v>487</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>560</v>
+        <v>4</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>562</v>
+        <v>12</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>580</v>
-      </c>
+      <c r="H18" s="4"/>
       <c r="I18" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>158</v>
@@ -4740,31 +4844,29 @@
     </row>
     <row r="19" spans="1:11" ht="135">
       <c r="A19" s="5" t="s">
-        <v>586</v>
+        <v>556</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>617</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="4" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>585</v>
+        <v>553</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>158</v>
@@ -4778,28 +4880,26 @@
         <v>591</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>560</v>
+        <v>590</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>615</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="4" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>158</v>
@@ -4810,31 +4910,29 @@
     </row>
     <row r="21" spans="1:11" ht="135">
       <c r="A21" s="5" t="s">
-        <v>613</v>
+        <v>569</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>695</v>
+        <v>555</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>616</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="4" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>700</v>
+        <v>557</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>614</v>
+        <v>568</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>158</v>
@@ -4845,31 +4943,29 @@
     </row>
     <row r="22" spans="1:11" ht="135">
       <c r="A22" s="5" t="s">
-        <v>734</v>
+        <v>576</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>696</v>
+        <v>555</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>617</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="4" t="s">
-        <v>698</v>
+        <v>683</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>697</v>
+        <v>557</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>649</v>
+        <v>575</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>158</v>
@@ -4880,31 +4976,29 @@
     </row>
     <row r="23" spans="1:11" ht="135">
       <c r="A23" s="5" t="s">
-        <v>702</v>
+        <v>581</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>742</v>
+        <v>555</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>617</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="4" t="s">
-        <v>701</v>
+        <v>683</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>697</v>
+        <v>557</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>649</v>
+        <v>580</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>158</v>
@@ -4915,43 +5009,363 @@
     </row>
     <row r="24" spans="1:11" ht="135">
       <c r="A24" s="5" t="s">
-        <v>743</v>
+        <v>586</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>744</v>
+        <v>555</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>617</v>
-      </c>
+        <v>585</v>
+      </c>
+      <c r="D24" s="2"/>
       <c r="E24" s="4" t="s">
-        <v>708</v>
+        <v>683</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>697</v>
+        <v>557</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>649</v>
+        <v>553</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>158</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="135">
+      <c r="A25" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="135">
+      <c r="A26" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="135">
+      <c r="A27" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="135">
+      <c r="A28" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="135">
+      <c r="A29" s="5" t="s">
+        <v>923</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="148.5">
+      <c r="A30" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>900</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="11" collapsed="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="7">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="E3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>819</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="E4" t="s">
+        <v>818</v>
+      </c>
+      <c r="F4" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>837</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="E5" t="s">
+        <v>818</v>
+      </c>
+      <c r="F5" t="s">
+        <v>836</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4965,10 +5379,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="12.875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="49.625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="37.875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="1" max="1" width="12.875" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="49.625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5009,13 +5423,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="9.25" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="31.625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="55.625" collapsed="true"/>
+    <col min="1" max="1" width="35" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.25" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="55.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="16" customFormat="1" ht="30" customHeight="1">
@@ -5023,7 +5437,7 @@
         <v>100</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>6</v>
@@ -5131,7 +5545,7 @@
     </row>
     <row r="9" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="B9" s="7"/>
       <c r="D9" s="8" t="s">
@@ -5143,7 +5557,7 @@
     </row>
     <row r="10" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="B10" s="7"/>
       <c r="D10" s="8" t="s">
@@ -5155,7 +5569,7 @@
     </row>
     <row r="11" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="B11" s="7"/>
       <c r="D11" s="8" t="s">
@@ -5166,7 +5580,7 @@
     </row>
     <row r="12" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1">
       <c r="A12" s="14" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="B12" s="7"/>
       <c r="D12" s="8" t="s">
@@ -5177,7 +5591,7 @@
     </row>
     <row r="13" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1">
       <c r="A13" s="14" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="B13" s="7"/>
       <c r="E13" s="7"/>
@@ -5275,7 +5689,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="6" customFormat="1" ht="45" customHeight="1">
@@ -5393,14 +5807,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="53.25" collapsed="true"/>
-    <col min="2" max="2" style="10" width="9.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="9.5" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="34.875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.875" collapsed="true"/>
-    <col min="7" max="9" customWidth="true" width="16.25" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.75" collapsed="true"/>
+    <col min="1" max="1" width="53.25" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9" style="10" collapsed="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1" collapsed="1"/>
+    <col min="7" max="9" width="16.25" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1">
@@ -5629,7 +6043,7 @@
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>98</v>
@@ -5641,7 +6055,7 @@
         <v>27</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>17</v>
@@ -5655,7 +6069,7 @@
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>98</v>
@@ -5667,7 +6081,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>17</v>
@@ -5681,7 +6095,7 @@
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>98</v>
@@ -5693,7 +6107,7 @@
         <v>27</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>17</v>
@@ -5707,7 +6121,7 @@
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1">
       <c r="A12" s="14" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>98</v>
@@ -5719,7 +6133,7 @@
         <v>27</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>17</v>
@@ -5733,7 +6147,7 @@
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1">
       <c r="A13" s="14" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>98</v>
@@ -5745,7 +6159,7 @@
         <v>27</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>17</v>
@@ -6248,30 +6662,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView topLeftCell="F46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="67.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="66.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="37.25" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="5" max="8" bestFit="true" customWidth="true" width="17.25" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.5" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="65.75" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="27.375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="52.625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="56.75" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="18.375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="17.75" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="27.5" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="33.875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="5.25" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="31.375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="67.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="66" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.25" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1" collapsed="1"/>
+    <col min="5" max="8" width="17.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="65.75" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="27.375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="52.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="56.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.5" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="33.875" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="5.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="31.375" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="14" customFormat="1" ht="26.25" customHeight="1">
@@ -6279,7 +6693,7 @@
         <v>205</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>206</v>
@@ -6291,43 +6705,43 @@
         <v>272</v>
       </c>
       <c r="F1" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>283</v>
-      </c>
       <c r="H1" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>724</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>732</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>740</v>
-      </c>
       <c r="N1" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="S1" s="14" t="s">
         <v>6</v>
@@ -6358,7 +6772,7 @@
         <v>213</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="26.25" customHeight="1">
@@ -6399,7 +6813,7 @@
     </row>
     <row r="7" spans="1:21" ht="26.25" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="8" t="s">
@@ -6418,7 +6832,7 @@
         <v>214</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="26.25" customHeight="1">
@@ -6491,109 +6905,109 @@
     </row>
     <row r="16" spans="1:21" ht="26.25" customHeight="1">
       <c r="A16" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="26.25" customHeight="1">
       <c r="A17" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="26.25" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="26.25" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="26.25" customHeight="1">
       <c r="A20" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="26.25" customHeight="1">
       <c r="A21" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="26.25" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B22" s="14"/>
       <c r="G22" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="26.25" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B23" s="14"/>
       <c r="G23" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="26.25" customHeight="1">
       <c r="A24" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B24" s="14"/>
       <c r="H24" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="26.25" customHeight="1">
       <c r="A25" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B25" s="14"/>
       <c r="H25" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="26.25" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B26" s="6"/>
       <c r="I26" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="7"/>
@@ -6602,11 +7016,11 @@
     </row>
     <row r="27" spans="1:13" ht="26.25" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B27" s="6"/>
       <c r="I27" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="7"/>
@@ -6615,11 +7029,11 @@
     </row>
     <row r="28" spans="1:13" ht="26.25" customHeight="1">
       <c r="A28" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B28" s="14"/>
       <c r="I28" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J28" s="8"/>
       <c r="K28" s="7"/>
@@ -6628,11 +7042,11 @@
     </row>
     <row r="29" spans="1:13" ht="26.25" customHeight="1">
       <c r="A29" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B29" s="14"/>
       <c r="I29" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J29" s="8"/>
       <c r="K29" s="7"/>
@@ -6641,18 +7055,18 @@
     </row>
     <row r="30" spans="1:13" ht="45" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
@@ -6660,18 +7074,18 @@
     </row>
     <row r="31" spans="1:13" ht="45" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
@@ -6679,18 +7093,18 @@
     </row>
     <row r="32" spans="1:13" ht="45" customHeight="1">
       <c r="A32" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
@@ -6698,18 +7112,18 @@
     </row>
     <row r="33" spans="1:13" ht="45" customHeight="1">
       <c r="A33" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
@@ -6717,18 +7131,18 @@
     </row>
     <row r="34" spans="1:13" ht="45" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
@@ -6736,18 +7150,18 @@
     </row>
     <row r="35" spans="1:13" ht="45" customHeight="1">
       <c r="A35" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
@@ -6755,18 +7169,18 @@
     </row>
     <row r="36" spans="1:13" ht="45" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
@@ -6774,18 +7188,18 @@
     </row>
     <row r="37" spans="1:13" ht="45" customHeight="1">
       <c r="A37" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
@@ -6793,18 +7207,18 @@
     </row>
     <row r="38" spans="1:13" ht="45" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
@@ -6812,18 +7226,18 @@
     </row>
     <row r="39" spans="1:13" ht="45" customHeight="1">
       <c r="A39" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D39" s="7"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
@@ -6831,18 +7245,18 @@
     </row>
     <row r="40" spans="1:13" ht="45" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D40" s="7"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
@@ -6850,432 +7264,432 @@
     </row>
     <row r="41" spans="1:13" ht="27">
       <c r="A41" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B41" s="14"/>
       <c r="K41" s="17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L41" s="17"/>
       <c r="M41" s="17"/>
     </row>
     <row r="42" spans="1:13" ht="27">
       <c r="A42" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B42" s="14"/>
       <c r="K42" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L42" s="17"/>
       <c r="M42" s="17"/>
     </row>
     <row r="43" spans="1:13" ht="27">
       <c r="A43" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B43" s="14"/>
       <c r="K43" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L43" s="17"/>
       <c r="M43" s="17"/>
     </row>
     <row r="44" spans="1:13" ht="30" customHeight="1">
       <c r="A44" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="27">
       <c r="A45" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="40.5">
       <c r="A46" s="6" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="B46" s="4"/>
       <c r="L46" s="17" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="M46" s="17"/>
     </row>
     <row r="47" spans="1:13" ht="27">
       <c r="A47" s="6" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="B47" s="4"/>
       <c r="L47" s="17" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="M47" s="17"/>
     </row>
     <row r="48" spans="1:13" ht="40.5">
       <c r="A48" s="6" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="B48" s="4"/>
       <c r="L48" s="17" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="M48" s="17"/>
     </row>
     <row r="49" spans="1:16" ht="40.5">
       <c r="A49" s="6" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="B49" s="4"/>
       <c r="L49" s="17" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="M49" s="17"/>
     </row>
     <row r="50" spans="1:16" ht="27">
       <c r="A50" s="6" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="B50" s="4"/>
       <c r="L50" s="17" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="M50" s="17"/>
     </row>
     <row r="51" spans="1:16" ht="27">
       <c r="A51" s="14" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="L51" s="17"/>
       <c r="M51" s="17" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="27">
       <c r="A52" s="14" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="L52" s="17"/>
       <c r="M52" s="17" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="30" customHeight="1">
       <c r="A53" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N53" s="18" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="30" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="N54" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="30" customHeight="1">
       <c r="A55" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="N55" s="18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="27">
       <c r="A56" s="14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="N56" s="18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="27">
       <c r="A57" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="N57" s="18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="30" customHeight="1">
       <c r="A58" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O58" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="30" customHeight="1">
       <c r="A59" s="14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O59" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="27">
       <c r="A60" s="14" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="O60" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="27">
       <c r="A61" s="14" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="O61" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="54">
       <c r="A62" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="54">
       <c r="A63" s="14" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P63" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="54">
       <c r="A64" s="14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="P64" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="54">
       <c r="A65" s="14" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="P65" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="54">
       <c r="A66" s="14" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="P66" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="54">
       <c r="A67" s="14" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="P67" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="54">
       <c r="A68" s="14" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="54">
       <c r="A69" s="14" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="P69" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="54">
       <c r="A70" s="14" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="P70" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="54">
       <c r="A71" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="P71" s="4" t="s">
         <v>523</v>
-      </c>
-      <c r="P71" s="4" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="54">
       <c r="A72" s="14" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="P72" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="54">
       <c r="A73" s="14" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="P73" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="54">
       <c r="A74" s="14" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="P74" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="54">
       <c r="A75" s="14" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="P75" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="54">
       <c r="A76" s="14" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="P76" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="57" customHeight="1">
       <c r="A77" s="14" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="Q77" s="2" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="40.5">
       <c r="A78" s="14" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="40.5">
       <c r="A79" s="14" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="Q79" s="2" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="40.5">
       <c r="A80" s="14" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="Q80" s="2" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="81" spans="1:21" ht="40.5">
       <c r="A81" s="6" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="Q81" s="2" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="82" spans="1:21" ht="40.5">
       <c r="A82" s="14" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="Q82" s="2" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="83" spans="1:21" ht="54">
       <c r="A83" s="14" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="Q83" s="2" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="84" spans="1:21" ht="67.5">
       <c r="A84" s="14" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="Q84" s="2" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="85" spans="1:21" ht="40.5">
       <c r="A85" s="14" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="Q85" s="2" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="86" spans="1:21" ht="40.5">
       <c r="A86" s="14" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="Q86" s="2" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="87" spans="1:21">
       <c r="A87" s="14" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="R87" s="11">
         <v>17</v>
@@ -7283,7 +7697,7 @@
     </row>
     <row r="88" spans="1:21">
       <c r="A88" s="14" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="R88" s="11">
         <v>18</v>
@@ -7291,7 +7705,7 @@
     </row>
     <row r="89" spans="1:21">
       <c r="A89" s="14" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="R89" s="11">
         <v>30</v>
@@ -7299,7 +7713,7 @@
     </row>
     <row r="90" spans="1:21">
       <c r="A90" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="R90" s="11">
         <v>29</v>
@@ -7307,7 +7721,7 @@
     </row>
     <row r="91" spans="1:21">
       <c r="A91" s="14" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="R91" s="11">
         <v>50</v>
@@ -7315,7 +7729,7 @@
     </row>
     <row r="92" spans="1:21">
       <c r="A92" s="14" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="R92" s="11">
         <v>49</v>
@@ -7343,7 +7757,7 @@
     </row>
     <row r="95" spans="1:21" s="14" customFormat="1" ht="30" customHeight="1">
       <c r="A95" s="14" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="S95" s="7"/>
       <c r="T95" s="8" t="s">
@@ -7353,7 +7767,7 @@
     </row>
     <row r="96" spans="1:21" s="14" customFormat="1" ht="30" customHeight="1">
       <c r="A96" s="14" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="S96" s="7"/>
       <c r="T96" s="8" t="s">
@@ -7363,7 +7777,7 @@
     </row>
     <row r="97" spans="1:21" s="14" customFormat="1" ht="30" customHeight="1">
       <c r="A97" s="14" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="S97" s="7"/>
       <c r="T97" s="8" t="s">
@@ -7373,7 +7787,7 @@
     </row>
     <row r="98" spans="1:21" s="14" customFormat="1" ht="30" customHeight="1">
       <c r="A98" s="14" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="S98" s="7"/>
       <c r="T98" s="8" t="s">
@@ -7383,7 +7797,7 @@
     </row>
     <row r="99" spans="1:21" s="14" customFormat="1" ht="30" customHeight="1">
       <c r="A99" s="14" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="S99" s="7"/>
       <c r="T99" s="7"/>
@@ -7394,7 +7808,7 @@
         <v>54</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="S100" s="7"/>
       <c r="T100" s="7"/>
@@ -7407,7 +7821,7 @@
         <v>55</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="S101" s="7"/>
       <c r="T101" s="7"/>
@@ -7426,17 +7840,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B186"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="76.375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="7" width="39.625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="67.5" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.5" collapsed="true"/>
-    <col min="6" max="7" bestFit="true" customWidth="true" width="13.875" collapsed="true"/>
+    <col min="1" max="1" width="76.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="39.625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="67.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="13.875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="14" customFormat="1" ht="30" customHeight="1">
@@ -7470,7 +7884,7 @@
         <v>164</v>
       </c>
       <c r="B2" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>165</v>
@@ -7486,7 +7900,7 @@
         <v>157</v>
       </c>
       <c r="H2" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1">
@@ -7494,7 +7908,7 @@
         <v>166</v>
       </c>
       <c r="B3" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>167</v>
@@ -7510,7 +7924,7 @@
         <v>171</v>
       </c>
       <c r="H3" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
@@ -7518,7 +7932,7 @@
         <v>183</v>
       </c>
       <c r="B4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>165</v>
@@ -7534,7 +7948,7 @@
         <v>157</v>
       </c>
       <c r="H4" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1">
@@ -7542,7 +7956,7 @@
         <v>184</v>
       </c>
       <c r="B5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>167</v>
@@ -7558,7 +7972,7 @@
         <v>171</v>
       </c>
       <c r="H5" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1">
@@ -7566,7 +7980,7 @@
         <v>185</v>
       </c>
       <c r="B6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>165</v>
@@ -7582,7 +7996,7 @@
         <v>157</v>
       </c>
       <c r="H6" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1">
@@ -7590,7 +8004,7 @@
         <v>202</v>
       </c>
       <c r="B7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>167</v>
@@ -7606,7 +8020,7 @@
         <v>171</v>
       </c>
       <c r="H7" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1">
@@ -7614,7 +8028,7 @@
         <v>186</v>
       </c>
       <c r="B8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>165</v>
@@ -7630,7 +8044,7 @@
         <v>157</v>
       </c>
       <c r="H8" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
@@ -7638,7 +8052,7 @@
         <v>201</v>
       </c>
       <c r="B9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>167</v>
@@ -7654,7 +8068,7 @@
         <v>171</v>
       </c>
       <c r="H9" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1">
@@ -7662,7 +8076,7 @@
         <v>187</v>
       </c>
       <c r="B10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>165</v>
@@ -7678,7 +8092,7 @@
         <v>157</v>
       </c>
       <c r="H10" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1">
@@ -7686,7 +8100,7 @@
         <v>200</v>
       </c>
       <c r="B11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>167</v>
@@ -7702,7 +8116,7 @@
         <v>171</v>
       </c>
       <c r="H11" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1">
@@ -7710,7 +8124,7 @@
         <v>188</v>
       </c>
       <c r="B12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>165</v>
@@ -7726,7 +8140,7 @@
         <v>157</v>
       </c>
       <c r="H12" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1">
@@ -7734,7 +8148,7 @@
         <v>199</v>
       </c>
       <c r="B13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>167</v>
@@ -7750,7 +8164,7 @@
         <v>171</v>
       </c>
       <c r="H13" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1">
@@ -7758,7 +8172,7 @@
         <v>197</v>
       </c>
       <c r="B14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>165</v>
@@ -7774,7 +8188,7 @@
         <v>157</v>
       </c>
       <c r="H14" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1">
@@ -7782,7 +8196,7 @@
         <v>198</v>
       </c>
       <c r="B15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>167</v>
@@ -7798,7 +8212,7 @@
         <v>171</v>
       </c>
       <c r="H15" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1">
@@ -7806,7 +8220,7 @@
         <v>196</v>
       </c>
       <c r="B16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>165</v>
@@ -7822,7 +8236,7 @@
         <v>157</v>
       </c>
       <c r="H16" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1">
@@ -7830,7 +8244,7 @@
         <v>195</v>
       </c>
       <c r="B17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>167</v>
@@ -7846,7 +8260,7 @@
         <v>171</v>
       </c>
       <c r="H17" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" customHeight="1">
@@ -7854,7 +8268,7 @@
         <v>189</v>
       </c>
       <c r="B18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>165</v>
@@ -7870,7 +8284,7 @@
         <v>157</v>
       </c>
       <c r="H18" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30" customHeight="1">
@@ -7878,7 +8292,7 @@
         <v>194</v>
       </c>
       <c r="B19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>167</v>
@@ -7894,7 +8308,7 @@
         <v>171</v>
       </c>
       <c r="H19" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1">
@@ -7902,7 +8316,7 @@
         <v>190</v>
       </c>
       <c r="B20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>165</v>
@@ -7918,7 +8332,7 @@
         <v>157</v>
       </c>
       <c r="H20" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" customHeight="1">
@@ -7926,7 +8340,7 @@
         <v>193</v>
       </c>
       <c r="B21" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>167</v>
@@ -7942,7 +8356,7 @@
         <v>171</v>
       </c>
       <c r="H21" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="30" customHeight="1">
@@ -7950,7 +8364,7 @@
         <v>191</v>
       </c>
       <c r="B22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>165</v>
@@ -7966,7 +8380,7 @@
         <v>157</v>
       </c>
       <c r="H22" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30" customHeight="1">
@@ -7974,7 +8388,7 @@
         <v>192</v>
       </c>
       <c r="B23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>167</v>
@@ -7990,7 +8404,7 @@
         <v>171</v>
       </c>
       <c r="H23" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="30" customHeight="1">
@@ -7998,7 +8412,7 @@
         <v>247</v>
       </c>
       <c r="B24" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>165</v>
@@ -8016,7 +8430,7 @@
         <v>157</v>
       </c>
       <c r="H24" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="30" customHeight="1">
@@ -8024,7 +8438,7 @@
         <v>250</v>
       </c>
       <c r="B25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>254</v>
@@ -8042,7 +8456,7 @@
         <v>157</v>
       </c>
       <c r="H25" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="30" customHeight="1">
@@ -8050,7 +8464,7 @@
         <v>253</v>
       </c>
       <c r="B26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>254</v>
@@ -8068,7 +8482,7 @@
         <v>171</v>
       </c>
       <c r="H26" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="30" customHeight="1">
@@ -8076,7 +8490,7 @@
         <v>211</v>
       </c>
       <c r="B27" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>165</v>
@@ -8085,7 +8499,7 @@
         <v>208</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>171</v>
@@ -8094,7 +8508,7 @@
         <v>171</v>
       </c>
       <c r="H27" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="30" customHeight="1">
@@ -8102,7 +8516,7 @@
         <v>256</v>
       </c>
       <c r="B28" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>226</v>
@@ -8120,7 +8534,7 @@
         <v>157</v>
       </c>
       <c r="H28" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="30" customHeight="1">
@@ -8128,7 +8542,7 @@
         <v>255</v>
       </c>
       <c r="B29" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>226</v>
@@ -8146,7 +8560,7 @@
         <v>157</v>
       </c>
       <c r="H29" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="30" customHeight="1">
@@ -8154,7 +8568,7 @@
         <v>257</v>
       </c>
       <c r="B30" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>226</v>
@@ -8172,7 +8586,7 @@
         <v>171</v>
       </c>
       <c r="H30" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="30" customHeight="1">
@@ -8180,7 +8594,7 @@
         <v>223</v>
       </c>
       <c r="B31" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>226</v>
@@ -8198,7 +8612,7 @@
         <v>171</v>
       </c>
       <c r="H31" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="30" customHeight="1">
@@ -8206,7 +8620,7 @@
         <v>225</v>
       </c>
       <c r="B32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>226</v>
@@ -8224,7 +8638,7 @@
         <v>171</v>
       </c>
       <c r="H32" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="30" customHeight="1">
@@ -8232,7 +8646,7 @@
         <v>228</v>
       </c>
       <c r="B33" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>218</v>
@@ -8250,7 +8664,7 @@
         <v>157</v>
       </c>
       <c r="H33" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="30" customHeight="1">
@@ -8258,7 +8672,7 @@
         <v>229</v>
       </c>
       <c r="B34" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>218</v>
@@ -8276,7 +8690,7 @@
         <v>171</v>
       </c>
       <c r="H34" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="30" customHeight="1">
@@ -8284,7 +8698,7 @@
         <v>230</v>
       </c>
       <c r="B35" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>218</v>
@@ -8302,7 +8716,7 @@
         <v>171</v>
       </c>
       <c r="H35" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="30" customHeight="1">
@@ -8310,7 +8724,7 @@
         <v>241</v>
       </c>
       <c r="B36" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>231</v>
@@ -8328,7 +8742,7 @@
         <v>157</v>
       </c>
       <c r="H36" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="30" customHeight="1">
@@ -8336,7 +8750,7 @@
         <v>239</v>
       </c>
       <c r="B37" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>231</v>
@@ -8354,7 +8768,7 @@
         <v>171</v>
       </c>
       <c r="H37" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="30" customHeight="1">
@@ -8362,7 +8776,7 @@
         <v>240</v>
       </c>
       <c r="B38" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>231</v>
@@ -8380,7 +8794,7 @@
         <v>171</v>
       </c>
       <c r="H38" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="30" customHeight="1">
@@ -8388,7 +8802,7 @@
         <v>262</v>
       </c>
       <c r="B39" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>226</v>
@@ -8403,7 +8817,7 @@
         <v>157</v>
       </c>
       <c r="H39" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="30" customHeight="1">
@@ -8411,7 +8825,7 @@
         <v>270</v>
       </c>
       <c r="B40" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>218</v>
@@ -8429,7 +8843,7 @@
         <v>157</v>
       </c>
       <c r="H40" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="30" customHeight="1">
@@ -8437,7 +8851,7 @@
         <v>269</v>
       </c>
       <c r="B41" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>218</v>
@@ -8455,15 +8869,15 @@
         <v>171</v>
       </c>
       <c r="H41" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="30" customHeight="1">
       <c r="A42" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B42" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>231</v>
@@ -8481,15 +8895,15 @@
         <v>157</v>
       </c>
       <c r="H42" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="30" customHeight="1">
       <c r="A43" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B43" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>231</v>
@@ -8507,21 +8921,21 @@
         <v>171</v>
       </c>
       <c r="H43" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="30" customHeight="1">
       <c r="A44" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B44" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>226</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>157</v>
@@ -8530,24 +8944,24 @@
         <v>157</v>
       </c>
       <c r="H44" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="30" customHeight="1">
       <c r="A45" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B45" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>218</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>157</v>
@@ -8556,24 +8970,24 @@
         <v>157</v>
       </c>
       <c r="H45" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="30" customHeight="1">
       <c r="A46" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B46" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>218</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>171</v>
@@ -8582,24 +8996,24 @@
         <v>171</v>
       </c>
       <c r="H46" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="30" customHeight="1">
       <c r="A47" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B47" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>218</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>157</v>
@@ -8608,24 +9022,24 @@
         <v>157</v>
       </c>
       <c r="H47" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="30" customHeight="1">
       <c r="A48" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B48" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>218</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>171</v>
@@ -8634,24 +9048,24 @@
         <v>171</v>
       </c>
       <c r="H48" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="30" customHeight="1">
       <c r="A49" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B49" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>231</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>157</v>
@@ -8660,24 +9074,24 @@
         <v>157</v>
       </c>
       <c r="H49" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="30" customHeight="1">
       <c r="A50" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B50" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>231</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>171</v>
@@ -8686,24 +9100,24 @@
         <v>171</v>
       </c>
       <c r="H50" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="30" customHeight="1">
       <c r="A51" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B51" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>219</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>157</v>
@@ -8712,24 +9126,24 @@
         <v>157</v>
       </c>
       <c r="H51" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="30" customHeight="1">
       <c r="A52" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B52" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>219</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>171</v>
@@ -8738,24 +9152,24 @@
         <v>171</v>
       </c>
       <c r="H52" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="30" customHeight="1">
       <c r="A53" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B53" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>226</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>157</v>
@@ -8764,24 +9178,24 @@
         <v>157</v>
       </c>
       <c r="H53" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="30" customHeight="1">
       <c r="A54" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B54" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>226</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>171</v>
@@ -8790,21 +9204,21 @@
         <v>171</v>
       </c>
       <c r="H54" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="30" customHeight="1">
       <c r="A55" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B55" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>218</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>157</v>
@@ -8813,21 +9227,21 @@
         <v>157</v>
       </c>
       <c r="H55" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="30" customHeight="1">
       <c r="A56" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B56" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>231</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>157</v>
@@ -8836,24 +9250,24 @@
         <v>157</v>
       </c>
       <c r="H56" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="30" customHeight="1">
       <c r="A57" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B57" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>157</v>
@@ -8862,24 +9276,24 @@
         <v>157</v>
       </c>
       <c r="H57" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="30" customHeight="1">
       <c r="A58" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B58" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>226</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>171</v>
@@ -8888,24 +9302,24 @@
         <v>171</v>
       </c>
       <c r="H58" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="30" customHeight="1">
       <c r="A59" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B59" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>157</v>
@@ -8914,24 +9328,24 @@
         <v>157</v>
       </c>
       <c r="H59" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="30" customHeight="1">
       <c r="A60" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B60" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>218</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>157</v>
@@ -8940,24 +9354,24 @@
         <v>157</v>
       </c>
       <c r="H60" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="30" customHeight="1">
       <c r="A61" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B61" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>219</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>157</v>
@@ -8966,24 +9380,24 @@
         <v>157</v>
       </c>
       <c r="H61" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="30" customHeight="1">
       <c r="A62" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B62" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>219</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>157</v>
@@ -8992,24 +9406,24 @@
         <v>157</v>
       </c>
       <c r="H62" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="30" customHeight="1">
       <c r="A63" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B63" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>157</v>
@@ -9018,24 +9432,24 @@
         <v>157</v>
       </c>
       <c r="H63" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="30" customHeight="1">
       <c r="A64" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B64" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>157</v>
@@ -9044,24 +9458,24 @@
         <v>157</v>
       </c>
       <c r="H64" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="30" customHeight="1">
       <c r="A65" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B65" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>157</v>
@@ -9070,24 +9484,24 @@
         <v>157</v>
       </c>
       <c r="H65" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="30" customHeight="1">
       <c r="A66" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B66" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>171</v>
@@ -9096,24 +9510,24 @@
         <v>171</v>
       </c>
       <c r="H66" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="30" customHeight="1">
       <c r="A67" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B67" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>157</v>
@@ -9122,24 +9536,24 @@
         <v>157</v>
       </c>
       <c r="H67" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="30" customHeight="1">
       <c r="A68" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B68" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>157</v>
@@ -9148,24 +9562,24 @@
         <v>157</v>
       </c>
       <c r="H68" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="30" customHeight="1">
       <c r="A69" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B69" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>219</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>157</v>
@@ -9174,24 +9588,24 @@
         <v>157</v>
       </c>
       <c r="H69" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="30" customHeight="1">
       <c r="A70" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B70" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>171</v>
@@ -9200,24 +9614,24 @@
         <v>171</v>
       </c>
       <c r="H70" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="30" customHeight="1">
       <c r="A71" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B71" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>157</v>
@@ -9226,24 +9640,24 @@
         <v>157</v>
       </c>
       <c r="H71" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="30" customHeight="1">
       <c r="A72" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B72" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>157</v>
@@ -9252,24 +9666,24 @@
         <v>157</v>
       </c>
       <c r="H72" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="30" customHeight="1">
       <c r="A73" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B73" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>171</v>
@@ -9278,24 +9692,24 @@
         <v>171</v>
       </c>
       <c r="H73" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="30" customHeight="1">
       <c r="A74" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B74" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>171</v>
@@ -9304,24 +9718,24 @@
         <v>171</v>
       </c>
       <c r="H74" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="30" customHeight="1">
       <c r="A75" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B75" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>171</v>
@@ -9330,24 +9744,24 @@
         <v>171</v>
       </c>
       <c r="H75" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="30" customHeight="1">
       <c r="A76" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B76" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>157</v>
@@ -9356,24 +9770,24 @@
         <v>157</v>
       </c>
       <c r="H76" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="30" customHeight="1">
       <c r="A77" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B77" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>171</v>
@@ -9382,24 +9796,24 @@
         <v>171</v>
       </c>
       <c r="H77" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="30" customHeight="1">
       <c r="A78" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B78" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>171</v>
@@ -9408,24 +9822,24 @@
         <v>171</v>
       </c>
       <c r="H78" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="30" customHeight="1">
       <c r="A79" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B79" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>157</v>
@@ -9434,24 +9848,24 @@
         <v>157</v>
       </c>
       <c r="H79" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="30" customHeight="1">
       <c r="A80" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B80" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>171</v>
@@ -9460,24 +9874,24 @@
         <v>171</v>
       </c>
       <c r="H80" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="30" customHeight="1">
       <c r="A81" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B81" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>157</v>
@@ -9486,24 +9900,24 @@
         <v>157</v>
       </c>
       <c r="H81" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="30" customHeight="1">
       <c r="A82" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B82" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F82" s="7" t="s">
         <v>171</v>
@@ -9512,24 +9926,24 @@
         <v>171</v>
       </c>
       <c r="H82" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="30" customHeight="1">
       <c r="A83" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B83" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>219</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>157</v>
@@ -9538,24 +9952,24 @@
         <v>157</v>
       </c>
       <c r="H83" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="30" customHeight="1">
       <c r="A84" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B84" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>219</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>171</v>
@@ -9564,24 +9978,24 @@
         <v>171</v>
       </c>
       <c r="H84" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="30" customHeight="1">
       <c r="A85" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B85" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F85" s="7" t="s">
         <v>157</v>
@@ -9590,24 +10004,24 @@
         <v>157</v>
       </c>
       <c r="H85" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="30" customHeight="1">
       <c r="A86" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B86" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F86" s="7" t="s">
         <v>171</v>
@@ -9616,24 +10030,24 @@
         <v>171</v>
       </c>
       <c r="H86" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="30" customHeight="1">
       <c r="A87" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B87" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F87" s="7" t="s">
         <v>171</v>
@@ -9642,24 +10056,24 @@
         <v>171</v>
       </c>
       <c r="H87" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="30" customHeight="1">
       <c r="A88" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B88" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>157</v>
@@ -9668,24 +10082,24 @@
         <v>157</v>
       </c>
       <c r="H88" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="30" customHeight="1">
       <c r="A89" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B89" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>171</v>
@@ -9694,24 +10108,24 @@
         <v>171</v>
       </c>
       <c r="H89" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="30" customHeight="1">
       <c r="A90" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B90" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>157</v>
@@ -9720,24 +10134,24 @@
         <v>157</v>
       </c>
       <c r="H90" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="30" customHeight="1">
       <c r="A91" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B91" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>171</v>
@@ -9746,24 +10160,24 @@
         <v>171</v>
       </c>
       <c r="H91" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="30" customHeight="1">
       <c r="A92" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B92" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F92" s="7" t="s">
         <v>157</v>
@@ -9772,24 +10186,24 @@
         <v>157</v>
       </c>
       <c r="H92" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="30" customHeight="1">
       <c r="A93" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B93" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>219</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F93" s="7" t="s">
         <v>171</v>
@@ -9798,24 +10212,24 @@
         <v>171</v>
       </c>
       <c r="H93" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="30" customHeight="1">
       <c r="A94" s="6" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="B94" s="7">
         <v>1</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="F94" s="7" t="s">
         <v>171</v>
@@ -9824,24 +10238,24 @@
         <v>171</v>
       </c>
       <c r="H94" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="30" customHeight="1">
       <c r="A95" s="6" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="B95" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="F95" s="7" t="s">
         <v>157</v>
@@ -9850,24 +10264,24 @@
         <v>157</v>
       </c>
       <c r="H95" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="96" spans="1:8" s="21" customFormat="1" ht="30" customHeight="1">
       <c r="A96" s="19" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="B96" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="E96" s="20" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="F96" s="20" t="s">
         <v>157</v>
@@ -9876,24 +10290,24 @@
         <v>157</v>
       </c>
       <c r="H96" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="30" customHeight="1">
       <c r="A97" s="6" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="B97" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>227</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="F97" s="7" t="s">
         <v>171</v>
@@ -9902,24 +10316,24 @@
         <v>171</v>
       </c>
       <c r="H97" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="30" customHeight="1">
       <c r="A98" s="6" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="B98" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>219</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="F98" s="7" t="s">
         <v>171</v>
@@ -9928,24 +10342,24 @@
         <v>171</v>
       </c>
       <c r="H98" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="30" customHeight="1">
       <c r="A99" s="6" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="B99" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>157</v>
@@ -9954,24 +10368,24 @@
         <v>157</v>
       </c>
       <c r="H99" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="30" customHeight="1">
       <c r="A100" s="6" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="B100" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="F100" s="7" t="s">
         <v>171</v>
@@ -9980,24 +10394,24 @@
         <v>171</v>
       </c>
       <c r="H100" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="30" customHeight="1">
       <c r="A101" s="6" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="B101" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>157</v>
@@ -10006,24 +10420,24 @@
         <v>157</v>
       </c>
       <c r="H101" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="30" customHeight="1">
       <c r="A102" s="6" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="B102" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="F102" s="7" t="s">
         <v>157</v>
@@ -10032,24 +10446,24 @@
         <v>157</v>
       </c>
       <c r="H102" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="30" customHeight="1">
       <c r="A103" s="6" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="B103" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="F103" s="7" t="s">
         <v>171</v>
@@ -10058,24 +10472,24 @@
         <v>171</v>
       </c>
       <c r="H103" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="30" customHeight="1">
       <c r="A104" s="6" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="B104" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="F104" s="7" t="s">
         <v>157</v>
@@ -10084,24 +10498,24 @@
         <v>157</v>
       </c>
       <c r="H104" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="30" customHeight="1">
       <c r="A105" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B105" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F105" s="7" t="s">
         <v>157</v>
@@ -10110,24 +10524,24 @@
         <v>157</v>
       </c>
       <c r="H105" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="30" customHeight="1">
       <c r="A106" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B106" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F106" s="7" t="s">
         <v>157</v>
@@ -10136,24 +10550,24 @@
         <v>157</v>
       </c>
       <c r="H106" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="30" customHeight="1">
       <c r="A107" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B107" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F107" s="7" t="s">
         <v>171</v>
@@ -10162,24 +10576,24 @@
         <v>171</v>
       </c>
       <c r="H107" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="30" customHeight="1">
       <c r="A108" s="6" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="B108" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F108" s="7" t="s">
         <v>157</v>
@@ -10188,24 +10602,24 @@
         <v>157</v>
       </c>
       <c r="H108" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="30" customHeight="1">
       <c r="A109" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B109" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F109" s="7" t="s">
         <v>171</v>
@@ -10214,24 +10628,24 @@
         <v>171</v>
       </c>
       <c r="H109" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="30" customHeight="1">
       <c r="A110" s="6" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="B110" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F110" s="7" t="s">
         <v>157</v>
@@ -10240,24 +10654,24 @@
         <v>157</v>
       </c>
       <c r="H110" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="30" customHeight="1">
       <c r="A111" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B111" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F111" s="7" t="s">
         <v>171</v>
@@ -10266,24 +10680,24 @@
         <v>171</v>
       </c>
       <c r="H111" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="30" customHeight="1">
       <c r="A112" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B112" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F112" s="7" t="s">
         <v>157</v>
@@ -10292,24 +10706,24 @@
         <v>157</v>
       </c>
       <c r="H112" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="30" customHeight="1">
       <c r="A113" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B113" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F113" s="7" t="s">
         <v>171</v>
@@ -10318,24 +10732,24 @@
         <v>171</v>
       </c>
       <c r="H113" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="30" customHeight="1">
       <c r="A114" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B114" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F114" s="7" t="s">
         <v>157</v>
@@ -10344,24 +10758,24 @@
         <v>157</v>
       </c>
       <c r="H114" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="30" customHeight="1">
       <c r="A115" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B115" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F115" s="7" t="s">
         <v>171</v>
@@ -10370,24 +10784,24 @@
         <v>171</v>
       </c>
       <c r="H115" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="30" customHeight="1">
       <c r="A116" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B116" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F116" s="7" t="s">
         <v>157</v>
@@ -10396,24 +10810,24 @@
         <v>157</v>
       </c>
       <c r="H116" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="30" customHeight="1">
       <c r="A117" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B117" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F117" s="7" t="s">
         <v>171</v>
@@ -10422,25 +10836,25 @@
         <v>171</v>
       </c>
       <c r="H117" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="30" customHeight="1">
       <c r="A118" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B118" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D118" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="E118" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="E118" s="7" t="s">
-        <v>463</v>
-      </c>
       <c r="F118" s="7" t="s">
         <v>171</v>
       </c>
@@ -10448,24 +10862,24 @@
         <v>171</v>
       </c>
       <c r="H118" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="30" customHeight="1">
       <c r="A119" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B119" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F119" s="7" t="s">
         <v>157</v>
@@ -10474,24 +10888,24 @@
         <v>157</v>
       </c>
       <c r="H119" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="30" customHeight="1">
       <c r="A120" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B120" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F120" s="7" t="s">
         <v>157</v>
@@ -10500,25 +10914,25 @@
         <v>157</v>
       </c>
       <c r="H120" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="30" customHeight="1">
       <c r="A121" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B121" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D121" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="E121" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="E121" s="7" t="s">
-        <v>463</v>
-      </c>
       <c r="F121" s="7" t="s">
         <v>171</v>
       </c>
@@ -10526,24 +10940,24 @@
         <v>171</v>
       </c>
       <c r="H121" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="30" customHeight="1">
       <c r="A122" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B122" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F122" s="7" t="s">
         <v>171</v>
@@ -10552,25 +10966,25 @@
         <v>171</v>
       </c>
       <c r="H122" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="30" customHeight="1">
       <c r="A123" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B123" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D123" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="E123" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="E123" s="7" t="s">
-        <v>463</v>
-      </c>
       <c r="F123" s="7" t="s">
         <v>171</v>
       </c>
@@ -10578,24 +10992,24 @@
         <v>171</v>
       </c>
       <c r="H123" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="30" customHeight="1">
       <c r="A124" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="B124" s="7">
+        <v>0</v>
+      </c>
+      <c r="C124" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="B124" s="7">
-        <v>1</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>480</v>
-      </c>
       <c r="D124" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F124" s="7" t="s">
         <v>157</v>
@@ -10604,24 +11018,24 @@
         <v>157</v>
       </c>
       <c r="H124" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="30" customHeight="1">
       <c r="A125" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B125" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F125" s="7" t="s">
         <v>157</v>
@@ -10630,24 +11044,24 @@
         <v>157</v>
       </c>
       <c r="H125" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="30" customHeight="1">
       <c r="A126" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B126" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F126" s="7" t="s">
         <v>157</v>
@@ -10656,24 +11070,24 @@
         <v>157</v>
       </c>
       <c r="H126" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="30" customHeight="1">
       <c r="A127" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B127" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F127" s="7" t="s">
         <v>157</v>
@@ -10682,24 +11096,24 @@
         <v>157</v>
       </c>
       <c r="H127" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="30" customHeight="1">
       <c r="A128" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B128" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F128" s="7" t="s">
         <v>171</v>
@@ -10708,24 +11122,24 @@
         <v>171</v>
       </c>
       <c r="H128" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="30" customHeight="1">
       <c r="A129" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B129" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F129" s="7" t="s">
         <v>157</v>
@@ -10734,24 +11148,24 @@
         <v>157</v>
       </c>
       <c r="H129" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="30" customHeight="1">
       <c r="A130" s="6" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B130" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F130" s="7" t="s">
         <v>157</v>
@@ -10760,24 +11174,24 @@
         <v>157</v>
       </c>
       <c r="H130" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="30" customHeight="1">
       <c r="A131" s="6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B131" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F131" s="7" t="s">
         <v>171</v>
@@ -10786,24 +11200,24 @@
         <v>171</v>
       </c>
       <c r="H131" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="30" customHeight="1">
       <c r="A132" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B132" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F132" s="7" t="s">
         <v>157</v>
@@ -10812,24 +11226,24 @@
         <v>157</v>
       </c>
       <c r="H132" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="30" customHeight="1">
       <c r="A133" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B133" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F133" s="7" t="s">
         <v>157</v>
@@ -10838,24 +11252,24 @@
         <v>157</v>
       </c>
       <c r="H133" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="30" customHeight="1">
       <c r="A134" s="6" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B134" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F134" s="7" t="s">
         <v>157</v>
@@ -10864,24 +11278,24 @@
         <v>157</v>
       </c>
       <c r="H134" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="30" customHeight="1">
       <c r="A135" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B135" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F135" s="7" t="s">
         <v>157</v>
@@ -10890,24 +11304,24 @@
         <v>157</v>
       </c>
       <c r="H135" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="30" customHeight="1">
       <c r="A136" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B136" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>171</v>
@@ -10916,24 +11330,24 @@
         <v>171</v>
       </c>
       <c r="H136" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="30" customHeight="1">
       <c r="A137" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B137" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F137" s="7" t="s">
         <v>157</v>
@@ -10942,24 +11356,24 @@
         <v>157</v>
       </c>
       <c r="H137" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="30" customHeight="1">
       <c r="A138" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B138" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F138" s="7" t="s">
         <v>157</v>
@@ -10968,24 +11382,24 @@
         <v>157</v>
       </c>
       <c r="H138" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="30" customHeight="1">
       <c r="A139" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B139" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F139" s="7" t="s">
         <v>171</v>
@@ -10994,24 +11408,24 @@
         <v>171</v>
       </c>
       <c r="H139" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="30" customHeight="1">
       <c r="A140" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B140" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F140" s="7" t="s">
         <v>157</v>
@@ -11020,24 +11434,24 @@
         <v>157</v>
       </c>
       <c r="H140" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="30" customHeight="1">
       <c r="A141" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B141" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F141" s="7" t="s">
         <v>157</v>
@@ -11046,24 +11460,24 @@
         <v>157</v>
       </c>
       <c r="H141" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="30" customHeight="1">
       <c r="A142" s="6" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="B142" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F142" s="7" t="s">
         <v>157</v>
@@ -11072,24 +11486,24 @@
         <v>157</v>
       </c>
       <c r="H142" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="30" customHeight="1">
       <c r="A143" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B143" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F143" s="7" t="s">
         <v>171</v>
@@ -11098,24 +11512,24 @@
         <v>171</v>
       </c>
       <c r="H143" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="30" customHeight="1">
       <c r="A144" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B144" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F144" s="7" t="s">
         <v>157</v>
@@ -11124,24 +11538,24 @@
         <v>157</v>
       </c>
       <c r="H144" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="30" customHeight="1">
       <c r="A145" s="6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B145" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F145" s="7" t="s">
         <v>157</v>
@@ -11150,24 +11564,24 @@
         <v>157</v>
       </c>
       <c r="H145" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="30" customHeight="1">
       <c r="A146" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B146" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F146" s="7" t="s">
         <v>171</v>
@@ -11176,24 +11590,24 @@
         <v>171</v>
       </c>
       <c r="H146" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="30" customHeight="1">
       <c r="A147" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B147" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F147" s="7" t="s">
         <v>157</v>
@@ -11202,24 +11616,24 @@
         <v>157</v>
       </c>
       <c r="H147" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="30" customHeight="1">
       <c r="A148" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B148" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F148" s="7" t="s">
         <v>157</v>
@@ -11228,24 +11642,24 @@
         <v>157</v>
       </c>
       <c r="H148" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="30" customHeight="1">
       <c r="A149" s="6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B149" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F149" s="7" t="s">
         <v>157</v>
@@ -11254,24 +11668,24 @@
         <v>157</v>
       </c>
       <c r="H149" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="30" customHeight="1">
       <c r="A150" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B150" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F150" s="7" t="s">
         <v>171</v>
@@ -11280,24 +11694,24 @@
         <v>171</v>
       </c>
       <c r="H150" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="30" customHeight="1">
       <c r="A151" s="6" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B151" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>217</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="F151" s="7" t="s">
         <v>157</v>
@@ -11306,24 +11720,24 @@
         <v>157</v>
       </c>
       <c r="H151" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="30" customHeight="1">
       <c r="A152" s="6" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B152" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>217</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="F152" s="7" t="s">
         <v>171</v>
@@ -11332,24 +11746,24 @@
         <v>171</v>
       </c>
       <c r="H152" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="30" customHeight="1">
       <c r="A153" s="6" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B153" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>217</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="F153" s="7" t="s">
         <v>157</v>
@@ -11358,24 +11772,24 @@
         <v>157</v>
       </c>
       <c r="H153" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="30" customHeight="1">
       <c r="A154" s="6" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B154" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>217</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="F154" s="7" t="s">
         <v>157</v>
@@ -11384,24 +11798,24 @@
         <v>157</v>
       </c>
       <c r="H154" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="30" customHeight="1">
       <c r="A155" s="6" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="B155" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>217</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="F155" s="7" t="s">
         <v>157</v>
@@ -11410,25 +11824,25 @@
         <v>157</v>
       </c>
       <c r="H155" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="30" customHeight="1">
       <c r="A156" s="6" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="B156" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>217</v>
       </c>
       <c r="D156" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="E156" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="E156" s="7" t="s">
-        <v>589</v>
-      </c>
       <c r="F156" s="7" t="s">
         <v>157</v>
       </c>
@@ -11436,24 +11850,24 @@
         <v>157</v>
       </c>
       <c r="H156" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="30" customHeight="1">
       <c r="A157" s="6" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B157" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>217</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F157" s="7" t="s">
         <v>157</v>
@@ -11462,24 +11876,24 @@
         <v>157</v>
       </c>
       <c r="H157" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="30" customHeight="1">
       <c r="A158" s="6" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B158" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>217</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F158" s="7" t="s">
         <v>171</v>
@@ -11488,24 +11902,24 @@
         <v>171</v>
       </c>
       <c r="H158" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="30" customHeight="1">
       <c r="A159" s="6" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B159" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>217</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F159" s="7" t="s">
         <v>157</v>
@@ -11514,24 +11928,24 @@
         <v>157</v>
       </c>
       <c r="H159" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="30" customHeight="1">
       <c r="A160" s="6" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="B160" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>217</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F160" s="7" t="s">
         <v>171</v>
@@ -11540,24 +11954,24 @@
         <v>171</v>
       </c>
       <c r="H160" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="30" customHeight="1">
       <c r="A161" s="6" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="B161" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="F161" s="7" t="s">
         <v>157</v>
@@ -11566,24 +11980,24 @@
         <v>157</v>
       </c>
       <c r="H161" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="30" customHeight="1">
       <c r="A162" s="6" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="B162" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>217</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="F162" s="7" t="s">
         <v>171</v>
@@ -11592,24 +12006,24 @@
         <v>171</v>
       </c>
       <c r="H162" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="30" customHeight="1">
       <c r="A163" s="6" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="B163" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>217</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="F163" s="7" t="s">
         <v>157</v>
@@ -11618,24 +12032,24 @@
         <v>157</v>
       </c>
       <c r="H163" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="30" customHeight="1">
       <c r="A164" s="6" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="B164" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>217</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="F164" s="7" t="s">
         <v>171</v>
@@ -11644,24 +12058,24 @@
         <v>171</v>
       </c>
       <c r="H164" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="29.25" customHeight="1">
       <c r="A165" s="6" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="B165" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>217</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="F165" s="7" t="s">
         <v>157</v>
@@ -11670,24 +12084,24 @@
         <v>157</v>
       </c>
       <c r="H165" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="30" customHeight="1">
       <c r="A166" s="6" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="B166" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="F166" s="7" t="s">
         <v>171</v>
@@ -11696,24 +12110,24 @@
         <v>171</v>
       </c>
       <c r="H166" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="30" customHeight="1">
       <c r="A167" s="6" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="B167" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="F167" s="7" t="s">
         <v>157</v>
@@ -11722,24 +12136,24 @@
         <v>157</v>
       </c>
       <c r="H167" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="30" customHeight="1">
       <c r="A168" s="6" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="B168" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="F168" s="7" t="s">
         <v>171</v>
@@ -11748,24 +12162,24 @@
         <v>171</v>
       </c>
       <c r="H168" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="30" customHeight="1">
       <c r="A169" s="6" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="B169" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="F169" s="7" t="s">
         <v>157</v>
@@ -11774,24 +12188,24 @@
         <v>157</v>
       </c>
       <c r="H169" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="30" customHeight="1">
       <c r="A170" s="6" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="B170" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="F170" s="7" t="s">
         <v>171</v>
@@ -11800,24 +12214,24 @@
         <v>171</v>
       </c>
       <c r="H170" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="30" customHeight="1">
       <c r="A171" s="6" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="B171" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="F171" s="7" t="s">
         <v>157</v>
@@ -11826,24 +12240,24 @@
         <v>157</v>
       </c>
       <c r="H171" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="30" customHeight="1">
       <c r="A172" s="6" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="B172" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="F172" s="7" t="s">
         <v>171</v>
@@ -11852,24 +12266,24 @@
         <v>171</v>
       </c>
       <c r="H172" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="30" customHeight="1">
       <c r="A173" s="6" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="B173" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="F173" s="7" t="s">
         <v>157</v>
@@ -11878,22 +12292,22 @@
         <v>157</v>
       </c>
       <c r="H173" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="30" customHeight="1">
       <c r="A174" s="6" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="B174" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>217</v>
       </c>
       <c r="D174" s="7"/>
       <c r="E174" s="7" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="F174" s="7" t="s">
         <v>157</v>
@@ -11902,22 +12316,22 @@
         <v>157</v>
       </c>
       <c r="H174" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="30" customHeight="1">
       <c r="A175" s="6" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="B175" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="D175" s="7"/>
       <c r="E175" s="7" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="F175" s="7" t="s">
         <v>171</v>
@@ -11926,21 +12340,21 @@
         <v>171</v>
       </c>
       <c r="H175" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="30" customHeight="1">
       <c r="A176" s="6" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="B176" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="F176" s="7" t="s">
         <v>157</v>
@@ -11949,21 +12363,21 @@
         <v>157</v>
       </c>
       <c r="H176" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="30" customHeight="1">
       <c r="A177" s="6" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="B177" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="F177" s="7" t="s">
         <v>157</v>
@@ -11972,24 +12386,24 @@
         <v>157</v>
       </c>
       <c r="H177" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="30" customHeight="1">
       <c r="A178" s="6" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="B178" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>217</v>
       </c>
       <c r="D178" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="E178" s="7" t="s">
         <v>667</v>
-      </c>
-      <c r="E178" s="7" t="s">
-        <v>675</v>
       </c>
       <c r="F178" s="7" t="s">
         <v>44</v>
@@ -11998,24 +12412,24 @@
         <v>171</v>
       </c>
       <c r="H178" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="30" customHeight="1">
       <c r="A179" s="6" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="B179" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>217</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="F179" s="7" t="s">
         <v>24</v>
@@ -12024,24 +12438,24 @@
         <v>157</v>
       </c>
       <c r="H179" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="30" customHeight="1">
       <c r="A180" s="6" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="B180" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>217</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="F180" s="7" t="s">
         <v>44</v>
@@ -12050,24 +12464,24 @@
         <v>171</v>
       </c>
       <c r="H180" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="30" customHeight="1">
       <c r="A181" s="6" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="B181" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>217</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="F181" s="7" t="s">
         <v>44</v>
@@ -12076,24 +12490,24 @@
         <v>171</v>
       </c>
       <c r="H181" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="30" customHeight="1">
       <c r="A182" s="6" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="B182" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>217</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="E182" s="7" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="F182" s="7" t="s">
         <v>24</v>
@@ -12102,24 +12516,24 @@
         <v>157</v>
       </c>
       <c r="H182" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="30" customHeight="1">
       <c r="A183" s="6" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="B183" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>217</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="E183" s="7" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="F183" s="7" t="s">
         <v>24</v>
@@ -12128,24 +12542,24 @@
         <v>157</v>
       </c>
       <c r="H183" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="30" customHeight="1">
       <c r="A184" s="6" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="B184" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>217</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="E184" s="7" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="F184" s="7" t="s">
         <v>24</v>
@@ -12154,24 +12568,24 @@
         <v>157</v>
       </c>
       <c r="H184" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="30" customHeight="1">
       <c r="A185" s="6" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="B185" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>217</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="E185" s="7" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="F185" s="7" t="s">
         <v>44</v>
@@ -12180,24 +12594,24 @@
         <v>171</v>
       </c>
       <c r="H185" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="30" customHeight="1">
       <c r="A186" s="6" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="B186" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>217</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="E186" s="7" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="F186" s="7" t="s">
         <v>24</v>
@@ -12206,7 +12620,7 @@
         <v>157</v>
       </c>
       <c r="H186" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
   </sheetData>
@@ -12220,35 +12634,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="59.25" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="39.375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="56.75" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="38.25" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="31.625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="31.625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.875" collapsed="true"/>
+    <col min="1" max="1" width="59.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="56.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="38.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="31.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="6" customFormat="1" ht="22.5" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>6</v>
@@ -12257,91 +12671,91 @@
         <v>7</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="40.5">
       <c r="A2" s="6" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="40.5">
       <c r="A3" s="6" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:9" ht="40.5">
       <c r="A4" s="6" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:9" ht="40.5">
       <c r="A5" s="6" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:9" ht="40.5">
       <c r="A6" s="6" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:9" ht="40.5">
       <c r="A7" s="6" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:9" ht="40.5">
       <c r="A8" s="6" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:9" ht="40.5">
       <c r="A9" s="6" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -12366,7 +12780,7 @@
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1">
       <c r="A12" s="14" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="8" t="s">
@@ -12375,7 +12789,7 @@
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1">
       <c r="A13" s="14" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="8" t="s">
@@ -12384,7 +12798,7 @@
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="8" t="s">
@@ -12393,7 +12807,7 @@
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1">
       <c r="A15" s="14" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="8" t="s">
@@ -12402,12 +12816,12 @@
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1">
       <c r="A17" s="14" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>47</v>
@@ -12415,7 +12829,7 @@
     </row>
     <row r="18" spans="1:8" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>48</v>
@@ -12423,144 +12837,144 @@
     </row>
     <row r="19" spans="1:8" ht="40.5">
       <c r="A19" s="14" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:8" ht="40.5">
       <c r="A20" s="14" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:8" ht="41.25" customHeight="1">
       <c r="A21" s="14" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="8" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="41.25" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="8" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="94.5">
       <c r="A23" s="14" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C23" s="8"/>
       <c r="H23" s="17" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="67.5">
       <c r="A24" s="14" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="40.5">
       <c r="A25" s="14" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="40.5">
       <c r="A26" s="14" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="40.5">
       <c r="A27" s="14" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="40.5">
       <c r="A28" s="14" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="40.5">
       <c r="A29" s="14" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="40.5">
       <c r="A30" s="14" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="40.5">
       <c r="A31" s="14" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
     </row>
   </sheetData>
@@ -12574,19 +12988,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="69.25" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.75" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="63.375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.25" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="11.375" collapsed="true"/>
+    <col min="1" max="1" width="69.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="63.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.25" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1">
@@ -12617,19 +13031,19 @@
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>171</v>
@@ -12638,24 +13052,24 @@
         <v>171</v>
       </c>
       <c r="H2" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>157</v>
@@ -12664,24 +13078,24 @@
         <v>157</v>
       </c>
       <c r="H3" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="B4" s="7">
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>157</v>
@@ -12690,24 +13104,24 @@
         <v>157</v>
       </c>
       <c r="H4" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>157</v>
@@ -12716,24 +13130,24 @@
         <v>157</v>
       </c>
       <c r="H5" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>171</v>
@@ -12742,24 +13156,24 @@
         <v>171</v>
       </c>
       <c r="H6" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="B7" s="7">
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>171</v>
@@ -12768,24 +13182,24 @@
         <v>171</v>
       </c>
       <c r="H7" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="B8" s="7">
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>755</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>763</v>
-      </c>
       <c r="E8" s="7" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>171</v>
@@ -12794,24 +13208,24 @@
         <v>171</v>
       </c>
       <c r="H8" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="B9" s="7">
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>157</v>
@@ -12820,24 +13234,24 @@
         <v>157</v>
       </c>
       <c r="H9" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="B10" s="7">
         <v>1</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>157</v>
@@ -12846,24 +13260,24 @@
         <v>157</v>
       </c>
       <c r="H10" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="B11" s="7">
         <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>157</v>
@@ -12872,24 +13286,24 @@
         <v>157</v>
       </c>
       <c r="H11" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="B12" s="7">
         <v>1</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>171</v>
@@ -12898,24 +13312,24 @@
         <v>171</v>
       </c>
       <c r="H12" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="B13" s="7">
         <v>1</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>171</v>
@@ -12924,12 +13338,12 @@
         <v>171</v>
       </c>
       <c r="H13" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="B14" s="7">
         <v>1</v>
@@ -12938,10 +13352,10 @@
         <v>217</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>171</v>
@@ -12950,12 +13364,12 @@
         <v>171</v>
       </c>
       <c r="H14" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="B15" s="7">
         <v>1</v>
@@ -12964,11 +13378,11 @@
         <v>217</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>800</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>808</v>
-      </c>
       <c r="F15" s="7" t="s">
         <v>157</v>
       </c>
@@ -12976,12 +13390,12 @@
         <v>157</v>
       </c>
       <c r="H15" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="B16" s="7">
         <v>1</v>
@@ -12990,10 +13404,10 @@
         <v>217</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>171</v>
@@ -13002,12 +13416,12 @@
         <v>171</v>
       </c>
       <c r="H16" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="B17" s="7">
         <v>1</v>
@@ -13016,10 +13430,10 @@
         <v>217</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>157</v>
@@ -13028,24 +13442,24 @@
         <v>157</v>
       </c>
       <c r="H17" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="B18" s="7">
         <v>1</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>44</v>
@@ -13054,24 +13468,24 @@
         <v>171</v>
       </c>
       <c r="H18" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="B19" s="7">
         <v>1</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>49</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>24</v>
@@ -13080,24 +13494,24 @@
         <v>157</v>
       </c>
       <c r="H19" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="B20" s="7">
         <v>1</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>44</v>
@@ -13106,24 +13520,24 @@
         <v>171</v>
       </c>
       <c r="H20" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="B21" s="7">
         <v>1</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>44</v>
@@ -13132,24 +13546,24 @@
         <v>171</v>
       </c>
       <c r="H21" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="30" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="B22" s="7">
         <v>1</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>24</v>
@@ -13158,24 +13572,24 @@
         <v>157</v>
       </c>
       <c r="H22" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="B23" s="7">
         <v>1</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>24</v>
@@ -13184,24 +13598,24 @@
         <v>157</v>
       </c>
       <c r="H23" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="30" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="B24" s="7">
         <v>1</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>24</v>
@@ -13210,24 +13624,24 @@
         <v>157</v>
       </c>
       <c r="H24" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="30" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="B25" s="7">
         <v>1</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>44</v>
@@ -13236,24 +13650,24 @@
         <v>171</v>
       </c>
       <c r="H25" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="30" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="B26" s="7">
         <v>1</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>24</v>
@@ -13262,12 +13676,12 @@
         <v>157</v>
       </c>
       <c r="H26" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="30" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="B27" s="7">
         <v>1</v>
@@ -13276,10 +13690,10 @@
         <v>217</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>44</v>
@@ -13288,12 +13702,12 @@
         <v>171</v>
       </c>
       <c r="H27" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="30" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="B28" s="7">
         <v>1</v>
@@ -13302,10 +13716,10 @@
         <v>217</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>44</v>
@@ -13314,12 +13728,12 @@
         <v>171</v>
       </c>
       <c r="H28" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="30" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="B29" s="7">
         <v>1</v>
@@ -13328,10 +13742,10 @@
         <v>217</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>24</v>
@@ -13340,12 +13754,12 @@
         <v>157</v>
       </c>
       <c r="H29" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="30" customHeight="1">
       <c r="A30" s="6" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="B30" s="7">
         <v>1</v>
@@ -13354,10 +13768,10 @@
         <v>217</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>44</v>
@@ -13366,12 +13780,12 @@
         <v>171</v>
       </c>
       <c r="H30" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="30" customHeight="1">
       <c r="A31" s="6" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="B31" s="7">
         <v>1</v>
@@ -13380,10 +13794,10 @@
         <v>217</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>24</v>
@@ -13392,12 +13806,12 @@
         <v>157</v>
       </c>
       <c r="H31" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="30" customHeight="1">
       <c r="A32" s="6" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="B32" s="7">
         <v>1</v>
@@ -13406,10 +13820,10 @@
         <v>217</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>44</v>
@@ -13418,12 +13832,12 @@
         <v>171</v>
       </c>
       <c r="H32" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="30" customHeight="1">
       <c r="A33" s="6" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="B33" s="7">
         <v>1</v>
@@ -13432,10 +13846,10 @@
         <v>217</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>24</v>
@@ -13444,12 +13858,12 @@
         <v>157</v>
       </c>
       <c r="H33" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="30" customHeight="1">
       <c r="A34" s="6" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="B34" s="7">
         <v>1</v>
@@ -13458,10 +13872,10 @@
         <v>217</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>44</v>
@@ -13470,12 +13884,12 @@
         <v>171</v>
       </c>
       <c r="H34" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="30" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="B35" s="7">
         <v>1</v>
@@ -13484,10 +13898,10 @@
         <v>217</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>24</v>
@@ -13496,7 +13910,7 @@
         <v>157</v>
       </c>
       <c r="H35" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
   </sheetData>
@@ -13507,120 +13921,162 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" style="11" width="9.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.25" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="21.625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="3" max="3" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.25" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="7">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="11">
+    <row r="1" spans="1:7" ht="30" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>886</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>887</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>889</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>890</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>896</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>901</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>910</v>
+      </c>
+      <c r="E5" s="7">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="E6" s="7">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>903</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="E7" s="7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>917</v>
+      </c>
+      <c r="B8" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>824</v>
-      </c>
-      <c r="E3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="11">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" t="s">
-        <v>827</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>825</v>
-      </c>
-      <c r="E4" t="s">
-        <v>826</v>
-      </c>
-      <c r="F4" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="11">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" t="s">
-        <v>845</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>825</v>
-      </c>
-      <c r="E5" t="s">
-        <v>826</v>
-      </c>
-      <c r="F5" t="s">
-        <v>844</v>
+      <c r="C8" s="7" t="s">
+        <v>923</v>
+      </c>
+      <c r="D8" t="s">
+        <v>926</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1130</v>
       </c>
     </row>
   </sheetData>

--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3585" windowWidth="21735" windowHeight="5055" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="3585" windowWidth="21735" windowHeight="5055" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="元数据表" sheetId="11" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="1021">
   <si>
     <t>loginName</t>
   </si>
@@ -2688,10 +2688,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有一笔申请到虚拟信用卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>有一笔申请到虚拟信用卡但mobileSign不同</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2749,10 +2745,6 @@
   </si>
   <si>
     <t>VA_F011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人占比小于90</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3725,425 +3717,437 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>身份认证成功</t>
+  </si>
+  <si>
+    <t>身份认证失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"certAuthStatus":"AF","custName":"王宁","idNo":"220322199901297363","cardNo":"6217001000000000201","userRole":"BORROWERS"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"certAuthStatus":"AS","custName":"于翔","idNo":"120100197909096695","cardNo":"6217001000000000211","userRole":"BORROWERS"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份认证成功2</t>
+  </si>
+  <si>
+    <t>身份认证成功2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份认证成功3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"certAuthStatus":"AS","custName":"戚广晓","idNo":"530101199108177729","cardNo":"6217001000000000212","userRole":"BORROWERS"}</t>
+  </si>
+  <si>
+    <t>photoAuth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photoAuth成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photoAuth失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"photoAuthStatus":"AF"}</t>
+  </si>
+  <si>
+    <t>学籍认证失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"schoolRollAuthStatus":"AF","entranceTime":"2014-09-01","province":"江苏省","city":"苏州市","collegeName":"苏州大学","professionName":"","clogLevel":"本科"}</t>
+  </si>
+  <si>
+    <t>student二线城市本科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student二线城市专科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2016-09-01","province":"江苏省","city":"苏州市","collegeName":"苏州大学","professionName":"材料类","clogLevel":"本科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2016-09-01","province":"江苏省","city":"苏州市","collegeName":"苏州市职业大学","professionName":"计算机网络技术","clogLevel":"专科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学籍认证成功(标准)</t>
+  </si>
+  <si>
+    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2015-09-01","province":"江苏省","city":"苏州市","collegeName":"苏州大学","professionName":"信息与计算科学","clogLevel":"本科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与标准不同校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2016-09-01","province":"山西省","city":"太原市","collegeName":"太原理工大学","professionName":"信息与计算科学","clogLevel":"本科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与标准不同专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2016-09-01","province":"江苏省","city":"苏州市","collegeName":"苏州大学","professionName":"计算机类","clogLevel":"本科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2016-09-01","province":"江苏省","city":"淮安市","collegeName":"淮安信息职业技术学院","professionName":"软件技术","clogLevel":"专科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2016-09-01","province":"江苏省","city":"淮安市","collegeName":"淮阴师范学院","professionName":"计算机科学与技术","clogLevel":"本科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2016-09-01","province":"上海市","city":"杨浦区","collegeName":"复旦大学","professionName":"软件工程","clogLevel":"本科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2016-09-01","province":"上海市","city":"杨浦区","collegeName":"上海健康职业技术学院","professionName":"护理","clogLevel":"专科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯认证成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯认证失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父母所在地与学籍认证(标准)相同</t>
+  </si>
+  <si>
+    <t>父母所在地与学籍认证(标准)不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"addrAuthStatus":"AS","nowProvince":"江苏省","nowCity":"苏州市","fullAddr":"苏州市高新区"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"addrAuthStatus":"AS","nowProvince":"上海市","nowCity":"杨浦区","fullAddr":"杨浦区"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现居地一线城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现居地二线城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现居地二线城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现居地三线城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"addrAuthStatus":"AS","nowProvince":"江苏省","nowCity":"淮安市","fullAddr":"淮安市高新区"}</t>
+  </si>
+  <si>
+    <t>{"addrAuthStatus":"AS","nowProvince":"江苏省","nowCity":"乌鲁木齐","fullAddr":"乌鲁木齐高新区"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一线城市本科毕业0-6个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一线城市本科毕业7-15个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一线城市本科毕业15个月以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一线城市本科毕业15个月以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕业专科学校在新疆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一线城市专科毕业0-6个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一线城市专科毕业0-6个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二线城市本科毕业0-6个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二线城市本科毕业0-6个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二线城市专科毕业0-6个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二线城市专科毕业0-6个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号认证成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号认证成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobileSign不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobileSign不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobileSign为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobileSign为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一线城市手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一线城市手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二线城市手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份认证成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份认证成功2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photoAuth成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photoAuth成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photoAuth失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学籍认证成功(标准)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student一线城市本科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student一线城市专科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student三线城市本科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student三线城市本科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student三线城市专科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2015-07-01","province":"江苏省","city":"苏州市","collegeName":"苏州大学","professionName":"","clogLevel":"本科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student入学&gt;1年</t>
+  </si>
+  <si>
+    <t>student入学&lt;1年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student入学&gt;1年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student入学&lt;1年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student本科学校在新疆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student专科学校在新疆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2014-09-01","province":"新疆","city":"乌鲁木齐市","collegeName":"乌鲁木齐职业大学","professionName":"","clogLevel":"专科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与标准不同年入学</t>
+  </si>
+  <si>
+    <t>student已毕业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2012-09-01","province":"江苏省","city":"苏州市","collegeName":"苏州大学","professionName":"信息与计算科学","clogLevel":"本科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与标准不同年入学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student已毕业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父母所在地与学籍认证(标准)相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现居地在新疆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>educationAuth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoneAuth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schoolRollAuth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jxlMobileAuth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contractor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VA_F001_dinstinctName和distinctMobile都为20(毕业7+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student入学&gt;1年，学校与父母所在地不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student入学&lt;1年，学校与父母所在地不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student入学&lt;1年，学校与父母所在地不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2016-09-01","province":"新疆","city":"乌鲁木齐市","collegeName":"新疆大学","professionName":"","clogLevel":"本科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2016-09-01","province":"江苏省","city":"苏州市","collegeName":"苏州大学","professionName":"信息与计算科学","clogLevel":"本科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与student是同学B的通讯录中有A但A中没有B但C中有AA中有C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号认证成功2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phoneAuthStatus":"AS","mobile":"18000000011","mobileSign":"999999999"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号认证成功3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phoneAuthStatus":"AS","mobile":"18000000012","mobileSign":"999999999"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2017-07-01","province":"江苏省","city":"苏州市","collegeName":"苏州大学","professionName":"","clogLevel":"本科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一笔申请到虚拟信用卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与student是同学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"allCount": "1","isApply": "Y","orders": [{"userinfoNo": "与student是同学","time": "0",}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"allCount": "1","isApply": "Y","orders": [{"userinfoNo": "与student是同学","time": "1",}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人占比小于90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一笔申请到虚拟信用卡但mobileSign不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一笔申请到虚拟信用卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{"certAuthStatus":"AS","custName":"王宁","idNo":"220322199901297363","cardNo":"6217001000000000201","userRole":"BORROWERS"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份认证成功</t>
-  </si>
-  <si>
-    <t>身份认证失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"certAuthStatus":"AF","custName":"王宁","idNo":"220322199901297363","cardNo":"6217001000000000201","userRole":"BORROWERS"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"certAuthStatus":"AS","custName":"于翔","idNo":"120100197909096695","cardNo":"6217001000000000211","userRole":"BORROWERS"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份认证成功2</t>
-  </si>
-  <si>
-    <t>身份认证成功2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份认证成功3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"certAuthStatus":"AS","custName":"戚广晓","idNo":"530101199108177729","cardNo":"6217001000000000212","userRole":"BORROWERS"}</t>
-  </si>
-  <si>
-    <t>photoAuth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>photoAuth成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>photoAuth失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"photoAuthStatus":"AF"}</t>
-  </si>
-  <si>
-    <t>学籍认证失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"schoolRollAuthStatus":"AF","entranceTime":"2014-09-01","province":"江苏省","city":"苏州市","collegeName":"苏州大学","professionName":"","clogLevel":"本科"}</t>
-  </si>
-  <si>
-    <t>student二线城市本科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>student二线城市专科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2016-09-01","province":"江苏省","city":"苏州市","collegeName":"苏州大学","professionName":"材料类","clogLevel":"本科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2016-09-01","province":"江苏省","city":"苏州市","collegeName":"苏州市职业大学","professionName":"计算机网络技术","clogLevel":"专科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学籍认证成功(标准)</t>
-  </si>
-  <si>
-    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2015-09-01","province":"江苏省","city":"苏州市","collegeName":"苏州大学","professionName":"信息与计算科学","clogLevel":"本科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与标准不同校</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2016-09-01","province":"山西省","city":"太原市","collegeName":"太原理工大学","professionName":"信息与计算科学","clogLevel":"本科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与标准不同专业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2016-09-01","province":"江苏省","city":"苏州市","collegeName":"苏州大学","professionName":"计算机类","clogLevel":"本科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2016-09-01","province":"江苏省","city":"淮安市","collegeName":"淮安信息职业技术学院","professionName":"软件技术","clogLevel":"专科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2016-09-01","province":"江苏省","city":"淮安市","collegeName":"淮阴师范学院","professionName":"计算机科学与技术","clogLevel":"本科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2016-09-01","province":"上海市","city":"杨浦区","collegeName":"复旦大学","professionName":"软件工程","clogLevel":"本科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2016-09-01","province":"上海市","city":"杨浦区","collegeName":"上海健康职业技术学院","professionName":"护理","clogLevel":"专科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通讯认证成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通讯认证失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父母所在地与学籍认证(标准)相同</t>
-  </si>
-  <si>
-    <t>父母所在地与学籍认证(标准)不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"addrAuthStatus":"AS","nowProvince":"江苏省","nowCity":"苏州市","fullAddr":"苏州市高新区"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"addrAuthStatus":"AS","nowProvince":"上海市","nowCity":"杨浦区","fullAddr":"杨浦区"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现居地一线城市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现居地二线城市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现居地二线城市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现居地三线城市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"addrAuthStatus":"AS","nowProvince":"江苏省","nowCity":"淮安市","fullAddr":"淮安市高新区"}</t>
-  </si>
-  <si>
-    <t>{"addrAuthStatus":"AS","nowProvince":"江苏省","nowCity":"乌鲁木齐","fullAddr":"乌鲁木齐高新区"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一线城市本科毕业0-6个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一线城市本科毕业7-15个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一线城市本科毕业15个月以上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一线城市本科毕业15个月以上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毕业专科学校在新疆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一线城市专科毕业0-6个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一线城市专科毕业0-6个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二线城市本科毕业0-6个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二线城市本科毕业0-6个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二线城市专科毕业0-6个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二线城市专科毕业0-6个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号认证成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号认证成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobileSign不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobileSign不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobileSign为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobileSign为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一线城市手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一线城市手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二线城市手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份认证成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份认证成功2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>photoAuth成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>photoAuth成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>photoAuth失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学籍认证成功(标准)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>student一线城市本科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>student一线城市专科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>student三线城市本科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>student三线城市本科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>student三线城市专科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2015-07-01","province":"江苏省","city":"苏州市","collegeName":"苏州大学","professionName":"","clogLevel":"本科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>student入学&gt;1年</t>
-  </si>
-  <si>
-    <t>student入学&lt;1年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>student入学&gt;1年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>student入学&lt;1年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>student本科学校在新疆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>student专科学校在新疆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2014-09-01","province":"新疆","city":"乌鲁木齐市","collegeName":"乌鲁木齐职业大学","professionName":"","clogLevel":"专科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与标准不同年入学</t>
-  </si>
-  <si>
-    <t>student已毕业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2012-09-01","province":"江苏省","city":"苏州市","collegeName":"苏州大学","professionName":"信息与计算科学","clogLevel":"本科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与标准不同年入学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>student已毕业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父母所在地与学籍认证(标准)相同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现居地在新疆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>educationAuth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phoneAuth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>schoolRollAuth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jxlMobileAuth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contractor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VA_F001_dinstinctName和distinctMobile都为20(毕业7+)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>student入学&gt;1年，学校与父母所在地不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>student入学&lt;1年，学校与父母所在地不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>student入学&lt;1年，学校与父母所在地不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2016-09-01","province":"新疆","city":"乌鲁木齐市","collegeName":"新疆大学","professionName":"","clogLevel":"本科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2016-09-01","province":"江苏省","city":"苏州市","collegeName":"苏州大学","professionName":"信息与计算科学","clogLevel":"本科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与student是同学B的通讯录中有A但A中没有B但C中有AA中有C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号认证成功2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phoneAuthStatus":"AS","mobile":"18000000011","mobileSign":"999999999"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号认证成功3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phoneAuthStatus":"AS","mobile":"18000000012","mobileSign":"999999999"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2017-07-01","province":"江苏省","city":"苏州市","collegeName":"苏州大学","professionName":"","clogLevel":"本科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有一笔申请到虚拟信用卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与student是同学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"allCount": "1","isApply": "Y","orders": [{"userinfoNo": "与student是同学","time": "0",}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"allCount": "1","isApply": "Y","orders": [{"userinfoNo": "与student是同学","time": "1",}]}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4582,8 +4586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4594,162 +4598,162 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B1" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="B3" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="B9" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="B15" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4757,124 +4761,124 @@
         <v>443</v>
       </c>
       <c r="B21" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="B22" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="B23" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="B24" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B25" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B26" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="B27" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B28" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B29" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="B30" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B31" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="B32" t="s">
-        <v>912</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B33" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B34" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B35" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
@@ -4882,143 +4886,143 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B37" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="B38" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B39" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="4" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="4" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B42" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="4" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B43" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="4" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="4" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="4" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="B46" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="4" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="B47" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="4" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="B48" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="4" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="B49" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="B50" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="4" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="4" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>338</v>
@@ -5026,7 +5030,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="4" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>162</v>
@@ -5034,7 +5038,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="4" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>153</v>
@@ -5042,7 +5046,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="4" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>316</v>
@@ -5050,34 +5054,34 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="4" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="4" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="4" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="B60" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="4" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
   </sheetData>
@@ -5108,36 +5112,36 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1">
       <c r="A1" s="13" t="s">
+        <v>832</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>833</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>834</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>835</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>836</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>837</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>838</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>839</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6">
@@ -5146,13 +5150,13 @@
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6">
@@ -5161,13 +5165,13 @@
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6">
@@ -5176,13 +5180,13 @@
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E5" s="6">
         <v>900</v>
@@ -5190,7 +5194,7 @@
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
@@ -5204,13 +5208,13 @@
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B7" s="6">
         <v>0</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E7" s="6">
         <v>600</v>
@@ -5218,13 +5222,13 @@
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B8" s="6">
         <v>0</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E8" s="6">
         <v>1500</v>
@@ -5232,13 +5236,13 @@
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B9" s="6">
         <v>0</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E9" s="6">
         <v>1130</v>
@@ -5319,7 +5323,7 @@
         <v>67</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E3" t="s">
         <v>66</v>
@@ -5336,13 +5340,13 @@
         <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E4" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F4" t="s">
         <v>642</v>
@@ -5356,16 +5360,16 @@
         <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E5" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F5" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
   </sheetData>
@@ -5378,8 +5382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5408,28 +5412,28 @@
         <v>533</v>
       </c>
       <c r="D1" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="E1" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="F1" t="s">
         <v>655</v>
       </c>
       <c r="G1" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="H1" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="I1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="J1" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="K1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1">
@@ -5444,25 +5448,25 @@
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1">
@@ -5476,29 +5480,29 @@
         <v>534</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" ht="30" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>2</v>
@@ -5508,30 +5512,30 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>2</v>
@@ -5541,30 +5545,30 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>2</v>
@@ -5574,30 +5578,30 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>2</v>
@@ -5607,30 +5611,30 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>2</v>
@@ -5640,25 +5644,25 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1">
@@ -5673,30 +5677,30 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>2</v>
@@ -5705,26 +5709,26 @@
         <v>534</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="22" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" customHeight="1">
@@ -5738,26 +5742,26 @@
         <v>534</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="22" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1">
@@ -5772,30 +5776,30 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>2</v>
@@ -5805,30 +5809,30 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="I13" s="22" t="s">
+        <v>938</v>
+      </c>
+      <c r="J13" s="22" t="s">
         <v>941</v>
       </c>
-      <c r="J13" s="22" t="s">
-        <v>944</v>
-      </c>
       <c r="K13" s="22" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>2</v>
@@ -5838,25 +5842,25 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="I14" s="22" t="s">
+        <v>938</v>
+      </c>
+      <c r="J14" s="22" t="s">
         <v>941</v>
       </c>
-      <c r="J14" s="22" t="s">
-        <v>944</v>
-      </c>
       <c r="K14" s="22" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30" customHeight="1">
@@ -5871,25 +5875,25 @@
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>450</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1">
@@ -5906,23 +5910,23 @@
         <v>443</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="22" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="30" customHeight="1">
@@ -5937,25 +5941,25 @@
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="30" customHeight="1">
@@ -5972,28 +5976,28 @@
         <v>473</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="22" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="30" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>535</v>
@@ -6003,25 +6007,25 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="5" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="30" customHeight="1">
@@ -6036,25 +6040,25 @@
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="5" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="30" customHeight="1">
@@ -6069,25 +6073,25 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="5" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="30" customHeight="1">
@@ -6102,25 +6106,25 @@
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="5" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="30" customHeight="1">
@@ -6135,25 +6139,25 @@
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="5" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="30" customHeight="1">
@@ -6168,25 +6172,25 @@
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="5" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="30" customHeight="1">
@@ -6200,31 +6204,31 @@
         <v>534</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="22" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="30" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>647</v>
@@ -6233,97 +6237,97 @@
         <v>534</v>
       </c>
       <c r="D26" s="7"/>
-      <c r="E26" s="7" t="s">
-        <v>965</v>
+      <c r="E26" s="5" t="s">
+        <v>1008</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="30" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>534</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="30" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>534</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="30" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>2</v>
@@ -6332,31 +6336,31 @@
         <v>534</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="22" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="30" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>2</v>
@@ -6365,31 +6369,31 @@
         <v>534</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="22" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="30" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B31" s="21" t="s">
         <v>2</v>
@@ -6398,31 +6402,31 @@
         <v>534</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="22" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="30" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>2</v>
@@ -6431,26 +6435,26 @@
         <v>534</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="22" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
   </sheetData>
@@ -6892,7 +6896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -7753,8 +7757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView topLeftCell="J34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7814,10 +7818,10 @@
         <v>332</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N1" s="13" t="s">
         <v>444</v>
@@ -7999,7 +8003,7 @@
         <v>348</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>303</v>
@@ -8010,7 +8014,7 @@
         <v>357</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>303</v>
@@ -8039,7 +8043,7 @@
         <v>347</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>303</v>
@@ -8050,7 +8054,7 @@
         <v>357</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>303</v>
@@ -8320,7 +8324,7 @@
         <v>381</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>360</v>
@@ -8339,7 +8343,7 @@
         <v>384</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>360</v>
@@ -8391,7 +8395,7 @@
         <v>345</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="27">
@@ -8399,22 +8403,22 @@
         <v>352</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="27">
       <c r="A46" s="5" t="s">
-        <v>662</v>
+        <v>1019</v>
       </c>
       <c r="B46" s="3"/>
       <c r="L46" s="16" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="M46" s="16"/>
     </row>
     <row r="47" spans="1:13" ht="27">
       <c r="A47" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B47" s="3"/>
       <c r="L47" s="16" t="s">
@@ -8424,11 +8428,11 @@
     </row>
     <row r="48" spans="1:13" ht="27">
       <c r="A48" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B48" s="3"/>
       <c r="L48" s="16" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="M48" s="16"/>
     </row>
@@ -8444,7 +8448,7 @@
     </row>
     <row r="50" spans="1:16" ht="27">
       <c r="A50" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B50" s="3"/>
       <c r="L50" s="16" t="s">
@@ -8454,26 +8458,26 @@
     </row>
     <row r="51" spans="1:16" ht="27">
       <c r="A51" s="13" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L51" s="16"/>
       <c r="M51" s="16" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="27">
       <c r="A52" s="13" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="L52" s="16"/>
       <c r="M52" s="16" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="30" customHeight="1">
@@ -8505,7 +8509,7 @@
         <v>432</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="N56" s="17" t="s">
         <v>422</v>
@@ -8516,7 +8520,7 @@
         <v>434</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="N57" s="17" t="s">
         <v>422</v>
@@ -8543,7 +8547,7 @@
         <v>500</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="O60" t="s">
         <v>445</v>
@@ -8554,7 +8558,7 @@
         <v>502</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="O61" t="s">
         <v>445</v>
@@ -8613,7 +8617,7 @@
         <v>498</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="P68" s="3" t="s">
         <v>482</v>
@@ -8624,7 +8628,7 @@
         <v>504</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="P69" s="3" t="s">
         <v>482</v>
@@ -8675,7 +8679,7 @@
         <v>520</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="P75" s="3" t="s">
         <v>482</v>
@@ -8686,7 +8690,7 @@
         <v>521</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>482</v>
@@ -8761,7 +8765,7 @@
         <v>577</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="Q85" s="2" t="s">
         <v>540</v>
@@ -8772,7 +8776,7 @@
         <v>574</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="Q86" s="2" t="s">
         <v>540</v>
@@ -8899,7 +8903,7 @@
         <v>49</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="S100" s="6"/>
       <c r="T100" s="6"/>
@@ -8912,7 +8916,7 @@
         <v>50</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="S101" s="6"/>
       <c r="T101" s="6"/>
@@ -8931,8 +8935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H186"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94:D94"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9440,7 +9444,7 @@
         <v>200</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>163</v>
@@ -9608,7 +9612,7 @@
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="B36" s="6">
         <v>0</v>
@@ -10222,7 +10226,7 @@
         <v>0</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>307</v>
@@ -10756,16 +10760,16 @@
     </row>
     <row r="94" spans="1:8" ht="30" customHeight="1">
       <c r="A94" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B94" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>645</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>644</v>
@@ -10776,7 +10780,7 @@
     </row>
     <row r="95" spans="1:8" ht="30" customHeight="1">
       <c r="A95" s="5" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B95" s="6">
         <v>0</v>
@@ -10785,7 +10789,7 @@
         <v>645</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>663</v>
+        <v>1018</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>644</v>
@@ -10818,7 +10822,7 @@
     </row>
     <row r="97" spans="1:6" ht="30" customHeight="1">
       <c r="A97" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B97" s="6">
         <v>0</v>
@@ -10838,7 +10842,7 @@
     </row>
     <row r="98" spans="1:6" ht="30" customHeight="1">
       <c r="A98" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B98" s="6">
         <v>0</v>
@@ -10858,7 +10862,7 @@
     </row>
     <row r="99" spans="1:6" ht="30" customHeight="1">
       <c r="A99" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B99" s="6">
         <v>0</v>
@@ -10878,7 +10882,7 @@
     </row>
     <row r="100" spans="1:6" ht="30" customHeight="1">
       <c r="A100" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B100" s="6">
         <v>0</v>
@@ -10898,7 +10902,7 @@
     </row>
     <row r="101" spans="1:6" ht="30" customHeight="1">
       <c r="A101" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B101" s="6">
         <v>0</v>
@@ -10918,7 +10922,7 @@
     </row>
     <row r="102" spans="1:6" ht="30" customHeight="1">
       <c r="A102" s="5" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B102" s="6">
         <v>0</v>
@@ -10938,7 +10942,7 @@
     </row>
     <row r="103" spans="1:6" ht="30" customHeight="1">
       <c r="A103" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B103" s="6">
         <v>0</v>
@@ -10947,10 +10951,10 @@
         <v>645</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>163</v>
@@ -10958,7 +10962,7 @@
     </row>
     <row r="104" spans="1:6" ht="30" customHeight="1">
       <c r="A104" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B104" s="6">
         <v>0</v>
@@ -10967,10 +10971,10 @@
         <v>645</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>678</v>
+        <v>1017</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>152</v>
@@ -11901,7 +11905,7 @@
         <v>550</v>
       </c>
       <c r="B151" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>209</v>
@@ -12047,7 +12051,7 @@
         <v>209</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="E158" s="6" t="s">
         <v>558</v>
@@ -12258,7 +12262,7 @@
     </row>
     <row r="169" spans="1:6" ht="30" customHeight="1">
       <c r="A169" s="5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B169" s="6">
         <v>0</v>
@@ -12278,13 +12282,13 @@
     </row>
     <row r="170" spans="1:6" ht="30" customHeight="1">
       <c r="A170" s="5" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B170" s="6">
         <v>0</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D170" s="6" t="s">
         <v>584</v>
@@ -12298,7 +12302,7 @@
     </row>
     <row r="171" spans="1:6" ht="30" customHeight="1">
       <c r="A171" s="5" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B171" s="6">
         <v>0</v>
@@ -12318,7 +12322,7 @@
     </row>
     <row r="172" spans="1:6" ht="30" customHeight="1">
       <c r="A172" s="5" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B172" s="6">
         <v>0</v>
@@ -12338,7 +12342,7 @@
     </row>
     <row r="173" spans="1:6" ht="30" customHeight="1">
       <c r="A173" s="5" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B173" s="6">
         <v>0</v>
@@ -12636,16 +12640,16 @@
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="22.5" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>3</v>
@@ -12654,91 +12658,91 @@
         <v>4</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="40.5">
       <c r="A2" s="5" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:9" ht="40.5">
       <c r="A3" s="5" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
     </row>
     <row r="4" spans="1:9" ht="40.5">
       <c r="A4" s="5" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="40.5">
       <c r="A5" s="5" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="40.5">
       <c r="A6" s="5" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
     </row>
     <row r="7" spans="1:9" ht="40.5">
       <c r="A7" s="5" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:9" ht="40.5">
       <c r="A8" s="5" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
     </row>
     <row r="9" spans="1:9" ht="40.5">
       <c r="A9" s="5" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -12804,7 +12808,7 @@
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1">
       <c r="A17" s="13" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>42</v>
@@ -12812,7 +12816,7 @@
     </row>
     <row r="18" spans="1:8" ht="30" customHeight="1">
       <c r="A18" s="13" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>43</v>
@@ -12820,144 +12824,144 @@
     </row>
     <row r="19" spans="1:8" ht="40.5">
       <c r="A19" s="13" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="40.5">
       <c r="A20" s="13" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:8" ht="41.25" customHeight="1">
       <c r="A21" s="13" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="7" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="41.25" customHeight="1">
       <c r="A22" s="13" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="7" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="94.5">
       <c r="A23" s="13" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C23" s="7"/>
       <c r="H23" s="16" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="67.5">
       <c r="A24" s="13" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="H24" s="16" t="s">
         <v>791</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="40.5">
       <c r="A25" s="13" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="40.5">
       <c r="A26" s="13" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="40.5">
       <c r="A27" s="13" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="40.5">
       <c r="A28" s="13" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="40.5">
       <c r="A29" s="13" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="40.5">
       <c r="A30" s="13" t="s">
+        <v>816</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>818</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>801</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="40.5">
       <c r="A31" s="13" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
   </sheetData>
@@ -12971,8 +12975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B35"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13014,19 +13018,19 @@
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>163</v>
@@ -13035,24 +13039,24 @@
         <v>163</v>
       </c>
       <c r="H2" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>152</v>
@@ -13061,24 +13065,24 @@
         <v>152</v>
       </c>
       <c r="H3" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>152</v>
@@ -13087,24 +13091,24 @@
         <v>152</v>
       </c>
       <c r="H4" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>152</v>
@@ -13113,24 +13117,24 @@
         <v>152</v>
       </c>
       <c r="H5" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1">
       <c r="A6" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="B6" s="6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>702</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>163</v>
@@ -13139,24 +13143,24 @@
         <v>163</v>
       </c>
       <c r="H6" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B7" s="6">
         <v>0</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>163</v>
@@ -13165,24 +13169,24 @@
         <v>163</v>
       </c>
       <c r="H7" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B8" s="6">
         <v>0</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>703</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>705</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>163</v>
@@ -13191,24 +13195,24 @@
         <v>163</v>
       </c>
       <c r="H8" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B9" s="6">
         <v>0</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>152</v>
@@ -13217,24 +13221,24 @@
         <v>152</v>
       </c>
       <c r="H9" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B10" s="6">
         <v>0</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>152</v>
@@ -13243,24 +13247,24 @@
         <v>152</v>
       </c>
       <c r="H10" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B11" s="6">
         <v>0</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>152</v>
@@ -13269,24 +13273,24 @@
         <v>152</v>
       </c>
       <c r="H11" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B12" s="6">
         <v>0</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>703</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>705</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>163</v>
@@ -13295,24 +13299,24 @@
         <v>163</v>
       </c>
       <c r="H12" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B13" s="6">
         <v>0</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>703</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>705</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>163</v>
@@ -13321,12 +13325,12 @@
         <v>163</v>
       </c>
       <c r="H13" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B14" s="6">
         <v>0</v>
@@ -13335,10 +13339,10 @@
         <v>209</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>163</v>
@@ -13347,12 +13351,12 @@
         <v>163</v>
       </c>
       <c r="H14" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B15" s="6">
         <v>0</v>
@@ -13361,10 +13365,10 @@
         <v>209</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>152</v>
@@ -13373,12 +13377,12 @@
         <v>152</v>
       </c>
       <c r="H15" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B16" s="6">
         <v>0</v>
@@ -13387,10 +13391,10 @@
         <v>209</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>163</v>
@@ -13399,12 +13403,12 @@
         <v>163</v>
       </c>
       <c r="H16" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B17" s="6">
         <v>0</v>
@@ -13413,10 +13417,10 @@
         <v>209</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>152</v>
@@ -13425,24 +13429,24 @@
         <v>152</v>
       </c>
       <c r="H17" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B18" s="6">
         <v>0</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>39</v>
@@ -13451,24 +13455,24 @@
         <v>163</v>
       </c>
       <c r="H18" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B19" s="6">
         <v>0</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>19</v>
@@ -13477,24 +13481,24 @@
         <v>152</v>
       </c>
       <c r="H19" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B20" s="6">
         <v>0</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>39</v>
@@ -13503,24 +13507,24 @@
         <v>163</v>
       </c>
       <c r="H20" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B21" s="6">
         <v>0</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>39</v>
@@ -13529,24 +13533,24 @@
         <v>163</v>
       </c>
       <c r="H21" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="30" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B22" s="6">
         <v>0</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>19</v>
@@ -13555,24 +13559,24 @@
         <v>152</v>
       </c>
       <c r="H22" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B23" s="6">
         <v>0</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>19</v>
@@ -13581,24 +13585,24 @@
         <v>152</v>
       </c>
       <c r="H23" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="30" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B24" s="6">
         <v>0</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>19</v>
@@ -13607,24 +13611,24 @@
         <v>152</v>
       </c>
       <c r="H24" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B25" s="6">
         <v>0</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>39</v>
@@ -13633,24 +13637,24 @@
         <v>163</v>
       </c>
       <c r="H25" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="30" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B26" s="6">
         <v>0</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>19</v>
@@ -13659,12 +13663,12 @@
         <v>152</v>
       </c>
       <c r="H26" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B27" s="6">
         <v>0</v>
@@ -13673,10 +13677,10 @@
         <v>209</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>39</v>
@@ -13685,12 +13689,12 @@
         <v>163</v>
       </c>
       <c r="H27" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="30" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B28" s="6">
         <v>0</v>
@@ -13699,10 +13703,10 @@
         <v>209</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>39</v>
@@ -13711,12 +13715,12 @@
         <v>163</v>
       </c>
       <c r="H28" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B29" s="6">
         <v>0</v>
@@ -13725,10 +13729,10 @@
         <v>209</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>19</v>
@@ -13737,12 +13741,12 @@
         <v>152</v>
       </c>
       <c r="H29" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="30" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B30" s="6">
         <v>0</v>
@@ -13751,10 +13755,10 @@
         <v>209</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>39</v>
@@ -13763,12 +13767,12 @@
         <v>163</v>
       </c>
       <c r="H30" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B31" s="6">
         <v>0</v>
@@ -13777,10 +13781,10 @@
         <v>209</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>19</v>
@@ -13789,12 +13793,12 @@
         <v>152</v>
       </c>
       <c r="H31" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="30" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B32" s="6">
         <v>0</v>
@@ -13803,10 +13807,10 @@
         <v>209</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>39</v>
@@ -13815,12 +13819,12 @@
         <v>163</v>
       </c>
       <c r="H32" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B33" s="6">
         <v>0</v>
@@ -13829,10 +13833,10 @@
         <v>209</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>19</v>
@@ -13841,12 +13845,12 @@
         <v>152</v>
       </c>
       <c r="H33" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="30" customHeight="1">
       <c r="A34" s="5" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B34" s="6">
         <v>0</v>
@@ -13855,10 +13859,10 @@
         <v>209</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>39</v>
@@ -13867,12 +13871,12 @@
         <v>163</v>
       </c>
       <c r="H34" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B35" s="6">
         <v>0</v>
@@ -13881,10 +13885,10 @@
         <v>209</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>19</v>
@@ -13893,7 +13897,7 @@
         <v>152</v>
       </c>
       <c r="H35" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
   </sheetData>

--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3585" windowWidth="21735" windowHeight="5055" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="3645" windowWidth="21735" windowHeight="4995" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="元数据表" sheetId="11" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="1025">
   <si>
     <t>loginName</t>
   </si>
@@ -3166,11 +3166,6 @@
   <si>
     <t>{"projectName":"牛小宝","loanTerm":"1","loanSubSrc"
 :"NXB","deviceCode":"999999999","time":"2","status":"return"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"projectName":"牛小宝","loanTerm":"1","loanSubSrc"
-:"NXB","deviceCode":"999999999","time":"2","status":"SETTLED"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4148,6 +4143,26 @@
   </si>
   <si>
     <t>{"certAuthStatus":"AS","custName":"王宁","idNo":"220322199901297363","cardNo":"6217001000000000201","userRole":"BORROWERS"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasOverdueOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史订单中有逾期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史订单中无逾期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4598,162 +4613,162 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B1" t="s">
         <v>861</v>
-      </c>
-      <c r="B1" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B9" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B15" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4761,124 +4776,124 @@
         <v>443</v>
       </c>
       <c r="B21" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B22" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B24" t="s">
         <v>1008</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B25" t="s">
         <v>1010</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>899</v>
+      </c>
+      <c r="B26" t="s">
         <v>900</v>
-      </c>
-      <c r="B26" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B27" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
+        <v>902</v>
+      </c>
+      <c r="B28" t="s">
         <v>903</v>
-      </c>
-      <c r="B28" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
+        <v>904</v>
+      </c>
+      <c r="B29" t="s">
         <v>905</v>
-      </c>
-      <c r="B29" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B30" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
+        <v>907</v>
+      </c>
+      <c r="B31" t="s">
         <v>908</v>
-      </c>
-      <c r="B31" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B32" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
+        <v>910</v>
+      </c>
+      <c r="B33" t="s">
         <v>911</v>
-      </c>
-      <c r="B33" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B34" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
+        <v>915</v>
+      </c>
+      <c r="B35" t="s">
         <v>916</v>
-      </c>
-      <c r="B35" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
@@ -4886,143 +4901,143 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
+        <v>919</v>
+      </c>
+      <c r="B37" t="s">
         <v>920</v>
-      </c>
-      <c r="B37" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B38" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
+        <v>921</v>
+      </c>
+      <c r="B39" t="s">
         <v>922</v>
-      </c>
-      <c r="B39" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="4" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B42" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="4" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B43" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="4" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="4" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="4" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B46" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="4" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B47" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="4" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B48" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="B49" t="s">
         <v>987</v>
-      </c>
-      <c r="B49" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B50" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>930</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>932</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="4" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>338</v>
@@ -5030,7 +5045,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="4" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>162</v>
@@ -5038,7 +5053,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="4" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>153</v>
@@ -5046,7 +5061,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="4" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>316</v>
@@ -5054,34 +5069,34 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="4" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="4" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="B60" t="s">
         <v>947</v>
-      </c>
-      <c r="B60" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="4" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
   </sheetData>
@@ -5112,36 +5127,36 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1">
       <c r="A1" s="13" t="s">
+        <v>831</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>832</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>833</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>834</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>835</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>836</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>837</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6">
@@ -5150,13 +5165,13 @@
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6">
@@ -5165,13 +5180,13 @@
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6">
@@ -5180,13 +5195,13 @@
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E5" s="6">
         <v>900</v>
@@ -5194,7 +5209,7 @@
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
@@ -5208,13 +5223,13 @@
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B7" s="6">
         <v>0</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E7" s="6">
         <v>600</v>
@@ -5222,13 +5237,13 @@
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B8" s="6">
         <v>0</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E8" s="6">
         <v>1500</v>
@@ -5236,13 +5251,13 @@
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B9" s="6">
         <v>0</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E9" s="6">
         <v>1130</v>
@@ -5360,7 +5375,7 @@
         <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>763</v>
@@ -5369,7 +5384,7 @@
         <v>764</v>
       </c>
       <c r="F5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
   </sheetData>
@@ -5380,10 +5395,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:E27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5399,9 +5414,10 @@
     <col min="9" max="9" width="15" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="31.875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="22.375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1">
+    <row r="1" spans="1:12" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -5412,31 +5428,34 @@
         <v>533</v>
       </c>
       <c r="D1" t="s">
+        <v>995</v>
+      </c>
+      <c r="E1" t="s">
         <v>996</v>
-      </c>
-      <c r="E1" t="s">
-        <v>997</v>
       </c>
       <c r="F1" t="s">
         <v>655</v>
       </c>
       <c r="G1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H1" t="s">
+        <v>997</v>
+      </c>
+      <c r="I1" t="s">
         <v>998</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>999</v>
       </c>
-      <c r="J1" t="s">
-        <v>1000</v>
-      </c>
       <c r="K1" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1">
+        <v>857</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -5448,28 +5467,28 @@
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="30" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>161</v>
       </c>
@@ -5480,27 +5499,27 @@
         <v>534</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1">
+    <row r="4" spans="1:12" ht="30" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>691</v>
       </c>
@@ -5512,30 +5531,30 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>2</v>
@@ -5545,30 +5564,30 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="30" customHeight="1">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="30" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>2</v>
@@ -5578,30 +5597,30 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>2</v>
@@ -5611,30 +5630,30 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="30" customHeight="1">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>2</v>
@@ -5644,28 +5663,28 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="30" customHeight="1">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>467</v>
       </c>
@@ -5677,28 +5696,28 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="30" customHeight="1">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="30" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>699</v>
       </c>
@@ -5709,29 +5728,29 @@
         <v>534</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="22" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="30" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>211</v>
       </c>
@@ -5742,29 +5761,29 @@
         <v>534</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="22" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="30" customHeight="1">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="30" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>319</v>
       </c>
@@ -5776,30 +5795,30 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="30" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>2</v>
@@ -5809,30 +5828,30 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="30" customHeight="1">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="30" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>2</v>
@@ -5842,28 +5861,28 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="30" customHeight="1">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="30" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>450</v>
       </c>
@@ -5875,28 +5894,28 @@
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>450</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="30" customHeight="1">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="30" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>468</v>
       </c>
@@ -5910,23 +5929,23 @@
         <v>443</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="22" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="30" customHeight="1">
@@ -5941,25 +5960,25 @@
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="30" customHeight="1">
@@ -5976,28 +5995,28 @@
         <v>473</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="22" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="30" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>535</v>
@@ -6007,25 +6026,25 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="30" customHeight="1">
@@ -6040,25 +6059,25 @@
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="5" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="30" customHeight="1">
@@ -6073,25 +6092,25 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="30" customHeight="1">
@@ -6106,25 +6125,25 @@
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="30" customHeight="1">
@@ -6139,25 +6158,25 @@
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="30" customHeight="1">
@@ -6172,25 +6191,25 @@
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="30" customHeight="1">
@@ -6204,31 +6223,31 @@
         <v>534</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="22" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="30" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>647</v>
@@ -6238,30 +6257,30 @@
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>674</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="30" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>681</v>
@@ -6271,30 +6290,30 @@
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="30" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>682</v>
@@ -6304,30 +6323,30 @@
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="30" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>2</v>
@@ -6336,31 +6355,31 @@
         <v>534</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="22" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="30" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>2</v>
@@ -6369,31 +6388,31 @@
         <v>534</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="22" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="30" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B31" s="21" t="s">
         <v>2</v>
@@ -6402,31 +6421,31 @@
         <v>534</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="22" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="30" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>2</v>
@@ -6435,26 +6454,98 @@
         <v>534</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="22" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>944</v>
+        <v>943</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="30" customHeight="1">
+      <c r="A33" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>968</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>972</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="22" t="s">
+        <v>937</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>939</v>
+      </c>
+      <c r="K33" s="22" t="s">
+        <v>943</v>
+      </c>
+      <c r="L33" s="22" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="30" customHeight="1">
+      <c r="A34" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>968</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>972</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="22" t="s">
+        <v>937</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>939</v>
+      </c>
+      <c r="K34" s="22" t="s">
+        <v>943</v>
+      </c>
+      <c r="L34" s="22" t="s">
+        <v>1022</v>
       </c>
     </row>
   </sheetData>
@@ -6896,7 +6987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -7757,8 +7848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView topLeftCell="J34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8003,7 +8094,7 @@
         <v>348</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>303</v>
@@ -8408,11 +8499,11 @@
     </row>
     <row r="46" spans="1:13" ht="27">
       <c r="A46" s="5" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B46" s="3"/>
       <c r="L46" s="16" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="M46" s="16"/>
     </row>
@@ -8432,7 +8523,7 @@
       </c>
       <c r="B48" s="3"/>
       <c r="L48" s="16" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="M48" s="16"/>
     </row>
@@ -8935,8 +9026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="B151" sqref="B151"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9444,7 +9535,7 @@
         <v>200</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>163</v>
@@ -9612,7 +9703,7 @@
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B36" s="6">
         <v>0</v>
@@ -10226,7 +10317,7 @@
         <v>0</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>307</v>
@@ -10769,7 +10860,7 @@
         <v>645</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>644</v>
@@ -10780,7 +10871,7 @@
     </row>
     <row r="95" spans="1:8" ht="30" customHeight="1">
       <c r="A95" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B95" s="6">
         <v>0</v>
@@ -10789,7 +10880,7 @@
         <v>645</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>644</v>
@@ -10971,7 +11062,7 @@
         <v>645</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>676</v>
@@ -11905,7 +11996,7 @@
         <v>550</v>
       </c>
       <c r="B151" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>209</v>
@@ -12051,7 +12142,7 @@
         <v>209</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E158" s="6" t="s">
         <v>558</v>
@@ -12262,7 +12353,7 @@
     </row>
     <row r="169" spans="1:6" ht="30" customHeight="1">
       <c r="A169" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B169" s="6">
         <v>0</v>
@@ -12282,13 +12373,13 @@
     </row>
     <row r="170" spans="1:6" ht="30" customHeight="1">
       <c r="A170" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B170" s="6">
         <v>0</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D170" s="6" t="s">
         <v>584</v>
@@ -12302,7 +12393,7 @@
     </row>
     <row r="171" spans="1:6" ht="30" customHeight="1">
       <c r="A171" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B171" s="6">
         <v>0</v>
@@ -12322,7 +12413,7 @@
     </row>
     <row r="172" spans="1:6" ht="30" customHeight="1">
       <c r="A172" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B172" s="6">
         <v>0</v>
@@ -12342,7 +12433,7 @@
     </row>
     <row r="173" spans="1:6" ht="30" customHeight="1">
       <c r="A173" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B173" s="6">
         <v>0</v>
@@ -12621,8 +12712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12646,10 +12737,10 @@
         <v>758</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>3</v>
@@ -12661,10 +12752,10 @@
         <v>730</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="40.5">
@@ -12827,7 +12918,7 @@
         <v>741</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D19" s="6"/>
     </row>
@@ -12836,7 +12927,7 @@
         <v>743</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D20" s="6"/>
     </row>
@@ -12849,7 +12940,7 @@
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="7" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="41.25" customHeight="1">
@@ -12861,107 +12952,107 @@
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="7" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="94.5">
       <c r="A23" s="13" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C23" s="7"/>
       <c r="H23" s="16" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="67.5">
       <c r="A24" s="13" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="40.5">
       <c r="A25" s="13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="40.5">
       <c r="A26" s="13" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="40.5">
       <c r="A27" s="13" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="40.5">
       <c r="A28" s="13" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="40.5">
       <c r="A29" s="13" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="40.5">
       <c r="A30" s="13" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="40.5">
       <c r="A31" s="13" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
   </sheetData>
@@ -12975,8 +13066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13039,7 +13130,7 @@
         <v>163</v>
       </c>
       <c r="H2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1">
@@ -13065,7 +13156,7 @@
         <v>152</v>
       </c>
       <c r="H3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
@@ -13091,7 +13182,7 @@
         <v>152</v>
       </c>
       <c r="H4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1">
@@ -13117,7 +13208,7 @@
         <v>152</v>
       </c>
       <c r="H5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1">
@@ -13143,7 +13234,7 @@
         <v>163</v>
       </c>
       <c r="H6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1">
@@ -13169,7 +13260,7 @@
         <v>163</v>
       </c>
       <c r="H7" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1">
@@ -13195,7 +13286,7 @@
         <v>163</v>
       </c>
       <c r="H8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
@@ -13221,7 +13312,7 @@
         <v>152</v>
       </c>
       <c r="H9" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1">
@@ -13247,7 +13338,7 @@
         <v>152</v>
       </c>
       <c r="H10" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1">
@@ -13273,7 +13364,7 @@
         <v>152</v>
       </c>
       <c r="H11" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1">
@@ -13299,7 +13390,7 @@
         <v>163</v>
       </c>
       <c r="H12" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1">
@@ -13325,7 +13416,7 @@
         <v>163</v>
       </c>
       <c r="H13" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1">
@@ -13351,7 +13442,7 @@
         <v>163</v>
       </c>
       <c r="H14" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1">
@@ -13377,7 +13468,7 @@
         <v>152</v>
       </c>
       <c r="H15" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1">
@@ -13403,7 +13494,7 @@
         <v>163</v>
       </c>
       <c r="H16" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1">
@@ -13429,7 +13520,7 @@
         <v>152</v>
       </c>
       <c r="H17" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" customHeight="1">
@@ -13455,7 +13546,7 @@
         <v>163</v>
       </c>
       <c r="H18" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30" customHeight="1">
@@ -13481,7 +13572,7 @@
         <v>152</v>
       </c>
       <c r="H19" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1">
@@ -13507,7 +13598,7 @@
         <v>163</v>
       </c>
       <c r="H20" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" customHeight="1">
@@ -13533,7 +13624,7 @@
         <v>163</v>
       </c>
       <c r="H21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="30" customHeight="1">
@@ -13559,7 +13650,7 @@
         <v>152</v>
       </c>
       <c r="H22" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30" customHeight="1">
@@ -13585,7 +13676,7 @@
         <v>152</v>
       </c>
       <c r="H23" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="30" customHeight="1">
@@ -13611,7 +13702,7 @@
         <v>152</v>
       </c>
       <c r="H24" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="30" customHeight="1">
@@ -13637,7 +13728,7 @@
         <v>163</v>
       </c>
       <c r="H25" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="30" customHeight="1">
@@ -13663,12 +13754,12 @@
         <v>152</v>
       </c>
       <c r="H26" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B27" s="6">
         <v>0</v>
@@ -13677,10 +13768,10 @@
         <v>209</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>39</v>
@@ -13689,12 +13780,12 @@
         <v>163</v>
       </c>
       <c r="H27" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="30" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B28" s="6">
         <v>0</v>
@@ -13703,10 +13794,10 @@
         <v>209</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>39</v>
@@ -13715,12 +13806,12 @@
         <v>163</v>
       </c>
       <c r="H28" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B29" s="6">
         <v>0</v>
@@ -13729,10 +13820,10 @@
         <v>209</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>19</v>
@@ -13741,12 +13832,12 @@
         <v>152</v>
       </c>
       <c r="H29" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="30" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B30" s="6">
         <v>0</v>
@@ -13755,10 +13846,10 @@
         <v>209</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>39</v>
@@ -13767,12 +13858,12 @@
         <v>163</v>
       </c>
       <c r="H30" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B31" s="6">
         <v>0</v>
@@ -13781,10 +13872,10 @@
         <v>209</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>19</v>
@@ -13793,12 +13884,12 @@
         <v>152</v>
       </c>
       <c r="H31" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="30" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B32" s="6">
         <v>0</v>
@@ -13807,10 +13898,10 @@
         <v>209</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>39</v>
@@ -13819,12 +13910,12 @@
         <v>163</v>
       </c>
       <c r="H32" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B33" s="6">
         <v>0</v>
@@ -13833,10 +13924,10 @@
         <v>209</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>19</v>
@@ -13845,12 +13936,12 @@
         <v>152</v>
       </c>
       <c r="H33" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="30" customHeight="1">
       <c r="A34" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B34" s="6">
         <v>0</v>
@@ -13859,10 +13950,10 @@
         <v>209</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>39</v>
@@ -13871,12 +13962,12 @@
         <v>163</v>
       </c>
       <c r="H34" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B35" s="6">
         <v>0</v>
@@ -13885,10 +13976,10 @@
         <v>209</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>19</v>
@@ -13897,7 +13988,7 @@
         <v>152</v>
       </c>
       <c r="H35" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
   </sheetData>

--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3645" windowWidth="21735" windowHeight="4995" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="3675" windowWidth="21735" windowHeight="4965" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="元数据表" sheetId="11" r:id="rId1"/>
@@ -5397,7 +5397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
@@ -7848,8 +7848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9026,8 +9026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H186"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B186"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="B178" sqref="B178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12666,7 +12666,7 @@
         <v>626</v>
       </c>
       <c r="B185" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>209</v>

--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3675" windowWidth="21735" windowHeight="4965" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="3675" windowWidth="21735" windowHeight="4965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="元数据表" sheetId="11" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2450" uniqueCount="1062">
   <si>
     <t>loginName</t>
   </si>
@@ -2360,10 +2360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>与graduate0-6是同学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>与student是同学B的通讯录中有A但A中没有B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2740,10 +2736,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>联系人占比大于等于90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VA_F011</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2769,11 +2761,6 @@
   </si>
   <si>
     <t>ceshi06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"num":"9","dinstinctName":"9",
-"distinctMobile":"9"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3515,654 +3502,816 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历认证失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobileSign不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一线城市本科毕业0-6个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三线城市本科毕业0-6个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三线城市专科毕业0-6个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三线城市专科毕业7-15个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一线城市专科毕业7-15个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二线城市本科毕业7-15个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二线城市专科毕业7-15个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三线城市本科毕业7-15个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一线城市专科毕业15个月以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二线城市本科毕业15个月以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二线城市专科毕业15个月以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三线城市本科毕业15个月以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三线城市专科毕业15个月以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"educationAuthStatus":"AF","graduateTime":"0","collegeName":"苏州大学","professionName":"计算机类","clogLevel":"本科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"educationAuthStatus":"AS","graduateTime":"0","collegeName":"复旦大学","professionName":"软件工程","clogLevel":"本科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"educationAuthStatus":"AS","graduateTime":"0","collegeName":"上海健康职业技术学院","professionName":"护理","clogLevel":"专科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"educationAuthStatus":"AS","graduateTime":"0","collegeName":"苏州大学","professionName":"计算机类","clogLevel":"本科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"educationAuthStatus":"AS","graduateTime":"0","collegeName":"淮阴师范学院","professionName":"计算机科学与技术","clogLevel":"本科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"educationAuthStatus":"AS","graduateTime":"0","collegeName":"淮安信息职业技术学院","professionName":"软件技术","clogLevel":"专科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"educationAuthStatus":"AS","graduateTime":"1","collegeName":"复旦大学","professionName":"软件工程","clogLevel":"本科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"educationAuthStatus":"AS","graduateTime":"1","collegeName":"上海健康职业技术学院","professionName":"护理","clogLevel":"专科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"educationAuthStatus":"AS","graduateTime":"1","collegeName":"苏州大学","professionName":"计算机类","clogLevel":"本科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"educationAuthStatus":"AS","graduateTime":"1","collegeName":"淮阴师范学院","professionName":"计算机科学与技术","clogLevel":"本科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"educationAuthStatus":"AS","graduateTime":"1","collegeName":"淮安信息职业技术学院","professionName":"软件技术","clogLevel":"专科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"educationAuthStatus":"AS","graduateTime":"2","collegeName":"复旦大学","professionName":"软件工程","clogLevel":"本科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"educationAuthStatus":"AS","graduateTime":"2","collegeName":"上海健康职业技术学院","professionName":"护理","clogLevel":"专科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"educationAuthStatus":"AS","graduateTime":"2","collegeName":"苏州大学","professionName":"计算机类","clogLevel":"本科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"educationAuthStatus":"AS","graduateTime":"2","collegeName":"淮阴师范学院","professionName":"计算机科学与技术","clogLevel":"本科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"educationAuthStatus":"AS","graduateTime":"2","collegeName":"淮安信息职业技术学院","professionName":"软件技术","clogLevel":"专科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"educationAuthStatus":"AS","graduateTime":"0","collegeName":"新疆大学","professionName":"计算机类","clogLevel":"本科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"educationAuthStatus":"AS","graduateTime":"0","collegeName":"乌鲁木齐职业大学","professionName":"计算机类","clogLevel":"专科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phoneAuthStatus":"AS","mobile":"18000000010","mobileSign":"999999999"}</t>
+  </si>
+  <si>
+    <t>手机号认证失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phoneAuthStatus":"AF","mobile":"18000000010","mobileSign":"999999999"}</t>
+  </si>
+  <si>
+    <t>{"phoneAuthStatus":"AS","mobile":"15221527000","mobileSign":"999999999"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二线城市手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phoneAuthStatus":"AS","mobile":"18260190000","mobileSign":"999999999"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三线城市手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phoneAuthStatus":"AS","mobile":"15152550000","mobileSign":"999999999"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phoneAuthStatus":"AS","mobile":"18000000014","mobileSign":"888888888"}</t>
+  </si>
+  <si>
+    <t>mobileSign为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phoneAuthStatus":"AS","mobile":"18000000014","mobileSign":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份认证成功</t>
+  </si>
+  <si>
+    <t>身份认证失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"certAuthStatus":"AF","custName":"王宁","idNo":"220322199901297363","cardNo":"6217001000000000201","userRole":"BORROWERS"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"certAuthStatus":"AS","custName":"于翔","idNo":"120100197909096695","cardNo":"6217001000000000211","userRole":"BORROWERS"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份认证成功2</t>
+  </si>
+  <si>
+    <t>身份认证成功2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份认证成功3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"certAuthStatus":"AS","custName":"戚广晓","idNo":"530101199108177729","cardNo":"6217001000000000212","userRole":"BORROWERS"}</t>
+  </si>
+  <si>
+    <t>photoAuth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photoAuth成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photoAuth失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"photoAuthStatus":"AF"}</t>
+  </si>
+  <si>
+    <t>学籍认证失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"schoolRollAuthStatus":"AF","entranceTime":"2014-09-01","province":"江苏省","city":"苏州市","collegeName":"苏州大学","professionName":"","clogLevel":"本科"}</t>
+  </si>
+  <si>
+    <t>student二线城市本科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student二线城市专科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2016-09-01","province":"江苏省","city":"苏州市","collegeName":"苏州大学","professionName":"材料类","clogLevel":"本科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学籍认证成功(标准)</t>
+  </si>
+  <si>
+    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2015-09-01","province":"江苏省","city":"苏州市","collegeName":"苏州大学","professionName":"信息与计算科学","clogLevel":"本科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与标准不同校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2016-09-01","province":"山西省","city":"太原市","collegeName":"太原理工大学","professionName":"信息与计算科学","clogLevel":"本科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与标准不同专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2016-09-01","province":"江苏省","city":"苏州市","collegeName":"苏州大学","professionName":"计算机类","clogLevel":"本科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2016-09-01","province":"江苏省","city":"淮安市","collegeName":"淮安信息职业技术学院","professionName":"软件技术","clogLevel":"专科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2016-09-01","province":"江苏省","city":"淮安市","collegeName":"淮阴师范学院","professionName":"计算机科学与技术","clogLevel":"本科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2016-09-01","province":"上海市","city":"杨浦区","collegeName":"复旦大学","professionName":"软件工程","clogLevel":"本科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2016-09-01","province":"上海市","city":"杨浦区","collegeName":"上海健康职业技术学院","professionName":"护理","clogLevel":"专科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯认证成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯认证失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父母所在地与学籍认证(标准)相同</t>
+  </si>
+  <si>
+    <t>父母所在地与学籍认证(标准)不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"addrAuthStatus":"AS","nowProvince":"江苏省","nowCity":"苏州市","fullAddr":"苏州市高新区"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"addrAuthStatus":"AS","nowProvince":"上海市","nowCity":"杨浦区","fullAddr":"杨浦区"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现居地一线城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现居地二线城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现居地二线城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现居地三线城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"addrAuthStatus":"AS","nowProvince":"江苏省","nowCity":"淮安市","fullAddr":"淮安市高新区"}</t>
+  </si>
+  <si>
+    <t>{"addrAuthStatus":"AS","nowProvince":"江苏省","nowCity":"乌鲁木齐","fullAddr":"乌鲁木齐高新区"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一线城市本科毕业0-6个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一线城市本科毕业7-15个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一线城市本科毕业15个月以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一线城市本科毕业15个月以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕业专科学校在新疆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一线城市专科毕业0-6个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一线城市专科毕业0-6个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二线城市本科毕业0-6个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二线城市本科毕业0-6个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二线城市专科毕业0-6个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二线城市专科毕业0-6个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号认证成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号认证成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobileSign不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobileSign不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobileSign为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一线城市手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一线城市手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二线城市手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份认证成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份认证成功2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photoAuth成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photoAuth成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photoAuth失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学籍认证成功(标准)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student一线城市本科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student一线城市专科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student三线城市本科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student三线城市本科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student三线城市专科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2015-07-01","province":"江苏省","city":"苏州市","collegeName":"苏州大学","professionName":"","clogLevel":"本科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student入学&gt;1年</t>
+  </si>
+  <si>
+    <t>student入学&lt;1年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student入学&gt;1年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student入学&lt;1年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student本科学校在新疆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student专科学校在新疆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2014-09-01","province":"新疆","city":"乌鲁木齐市","collegeName":"乌鲁木齐职业大学","professionName":"","clogLevel":"专科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与标准不同年入学</t>
+  </si>
+  <si>
+    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2012-09-01","province":"江苏省","city":"苏州市","collegeName":"苏州大学","professionName":"信息与计算科学","clogLevel":"本科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与标准不同年入学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student已毕业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父母所在地与学籍认证(标准)相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现居地在新疆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>educationAuth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoneAuth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schoolRollAuth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jxlMobileAuth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contractor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VA_F001_dinstinctName和distinctMobile都为20(毕业7+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student入学&gt;1年，学校与父母所在地不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student入学&lt;1年，学校与父母所在地不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student入学&lt;1年，学校与父母所在地不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2016-09-01","province":"新疆","city":"乌鲁木齐市","collegeName":"新疆大学","professionName":"","clogLevel":"本科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2016-09-01","province":"江苏省","city":"苏州市","collegeName":"苏州大学","professionName":"信息与计算科学","clogLevel":"本科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与student是同学B的通讯录中有A但A中没有B但C中有AA中有C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号认证成功2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phoneAuthStatus":"AS","mobile":"18000000011","mobileSign":"999999999"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号认证成功3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phoneAuthStatus":"AS","mobile":"18000000012","mobileSign":"999999999"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2017-07-01","province":"江苏省","city":"苏州市","collegeName":"苏州大学","professionName":"","clogLevel":"本科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一笔申请到虚拟信用卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与student是同学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"allCount": "1","isApply": "Y","orders": [{"userinfoNo": "与student是同学","time": "0",}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"allCount": "1","isApply": "Y","orders": [{"userinfoNo": "与student是同学","time": "1",}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人占比小于90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一笔申请到虚拟信用卡但mobileSign不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一笔申请到虚拟信用卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"certAuthStatus":"AS","custName":"王宁","idNo":"220322199901297363","cardNo":"6217001000000000201","userRole":"BORROWERS"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史订单中有逾期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduate7+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUDIT_PASS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"projectName":"牛小宝","loanTerm":"1","loanSubSrc"
+:"NXB","deviceCode":"999999999","time":"2","status":"SETTLED"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2016-09-01","province":"江苏省","city":"苏州市","collegeName":"苏州市职业大学","professionName":"计算机网络技术","clogLevel":"专科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"educationAuthStatus":"AS","graduateTime":"0","collegeName":"苏州市职业大学","professionName":"软件技术","clogLevel":"专科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"educationAuthStatus":"AS","graduateTime":"2","collegeName":"苏州市职业大学","professionName":"软件技术","clogLevel":"专科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"educationAuthStatus":"AS","graduateTime":"1","collegeName":"苏州市职业大学","professionName":"软件技术","clogLevel":"专科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史订单中无逾期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>historyOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天创建的待还订单（牛大咖）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天创建的待还订单（牛大咖）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期订单（牛大咖）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天创建的待还订单（触宝）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天创建的待还订单（触宝）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期订单（牛大咖）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常订单（牛大咖）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常订单（牛大咖）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛大咖订单mobileSign不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛大咖订单mobileSign为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛大咖订单mobileSign相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "牛大咖", "loanTerm": "1", "loanSubSrc": "NDK", "time": "0", "repayStatus": "WAIT_REPAY" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "牛大咖", "loanTerm": "1", "loanSubSrc": "NDK", "time": "10", "repayStatus": "OVERDUE_REPAID" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "触宝", "loanTerm": "1", "loanSubSrc": "CHUBAO", "time": "0", "repayStatus": "WAIT_REPAY" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触宝订单mobileSign相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "牛大咖", "loanTerm": "1", "loanSubSrc": "NDK", "time": "1", "repayStatus": "WAIT_REPAY" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非当天创建的待还订单（牛大咖）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非当天创建的待还订单（牛大咖）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>graduate0-6二线城市专科</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学历认证失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobileSign不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一线城市本科毕业0-6个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三线城市本科毕业0-6个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三线城市专科毕业0-6个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三线城市专科毕业7-15个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一线城市专科毕业7-15个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二线城市本科毕业7-15个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二线城市专科毕业7-15个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三线城市本科毕业7-15个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一线城市专科毕业15个月以上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二线城市本科毕业15个月以上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二线城市专科毕业15个月以上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三线城市本科毕业15个月以上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三线城市专科毕业15个月以上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"educationAuthStatus":"AF","graduateTime":"0","collegeName":"苏州大学","professionName":"计算机类","clogLevel":"本科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"educationAuthStatus":"AS","graduateTime":"0","collegeName":"复旦大学","professionName":"软件工程","clogLevel":"本科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"educationAuthStatus":"AS","graduateTime":"0","collegeName":"上海健康职业技术学院","professionName":"护理","clogLevel":"专科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"educationAuthStatus":"AS","graduateTime":"0","collegeName":"苏州大学","professionName":"计算机类","clogLevel":"本科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"educationAuthStatus":"AS","graduateTime":"0","collegeName":"苏州职业大学","professionName":"软件技术","clogLevel":"专科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"educationAuthStatus":"AS","graduateTime":"0","collegeName":"淮阴师范学院","professionName":"计算机科学与技术","clogLevel":"本科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"educationAuthStatus":"AS","graduateTime":"0","collegeName":"淮安信息职业技术学院","professionName":"软件技术","clogLevel":"专科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"educationAuthStatus":"AS","graduateTime":"1","collegeName":"复旦大学","professionName":"软件工程","clogLevel":"本科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"educationAuthStatus":"AS","graduateTime":"1","collegeName":"上海健康职业技术学院","professionName":"护理","clogLevel":"专科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"educationAuthStatus":"AS","graduateTime":"1","collegeName":"苏州大学","professionName":"计算机类","clogLevel":"本科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"educationAuthStatus":"AS","graduateTime":"1","collegeName":"苏州职业大学","professionName":"软件技术","clogLevel":"专科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"educationAuthStatus":"AS","graduateTime":"1","collegeName":"淮阴师范学院","professionName":"计算机科学与技术","clogLevel":"本科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"educationAuthStatus":"AS","graduateTime":"1","collegeName":"淮安信息职业技术学院","professionName":"软件技术","clogLevel":"专科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"educationAuthStatus":"AS","graduateTime":"2","collegeName":"复旦大学","professionName":"软件工程","clogLevel":"本科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"educationAuthStatus":"AS","graduateTime":"2","collegeName":"上海健康职业技术学院","professionName":"护理","clogLevel":"专科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"educationAuthStatus":"AS","graduateTime":"2","collegeName":"苏州大学","professionName":"计算机类","clogLevel":"本科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"educationAuthStatus":"AS","graduateTime":"2","collegeName":"苏州职业大学","professionName":"软件技术","clogLevel":"专科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"educationAuthStatus":"AS","graduateTime":"2","collegeName":"淮阴师范学院","professionName":"计算机科学与技术","clogLevel":"本科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"educationAuthStatus":"AS","graduateTime":"2","collegeName":"淮安信息职业技术学院","professionName":"软件技术","clogLevel":"专科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"educationAuthStatus":"AS","graduateTime":"0","collegeName":"新疆大学","professionName":"计算机类","clogLevel":"本科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"educationAuthStatus":"AS","graduateTime":"0","collegeName":"乌鲁木齐职业大学","professionName":"计算机类","clogLevel":"专科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phoneAuthStatus":"AS","mobile":"18000000010","mobileSign":"999999999"}</t>
-  </si>
-  <si>
-    <t>手机号认证失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phoneAuthStatus":"AF","mobile":"18000000010","mobileSign":"999999999"}</t>
-  </si>
-  <si>
-    <t>{"phoneAuthStatus":"AS","mobile":"15221527000","mobileSign":"999999999"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二线城市手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phoneAuthStatus":"AS","mobile":"18260190000","mobileSign":"999999999"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三线城市手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phoneAuthStatus":"AS","mobile":"15152550000","mobileSign":"999999999"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phoneAuthStatus":"AS","mobile":"18000000014","mobileSign":"888888888"}</t>
-  </si>
-  <si>
-    <t>mobileSign为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phoneAuthStatus":"AS","mobile":"18000000014","mobileSign":""}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份认证成功</t>
-  </si>
-  <si>
-    <t>身份认证失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"certAuthStatus":"AF","custName":"王宁","idNo":"220322199901297363","cardNo":"6217001000000000201","userRole":"BORROWERS"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"certAuthStatus":"AS","custName":"于翔","idNo":"120100197909096695","cardNo":"6217001000000000211","userRole":"BORROWERS"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份认证成功2</t>
-  </si>
-  <si>
-    <t>身份认证成功2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份认证成功3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"certAuthStatus":"AS","custName":"戚广晓","idNo":"530101199108177729","cardNo":"6217001000000000212","userRole":"BORROWERS"}</t>
-  </si>
-  <si>
-    <t>photoAuth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>photoAuth成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>photoAuth失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"photoAuthStatus":"AF"}</t>
-  </si>
-  <si>
-    <t>学籍认证失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"schoolRollAuthStatus":"AF","entranceTime":"2014-09-01","province":"江苏省","city":"苏州市","collegeName":"苏州大学","professionName":"","clogLevel":"本科"}</t>
-  </si>
-  <si>
-    <t>student二线城市本科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>student二线城市专科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2016-09-01","province":"江苏省","city":"苏州市","collegeName":"苏州大学","professionName":"材料类","clogLevel":"本科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2016-09-01","province":"江苏省","city":"苏州市","collegeName":"苏州市职业大学","professionName":"计算机网络技术","clogLevel":"专科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学籍认证成功(标准)</t>
-  </si>
-  <si>
-    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2015-09-01","province":"江苏省","city":"苏州市","collegeName":"苏州大学","professionName":"信息与计算科学","clogLevel":"本科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与标准不同校</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2016-09-01","province":"山西省","city":"太原市","collegeName":"太原理工大学","professionName":"信息与计算科学","clogLevel":"本科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与标准不同专业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2016-09-01","province":"江苏省","city":"苏州市","collegeName":"苏州大学","professionName":"计算机类","clogLevel":"本科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2016-09-01","province":"江苏省","city":"淮安市","collegeName":"淮安信息职业技术学院","professionName":"软件技术","clogLevel":"专科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2016-09-01","province":"江苏省","city":"淮安市","collegeName":"淮阴师范学院","professionName":"计算机科学与技术","clogLevel":"本科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2016-09-01","province":"上海市","city":"杨浦区","collegeName":"复旦大学","professionName":"软件工程","clogLevel":"本科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2016-09-01","province":"上海市","city":"杨浦区","collegeName":"上海健康职业技术学院","professionName":"护理","clogLevel":"专科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通讯认证成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通讯认证失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父母所在地与学籍认证(标准)相同</t>
-  </si>
-  <si>
-    <t>父母所在地与学籍认证(标准)不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"addrAuthStatus":"AS","nowProvince":"江苏省","nowCity":"苏州市","fullAddr":"苏州市高新区"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"addrAuthStatus":"AS","nowProvince":"上海市","nowCity":"杨浦区","fullAddr":"杨浦区"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现居地一线城市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现居地二线城市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现居地二线城市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现居地三线城市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"addrAuthStatus":"AS","nowProvince":"江苏省","nowCity":"淮安市","fullAddr":"淮安市高新区"}</t>
-  </si>
-  <si>
-    <t>{"addrAuthStatus":"AS","nowProvince":"江苏省","nowCity":"乌鲁木齐","fullAddr":"乌鲁木齐高新区"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一线城市本科毕业0-6个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一线城市本科毕业7-15个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一线城市本科毕业15个月以上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一线城市本科毕业15个月以上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毕业专科学校在新疆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一线城市专科毕业0-6个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一线城市专科毕业0-6个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二线城市本科毕业0-6个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二线城市本科毕业0-6个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二线城市专科毕业0-6个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二线城市专科毕业0-6个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号认证成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号认证成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobileSign不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobileSign不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobileSign为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobileSign为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一线城市手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一线城市手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二线城市手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份认证成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份认证成功2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>photoAuth成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>photoAuth成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>photoAuth失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学籍认证成功(标准)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>student一线城市本科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>student一线城市专科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>student三线城市本科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>student三线城市本科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>student三线城市专科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2015-07-01","province":"江苏省","city":"苏州市","collegeName":"苏州大学","professionName":"","clogLevel":"本科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>student入学&gt;1年</t>
-  </si>
-  <si>
-    <t>student入学&lt;1年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>student入学&gt;1年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>student入学&lt;1年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>student本科学校在新疆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>student专科学校在新疆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2014-09-01","province":"新疆","city":"乌鲁木齐市","collegeName":"乌鲁木齐职业大学","professionName":"","clogLevel":"专科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与标准不同年入学</t>
+    <t>allpass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>student已毕业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2012-09-01","province":"江苏省","city":"苏州市","collegeName":"苏州大学","professionName":"信息与计算科学","clogLevel":"本科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与标准不同年入学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>student已毕业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父母所在地与学籍认证(标准)相同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现居地在新疆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>educationAuth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phoneAuth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>schoolRollAuth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jxlMobileAuth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contractor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VA_F001_dinstinctName和distinctMobile都为20(毕业7+)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>student入学&gt;1年，学校与父母所在地不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>student入学&lt;1年，学校与父母所在地不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>student入学&lt;1年，学校与父母所在地不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2016-09-01","province":"新疆","city":"乌鲁木齐市","collegeName":"新疆大学","professionName":"","clogLevel":"本科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2016-09-01","province":"江苏省","city":"苏州市","collegeName":"苏州大学","professionName":"信息与计算科学","clogLevel":"本科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与student是同学B的通讯录中有A但A中没有B但C中有AA中有C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号认证成功2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phoneAuthStatus":"AS","mobile":"18000000011","mobileSign":"999999999"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号认证成功3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phoneAuthStatus":"AS","mobile":"18000000012","mobileSign":"999999999"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2017-07-01","province":"江苏省","city":"苏州市","collegeName":"苏州大学","professionName":"","clogLevel":"本科"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有一笔申请到虚拟信用卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与student是同学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"allCount": "1","isApply": "Y","orders": [{"userinfoNo": "与student是同学","time": "0",}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"allCount": "1","isApply": "Y","orders": [{"userinfoNo": "与student是同学","time": "1",}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人占比小于90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有一笔申请到虚拟信用卡但mobileSign不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有一笔申请到虚拟信用卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"certAuthStatus":"AS","custName":"王宁","idNo":"220322199901297363","cardNo":"6217001000000000201","userRole":"BORROWERS"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hasOverdueOrder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史订单中有逾期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史订单中无逾期</t>
+    <t>graduate0-6一线城市本科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天创建的未成功订单（牛大咖）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天创建的未成功订单（牛大咖）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天创建的未成功订单（牛大咖）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.101.211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>niuwatest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yg9iu9Cz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人占比大于等于90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"num":"9","dinstinctName":"9",
+"distinctMobile":"9"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与graduate0-6是同学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "牛大咖", "loanTerm": "1", "loanSubSrc": "NDK", "time": "10", "repayStatus": "NORMAL" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "牛大咖", "loanTerm": "1", "loanSubSrc": "NDK", "time": "0", "repayStatus": "NORMAL" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "牛小宝", "loanTerm": "1", "loanSubSrc": "NXB", "time": "0", "repayStatus": "NORMAL" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "牛大款", "loanTerm": "1", "loanSubSrc": "NKK", "time": "0", "repayStatus": "NORMAL" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功的牛小宝订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功的牛小宝订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功的牛大款订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功的牛大款订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "牛大款", "loanTerm": "1", "loanSubSrc": "NKK", "time": "0", "repayStatus": "" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败的牛大款订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败的牛大款订单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4599,10 +4748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4613,162 +4762,162 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="B1" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="B2" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="B3" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>881</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="B9" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>887</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="B15" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>893</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4776,124 +4925,124 @@
         <v>443</v>
       </c>
       <c r="B21" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="B22" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="B23" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="B24" t="s">
-        <v>1008</v>
+        <v>998</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>1009</v>
+        <v>999</v>
       </c>
       <c r="B25" t="s">
-        <v>1010</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="B26" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="B27" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="B28" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="B29" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="B30" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="B31" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="B32" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="B33" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="B34" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="B35" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
@@ -4901,143 +5050,143 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="B37" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
       <c r="B38" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="B39" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="4" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="4" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="B42" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="4" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="B43" t="s">
-        <v>926</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="4" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="4" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="4" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
       <c r="B46" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="4" t="s">
-        <v>984</v>
+        <v>975</v>
       </c>
       <c r="B47" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="4" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="B48" t="s">
-        <v>1004</v>
+        <v>994</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="4" t="s">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="B49" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
-        <v>992</v>
+        <v>982</v>
       </c>
       <c r="B50" t="s">
-        <v>990</v>
+        <v>980</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>991</v>
+        <v>981</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="4" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="4" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>338</v>
@@ -5045,7 +5194,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="4" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>162</v>
@@ -5053,7 +5202,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="4" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>153</v>
@@ -5061,7 +5210,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="4" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>316</v>
@@ -5069,34 +5218,106 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="4" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="4" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="4" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="B60" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="4" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>948</v>
+        <v>940</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>1059</v>
       </c>
     </row>
   </sheetData>
@@ -5111,7 +5332,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5127,36 +5348,36 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1">
       <c r="A1" s="13" t="s">
+        <v>828</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>829</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>830</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>831</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>832</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>833</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>834</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>835</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>836</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6">
@@ -5165,13 +5386,13 @@
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6">
@@ -5180,13 +5401,13 @@
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6">
@@ -5195,13 +5416,13 @@
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="E5" s="6">
         <v>900</v>
@@ -5209,7 +5430,7 @@
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
@@ -5223,13 +5444,13 @@
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B7" s="6">
         <v>0</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="E7" s="6">
         <v>600</v>
@@ -5237,13 +5458,13 @@
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1">
       <c r="A8" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>852</v>
-      </c>
-      <c r="B8" s="6">
-        <v>0</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>855</v>
       </c>
       <c r="E8" s="6">
         <v>1500</v>
@@ -5251,13 +5472,13 @@
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1">
       <c r="A9" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>853</v>
-      </c>
-      <c r="B9" s="6">
-        <v>0</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>856</v>
       </c>
       <c r="E9" s="6">
         <v>1130</v>
@@ -5271,10 +5492,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5304,12 +5525,12 @@
         <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>28</v>
@@ -5324,12 +5545,12 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>65</v>
@@ -5338,30 +5559,30 @@
         <v>67</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="E3" t="s">
         <v>66</v>
       </c>
       <c r="F3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>65</v>
+        <v>1045</v>
       </c>
       <c r="C4" t="s">
-        <v>765</v>
+        <v>67</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>763</v>
+        <v>1046</v>
       </c>
       <c r="E4" t="s">
-        <v>764</v>
+        <v>1047</v>
       </c>
       <c r="F4" t="s">
         <v>642</v>
@@ -5375,16 +5596,56 @@
         <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>782</v>
+        <v>762</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E5" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="F5" t="s">
-        <v>781</v>
+        <v>641</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="10">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>779</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="E6" t="s">
+        <v>761</v>
+      </c>
+      <c r="F6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="10">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C7" t="s">
+        <v>762</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F7" t="s">
+        <v>641</v>
       </c>
     </row>
   </sheetData>
@@ -5395,10 +5656,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5414,7 +5675,7 @@
     <col min="9" max="9" width="15" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="31.875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="22.375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1">
@@ -5428,36 +5689,36 @@
         <v>533</v>
       </c>
       <c r="D1" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="E1" t="s">
-        <v>996</v>
+        <v>986</v>
       </c>
       <c r="F1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G1" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="H1" t="s">
-        <v>997</v>
+        <v>987</v>
       </c>
       <c r="I1" t="s">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="J1" t="s">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="K1" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="L1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>22</v>
+        <v>1039</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>2</v>
@@ -5467,25 +5728,25 @@
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="I2" s="22" t="s">
+        <v>929</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>937</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>939</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="30" customHeight="1">
@@ -5499,29 +5760,29 @@
         <v>534</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>2</v>
@@ -5531,30 +5792,30 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>2</v>
@@ -5564,30 +5825,30 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>2</v>
@@ -5597,30 +5858,30 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>2</v>
@@ -5630,30 +5891,30 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>2</v>
@@ -5663,25 +5924,25 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1">
@@ -5696,30 +5957,30 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>2</v>
@@ -5728,31 +5989,31 @@
         <v>534</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="22" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>211</v>
+        <v>1011</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>2</v>
@@ -5761,26 +6022,26 @@
         <v>534</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="22" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1">
@@ -5795,30 +6056,30 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>963</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>972</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>981</v>
-      </c>
       <c r="I12" s="22" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>2</v>
@@ -5828,30 +6089,30 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>963</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>972</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>981</v>
-      </c>
       <c r="I13" s="22" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>2</v>
@@ -5861,25 +6122,25 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1">
@@ -5894,25 +6155,25 @@
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>450</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1">
@@ -5929,26 +6190,26 @@
         <v>443</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="22" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="30" customHeight="1">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="30" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>458</v>
       </c>
@@ -5960,28 +6221,28 @@
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="30" customHeight="1">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>473</v>
       </c>
@@ -5995,28 +6256,28 @@
         <v>473</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="22" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="30" customHeight="1">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="30" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>535</v>
@@ -6026,28 +6287,28 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="5" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="30" customHeight="1">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="30" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>565</v>
       </c>
@@ -6059,28 +6320,28 @@
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="5" t="s">
-        <v>1009</v>
+        <v>999</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="30" customHeight="1">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="30" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>545</v>
       </c>
@@ -6092,28 +6353,28 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="5" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="30" customHeight="1">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="30" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>551</v>
       </c>
@@ -6125,28 +6386,28 @@
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="5" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="H22" s="22" t="s">
+        <v>921</v>
+      </c>
+      <c r="I22" s="22" t="s">
         <v>929</v>
       </c>
-      <c r="I22" s="22" t="s">
-        <v>937</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="30" customHeight="1">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="30" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>555</v>
       </c>
@@ -6158,28 +6419,28 @@
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="5" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="H23" s="22" t="s">
+        <v>923</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>929</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>931</v>
       </c>
-      <c r="I23" s="22" t="s">
-        <v>937</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>939</v>
-      </c>
       <c r="K23" s="22" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="30" customHeight="1">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="30" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>560</v>
       </c>
@@ -6191,162 +6452,162 @@
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="5" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="30" customHeight="1">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="30" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>579</v>
+        <v>1050</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>534</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="22" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="30" customHeight="1">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="30" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>989</v>
+        <v>1040</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>534</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="5" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="30" customHeight="1">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="30" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>534</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7" t="s">
+        <v>955</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>963</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>913</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>972</v>
-      </c>
       <c r="H27" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="30" customHeight="1">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="30" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>964</v>
+        <v>652</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>534</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="30" customHeight="1">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="30" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>855</v>
+        <v>1041</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>2</v>
@@ -6355,31 +6616,31 @@
         <v>534</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="22" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="30" customHeight="1">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="30" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>2</v>
@@ -6388,31 +6649,32 @@
         <v>534</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="22" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="30" customHeight="1">
+        <v>935</v>
+      </c>
+      <c r="L30" s="10"/>
+    </row>
+    <row r="31" spans="1:12" ht="30" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B31" s="21" t="s">
         <v>2</v>
@@ -6421,31 +6683,32 @@
         <v>534</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="22" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="30" customHeight="1">
+        <v>935</v>
+      </c>
+      <c r="L31" s="10"/>
+    </row>
+    <row r="32" spans="1:12" ht="30" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>859</v>
+        <v>1038</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>2</v>
@@ -6454,31 +6717,32 @@
         <v>534</v>
       </c>
       <c r="D32" s="7" t="s">
+        <v>951</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>959</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>968</v>
-      </c>
       <c r="F32" s="7" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="22" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>943</v>
-      </c>
+        <v>935</v>
+      </c>
+      <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:12" ht="30" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>1023</v>
+        <v>1010</v>
       </c>
       <c r="B33" s="21" t="s">
         <v>2</v>
@@ -6487,34 +6751,34 @@
         <v>534</v>
       </c>
       <c r="D33" s="7" t="s">
+        <v>951</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>959</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>968</v>
-      </c>
       <c r="F33" s="7" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="22" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="L33" s="22" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="B34" s="21" t="s">
         <v>2</v>
@@ -6523,29 +6787,344 @@
         <v>534</v>
       </c>
       <c r="D34" s="7" t="s">
+        <v>951</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>959</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>968</v>
-      </c>
       <c r="F34" s="7" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="22" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="L34" s="22" t="s">
-        <v>1022</v>
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="30" customHeight="1">
+      <c r="A35" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>679</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="I35" s="22" t="s">
+        <v>929</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="K35" s="22" t="s">
+        <v>936</v>
+      </c>
+      <c r="L35" s="22" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="30" customHeight="1">
+      <c r="A36" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>680</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>929</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="K36" s="22" t="s">
+        <v>936</v>
+      </c>
+      <c r="L36" s="22" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="30" customHeight="1">
+      <c r="A37" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>679</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="I37" s="22" t="s">
+        <v>929</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="K37" s="22" t="s">
+        <v>936</v>
+      </c>
+      <c r="L37" s="22" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="30" customHeight="1">
+      <c r="A38" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>679</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="I38" s="22" t="s">
+        <v>929</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="K38" s="22" t="s">
+        <v>936</v>
+      </c>
+      <c r="L38" s="22" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="30" customHeight="1">
+      <c r="A39" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>679</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>929</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="K39" s="22" t="s">
+        <v>936</v>
+      </c>
+      <c r="L39" s="22" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="30" customHeight="1">
+      <c r="A40" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>679</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="I40" s="22" t="s">
+        <v>929</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="K40" s="22" t="s">
+        <v>936</v>
+      </c>
+      <c r="L40" s="22" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="30" customHeight="1">
+      <c r="A41" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>679</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="I41" s="22" t="s">
+        <v>929</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="K41" s="22" t="s">
+        <v>936</v>
+      </c>
+      <c r="L41" s="22" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="30" customHeight="1">
+      <c r="A42" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>679</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="I42" s="22" t="s">
+        <v>929</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="K42" s="22" t="s">
+        <v>936</v>
+      </c>
+      <c r="L42" s="22" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="30" customHeight="1">
+      <c r="A43" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>679</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="I43" s="22" t="s">
+        <v>929</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="K43" s="22" t="s">
+        <v>936</v>
+      </c>
+      <c r="L43" s="22" t="s">
+        <v>1061</v>
       </c>
     </row>
   </sheetData>
@@ -6623,7 +7202,7 @@
         <v>95</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>3</v>
@@ -6731,7 +7310,7 @@
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
       <c r="A9" s="13" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B9" s="6"/>
       <c r="D9" s="7" t="s">
@@ -6743,7 +7322,7 @@
     </row>
     <row r="10" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
       <c r="A10" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B10" s="6"/>
       <c r="D10" s="7" t="s">
@@ -6755,7 +7334,7 @@
     </row>
     <row r="11" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
       <c r="A11" s="13" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B11" s="6"/>
       <c r="D11" s="7" t="s">
@@ -6766,7 +7345,7 @@
     </row>
     <row r="12" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
       <c r="A12" s="13" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B12" s="6"/>
       <c r="D12" s="7" t="s">
@@ -6777,7 +7356,7 @@
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
       <c r="A13" s="13" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B13" s="6"/>
       <c r="E13" s="6"/>
@@ -7229,7 +7808,7 @@
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1">
       <c r="A9" s="13" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>93</v>
@@ -7241,7 +7820,7 @@
         <v>22</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
@@ -7255,7 +7834,7 @@
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1">
       <c r="A10" s="13" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>93</v>
@@ -7267,7 +7846,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
@@ -7281,7 +7860,7 @@
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1">
       <c r="A11" s="13" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>93</v>
@@ -7293,7 +7872,7 @@
         <v>22</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
@@ -7307,7 +7886,7 @@
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1">
       <c r="A12" s="13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>93</v>
@@ -7319,7 +7898,7 @@
         <v>22</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>12</v>
@@ -7333,7 +7912,7 @@
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1">
       <c r="A13" s="13" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>93</v>
@@ -7345,7 +7924,7 @@
         <v>22</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
@@ -7848,8 +8427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C13"/>
+    <sheetView topLeftCell="I41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7879,7 +8458,7 @@
         <v>197</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>198</v>
@@ -7909,10 +8488,10 @@
         <v>332</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N1" s="13" t="s">
         <v>444</v>
@@ -7927,7 +8506,7 @@
         <v>538</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="S1" s="13" t="s">
         <v>3</v>
@@ -8094,7 +8673,7 @@
         <v>348</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>774</v>
+        <v>1013</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>303</v>
@@ -8105,7 +8684,7 @@
         <v>357</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>303</v>
@@ -8134,7 +8713,7 @@
         <v>347</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>303</v>
@@ -8145,7 +8724,7 @@
         <v>357</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>303</v>
@@ -8415,7 +8994,7 @@
         <v>381</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>360</v>
@@ -8434,7 +9013,7 @@
         <v>384</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>360</v>
@@ -8486,7 +9065,7 @@
         <v>345</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="27">
@@ -8494,81 +9073,81 @@
         <v>352</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="27">
       <c r="A46" s="5" t="s">
-        <v>1018</v>
+        <v>1008</v>
       </c>
       <c r="B46" s="3"/>
       <c r="L46" s="16" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
       <c r="M46" s="16"/>
     </row>
     <row r="47" spans="1:13" ht="27">
       <c r="A47" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B47" s="3"/>
       <c r="L47" s="16" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="M47" s="16"/>
     </row>
     <row r="48" spans="1:13" ht="27">
       <c r="A48" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B48" s="3"/>
       <c r="L48" s="16" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="M48" s="16"/>
     </row>
     <row r="49" spans="1:16" ht="40.5">
       <c r="A49" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B49" s="3"/>
       <c r="L49" s="16" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="M49" s="16"/>
     </row>
     <row r="50" spans="1:16" ht="27">
       <c r="A50" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B50" s="3"/>
       <c r="L50" s="16" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="M50" s="16"/>
     </row>
     <row r="51" spans="1:16" ht="27">
       <c r="A51" s="13" t="s">
-        <v>675</v>
+        <v>1048</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>683</v>
+        <v>1049</v>
       </c>
       <c r="L51" s="16"/>
       <c r="M51" s="16" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="27">
       <c r="A52" s="13" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="L52" s="16"/>
       <c r="M52" s="16" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="30" customHeight="1">
@@ -8600,7 +9179,7 @@
         <v>432</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="N56" s="17" t="s">
         <v>422</v>
@@ -8611,7 +9190,7 @@
         <v>434</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="N57" s="17" t="s">
         <v>422</v>
@@ -8638,7 +9217,7 @@
         <v>500</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="O60" t="s">
         <v>445</v>
@@ -8649,7 +9228,7 @@
         <v>502</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="O61" t="s">
         <v>445</v>
@@ -8708,7 +9287,7 @@
         <v>498</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="P68" s="3" t="s">
         <v>482</v>
@@ -8719,7 +9298,7 @@
         <v>504</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="P69" s="3" t="s">
         <v>482</v>
@@ -8770,7 +9349,7 @@
         <v>520</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="P75" s="3" t="s">
         <v>482</v>
@@ -8781,7 +9360,7 @@
         <v>521</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>482</v>
@@ -8789,7 +9368,7 @@
     </row>
     <row r="77" spans="1:17" ht="57" customHeight="1">
       <c r="A77" s="13" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="Q77" s="2" t="s">
         <v>539</v>
@@ -8856,7 +9435,7 @@
         <v>577</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="Q85" s="2" t="s">
         <v>540</v>
@@ -8867,7 +9446,7 @@
         <v>574</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="Q86" s="2" t="s">
         <v>540</v>
@@ -8875,7 +9454,7 @@
     </row>
     <row r="87" spans="1:21">
       <c r="A87" s="13" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="R87" s="10">
         <v>17</v>
@@ -8883,7 +9462,7 @@
     </row>
     <row r="88" spans="1:21">
       <c r="A88" s="13" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="R88" s="10">
         <v>18</v>
@@ -8891,7 +9470,7 @@
     </row>
     <row r="89" spans="1:21">
       <c r="A89" s="13" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="R89" s="10">
         <v>30</v>
@@ -8899,7 +9478,7 @@
     </row>
     <row r="90" spans="1:21">
       <c r="A90" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="R90" s="10">
         <v>29</v>
@@ -8907,7 +9486,7 @@
     </row>
     <row r="91" spans="1:21">
       <c r="A91" s="13" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="R91" s="10">
         <v>50</v>
@@ -8915,7 +9494,7 @@
     </row>
     <row r="92" spans="1:21">
       <c r="A92" s="13" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="R92" s="10">
         <v>49</v>
@@ -8943,7 +9522,7 @@
     </row>
     <row r="95" spans="1:21" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="A95" s="13" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="S95" s="6"/>
       <c r="T95" s="7" t="s">
@@ -8953,7 +9532,7 @@
     </row>
     <row r="96" spans="1:21" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="A96" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="S96" s="6"/>
       <c r="T96" s="7" t="s">
@@ -8963,7 +9542,7 @@
     </row>
     <row r="97" spans="1:21" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="A97" s="13" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="S97" s="6"/>
       <c r="T97" s="7" t="s">
@@ -8973,7 +9552,7 @@
     </row>
     <row r="98" spans="1:21" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="A98" s="13" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="S98" s="6"/>
       <c r="T98" s="7" t="s">
@@ -8983,7 +9562,7 @@
     </row>
     <row r="99" spans="1:21" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="A99" s="13" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="S99" s="6"/>
       <c r="T99" s="6"/>
@@ -8994,7 +9573,7 @@
         <v>49</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="S100" s="6"/>
       <c r="T100" s="6"/>
@@ -9007,7 +9586,7 @@
         <v>50</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="S101" s="6"/>
       <c r="T101" s="6"/>
@@ -9026,8 +9605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="B178" sqref="B178"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9440,7 +10019,7 @@
         <v>173</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>152</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1">
@@ -9535,7 +10114,7 @@
         <v>200</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>163</v>
@@ -9703,7 +10282,7 @@
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="B36" s="6">
         <v>0</v>
@@ -10317,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>1003</v>
+        <v>993</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>307</v>
@@ -10851,19 +11430,19 @@
     </row>
     <row r="94" spans="1:8" ht="30" customHeight="1">
       <c r="A94" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B94" s="6">
         <v>0</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>163</v>
@@ -10871,19 +11450,19 @@
     </row>
     <row r="95" spans="1:8" ht="30" customHeight="1">
       <c r="A95" s="5" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B95" s="6">
         <v>0</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>152</v>
@@ -10891,19 +11470,19 @@
     </row>
     <row r="96" spans="1:8" s="20" customFormat="1" ht="30" customHeight="1">
       <c r="A96" s="18" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B96" s="6">
         <v>0</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F96" s="19" t="s">
         <v>152</v>
@@ -10913,7 +11492,7 @@
     </row>
     <row r="97" spans="1:6" ht="30" customHeight="1">
       <c r="A97" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B97" s="6">
         <v>0</v>
@@ -10922,10 +11501,10 @@
         <v>219</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>163</v>
@@ -10933,7 +11512,7 @@
     </row>
     <row r="98" spans="1:6" ht="30" customHeight="1">
       <c r="A98" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B98" s="6">
         <v>0</v>
@@ -10942,10 +11521,10 @@
         <v>211</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>163</v>
@@ -10953,19 +11532,19 @@
     </row>
     <row r="99" spans="1:6" ht="30" customHeight="1">
       <c r="A99" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B99" s="6">
         <v>0</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>152</v>
@@ -10973,19 +11552,19 @@
     </row>
     <row r="100" spans="1:6" ht="30" customHeight="1">
       <c r="A100" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B100" s="6">
         <v>0</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>163</v>
@@ -10993,19 +11572,19 @@
     </row>
     <row r="101" spans="1:6" ht="30" customHeight="1">
       <c r="A101" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B101" s="6">
         <v>0</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F101" s="6" t="s">
         <v>152</v>
@@ -11013,19 +11592,19 @@
     </row>
     <row r="102" spans="1:6" ht="30" customHeight="1">
       <c r="A102" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B102" s="6">
         <v>0</v>
       </c>
       <c r="C102" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="E102" s="6" t="s">
         <v>653</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>654</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>152</v>
@@ -11033,19 +11612,19 @@
     </row>
     <row r="103" spans="1:6" ht="30" customHeight="1">
       <c r="A103" s="5" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B103" s="6">
         <v>0</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>163</v>
@@ -11053,19 +11632,19 @@
     </row>
     <row r="104" spans="1:6" ht="30" customHeight="1">
       <c r="A104" s="5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B104" s="6">
         <v>0</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>152</v>
@@ -11133,7 +11712,7 @@
     </row>
     <row r="108" spans="1:6" ht="30" customHeight="1">
       <c r="A108" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B108" s="6">
         <v>0</v>
@@ -11173,7 +11752,7 @@
     </row>
     <row r="110" spans="1:6" ht="30" customHeight="1">
       <c r="A110" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B110" s="6">
         <v>0</v>
@@ -12022,7 +12601,7 @@
         <v>209</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E152" s="6" t="s">
         <v>537</v>
@@ -12093,7 +12672,7 @@
     </row>
     <row r="156" spans="1:6" ht="30" customHeight="1">
       <c r="A156" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B156" s="6">
         <v>0</v>
@@ -12142,7 +12721,7 @@
         <v>209</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="E158" s="6" t="s">
         <v>558</v>
@@ -12193,7 +12772,7 @@
     </row>
     <row r="161" spans="1:6" ht="30" customHeight="1">
       <c r="A161" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B161" s="6">
         <v>0</v>
@@ -12202,7 +12781,7 @@
         <v>324</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E161" s="6" t="s">
         <v>537</v>
@@ -12213,7 +12792,7 @@
     </row>
     <row r="162" spans="1:6" ht="30" customHeight="1">
       <c r="A162" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B162" s="6">
         <v>0</v>
@@ -12222,10 +12801,10 @@
         <v>209</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F162" s="6" t="s">
         <v>163</v>
@@ -12233,7 +12812,7 @@
     </row>
     <row r="163" spans="1:6" ht="30" customHeight="1">
       <c r="A163" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B163" s="6">
         <v>0</v>
@@ -12242,10 +12821,10 @@
         <v>209</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F163" s="6" t="s">
         <v>152</v>
@@ -12253,7 +12832,7 @@
     </row>
     <row r="164" spans="1:6" ht="30" customHeight="1">
       <c r="A164" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B164" s="6">
         <v>0</v>
@@ -12262,10 +12841,10 @@
         <v>209</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F164" s="6" t="s">
         <v>163</v>
@@ -12273,7 +12852,7 @@
     </row>
     <row r="165" spans="1:6" ht="29.25" customHeight="1">
       <c r="A165" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B165" s="6">
         <v>0</v>
@@ -12282,10 +12861,10 @@
         <v>209</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F165" s="6" t="s">
         <v>152</v>
@@ -12293,7 +12872,7 @@
     </row>
     <row r="166" spans="1:6" ht="30" customHeight="1">
       <c r="A166" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B166" s="6">
         <v>0</v>
@@ -12302,10 +12881,10 @@
         <v>324</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F166" s="6" t="s">
         <v>163</v>
@@ -12313,7 +12892,7 @@
     </row>
     <row r="167" spans="1:6" ht="30" customHeight="1">
       <c r="A167" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B167" s="6">
         <v>0</v>
@@ -12322,10 +12901,10 @@
         <v>324</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F167" s="6" t="s">
         <v>152</v>
@@ -12333,7 +12912,7 @@
     </row>
     <row r="168" spans="1:6" ht="30" customHeight="1">
       <c r="A168" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B168" s="6">
         <v>0</v>
@@ -12342,10 +12921,10 @@
         <v>324</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F168" s="6" t="s">
         <v>163</v>
@@ -12353,7 +12932,7 @@
     </row>
     <row r="169" spans="1:6" ht="30" customHeight="1">
       <c r="A169" s="5" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B169" s="6">
         <v>0</v>
@@ -12362,10 +12941,10 @@
         <v>324</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F169" s="6" t="s">
         <v>152</v>
@@ -12373,19 +12952,19 @@
     </row>
     <row r="170" spans="1:6" ht="30" customHeight="1">
       <c r="A170" s="5" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B170" s="6">
         <v>0</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F170" s="6" t="s">
         <v>163</v>
@@ -12393,7 +12972,7 @@
     </row>
     <row r="171" spans="1:6" ht="30" customHeight="1">
       <c r="A171" s="5" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B171" s="6">
         <v>0</v>
@@ -12402,10 +12981,10 @@
         <v>431</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F171" s="6" t="s">
         <v>152</v>
@@ -12413,7 +12992,7 @@
     </row>
     <row r="172" spans="1:6" ht="30" customHeight="1">
       <c r="A172" s="5" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B172" s="6">
         <v>0</v>
@@ -12422,10 +13001,10 @@
         <v>431</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F172" s="6" t="s">
         <v>163</v>
@@ -12433,7 +13012,7 @@
     </row>
     <row r="173" spans="1:6" ht="30" customHeight="1">
       <c r="A173" s="5" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B173" s="6">
         <v>0</v>
@@ -12442,10 +13021,10 @@
         <v>431</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F173" s="6" t="s">
         <v>152</v>
@@ -12453,7 +13032,7 @@
     </row>
     <row r="174" spans="1:6" ht="30" customHeight="1">
       <c r="A174" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B174" s="6">
         <v>0</v>
@@ -12463,7 +13042,7 @@
       </c>
       <c r="D174" s="6"/>
       <c r="E174" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F174" s="6" t="s">
         <v>152</v>
@@ -12471,17 +13050,17 @@
     </row>
     <row r="175" spans="1:6" ht="30" customHeight="1">
       <c r="A175" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B175" s="6">
         <v>0</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D175" s="6"/>
       <c r="E175" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F175" s="6" t="s">
         <v>163</v>
@@ -12489,7 +13068,7 @@
     </row>
     <row r="176" spans="1:6" ht="30" customHeight="1">
       <c r="A176" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B176" s="6">
         <v>0</v>
@@ -12498,7 +13077,7 @@
         <v>324</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F176" s="6" t="s">
         <v>152</v>
@@ -12506,7 +13085,7 @@
     </row>
     <row r="177" spans="1:6" ht="30" customHeight="1">
       <c r="A177" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B177" s="6">
         <v>0</v>
@@ -12515,7 +13094,7 @@
         <v>431</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F177" s="6" t="s">
         <v>152</v>
@@ -12523,7 +13102,7 @@
     </row>
     <row r="178" spans="1:6" ht="30" customHeight="1">
       <c r="A178" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B178" s="6">
         <v>0</v>
@@ -12532,10 +13111,10 @@
         <v>209</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F178" s="6" t="s">
         <v>39</v>
@@ -12543,7 +13122,7 @@
     </row>
     <row r="179" spans="1:6" ht="30" customHeight="1">
       <c r="A179" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B179" s="6">
         <v>0</v>
@@ -12552,10 +13131,10 @@
         <v>209</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F179" s="6" t="s">
         <v>19</v>
@@ -12563,7 +13142,7 @@
     </row>
     <row r="180" spans="1:6" ht="30" customHeight="1">
       <c r="A180" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B180" s="6">
         <v>0</v>
@@ -12572,10 +13151,10 @@
         <v>209</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F180" s="6" t="s">
         <v>39</v>
@@ -12583,7 +13162,7 @@
     </row>
     <row r="181" spans="1:6" ht="30" customHeight="1">
       <c r="A181" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B181" s="6">
         <v>0</v>
@@ -12592,10 +13171,10 @@
         <v>209</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F181" s="6" t="s">
         <v>39</v>
@@ -12603,7 +13182,7 @@
     </row>
     <row r="182" spans="1:6" ht="30" customHeight="1">
       <c r="A182" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B182" s="6">
         <v>0</v>
@@ -12612,10 +13191,10 @@
         <v>209</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F182" s="6" t="s">
         <v>19</v>
@@ -12623,7 +13202,7 @@
     </row>
     <row r="183" spans="1:6" ht="30" customHeight="1">
       <c r="A183" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B183" s="6">
         <v>0</v>
@@ -12632,10 +13211,10 @@
         <v>209</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F183" s="6" t="s">
         <v>19</v>
@@ -12643,7 +13222,7 @@
     </row>
     <row r="184" spans="1:6" ht="30" customHeight="1">
       <c r="A184" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B184" s="6">
         <v>0</v>
@@ -12652,10 +13231,10 @@
         <v>209</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F184" s="6" t="s">
         <v>19</v>
@@ -12663,7 +13242,7 @@
     </row>
     <row r="185" spans="1:6" ht="30" customHeight="1">
       <c r="A185" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B185" s="6">
         <v>1</v>
@@ -12672,10 +13251,10 @@
         <v>209</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F185" s="6" t="s">
         <v>39</v>
@@ -12683,7 +13262,7 @@
     </row>
     <row r="186" spans="1:6" ht="30" customHeight="1">
       <c r="A186" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B186" s="6">
         <v>0</v>
@@ -12692,10 +13271,10 @@
         <v>209</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F186" s="6" t="s">
         <v>19</v>
@@ -12713,7 +13292,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12731,16 +13310,16 @@
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="22.5" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>3</v>
@@ -12749,91 +13328,91 @@
         <v>4</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="40.5">
       <c r="A2" s="5" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:9" ht="40.5">
       <c r="A3" s="5" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
     </row>
     <row r="4" spans="1:9" ht="40.5">
       <c r="A4" s="5" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="40.5">
       <c r="A5" s="5" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="40.5">
       <c r="A6" s="5" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
     </row>
     <row r="7" spans="1:9" ht="40.5">
       <c r="A7" s="5" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:9" ht="40.5">
       <c r="A8" s="5" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
     </row>
     <row r="9" spans="1:9" ht="40.5">
       <c r="A9" s="5" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -12858,7 +13437,7 @@
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1">
       <c r="A12" s="13" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="7" t="s">
@@ -12867,7 +13446,7 @@
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1">
       <c r="A13" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="7" t="s">
@@ -12876,7 +13455,7 @@
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1">
       <c r="A14" s="13" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="7" t="s">
@@ -12885,7 +13464,7 @@
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1">
       <c r="A15" s="13" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="7" t="s">
@@ -12894,12 +13473,12 @@
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1">
       <c r="A16" s="13" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1">
       <c r="A17" s="13" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>42</v>
@@ -12907,7 +13486,7 @@
     </row>
     <row r="18" spans="1:8" ht="30" customHeight="1">
       <c r="A18" s="13" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>43</v>
@@ -12915,144 +13494,144 @@
     </row>
     <row r="19" spans="1:8" ht="40.5">
       <c r="A19" s="13" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="40.5">
       <c r="A20" s="13" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:8" ht="41.25" customHeight="1">
       <c r="A21" s="13" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="7" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="41.25" customHeight="1">
       <c r="A22" s="13" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="7" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="94.5">
       <c r="A23" s="13" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C23" s="7"/>
       <c r="H23" s="16" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="67.5">
       <c r="A24" s="13" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="40.5">
       <c r="A25" s="13" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="40.5">
       <c r="A26" s="13" t="s">
+        <v>796</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>799</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="40.5">
       <c r="A27" s="13" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="40.5">
       <c r="A28" s="13" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="40.5">
       <c r="A29" s="13" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="40.5">
       <c r="A30" s="13" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="40.5">
       <c r="A31" s="13" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
   </sheetData>
@@ -13066,8 +13645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B35"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13109,19 +13688,19 @@
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>163</v>
@@ -13130,24 +13709,24 @@
         <v>163</v>
       </c>
       <c r="H2" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>152</v>
@@ -13156,24 +13735,24 @@
         <v>152</v>
       </c>
       <c r="H3" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>152</v>
@@ -13182,24 +13761,24 @@
         <v>152</v>
       </c>
       <c r="H4" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>152</v>
@@ -13208,24 +13787,24 @@
         <v>152</v>
       </c>
       <c r="H5" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>163</v>
@@ -13234,24 +13813,24 @@
         <v>163</v>
       </c>
       <c r="H6" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B7" s="6">
         <v>0</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>163</v>
@@ -13260,24 +13839,24 @@
         <v>163</v>
       </c>
       <c r="H7" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B8" s="6">
         <v>0</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>163</v>
@@ -13286,24 +13865,24 @@
         <v>163</v>
       </c>
       <c r="H8" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B9" s="6">
         <v>0</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>152</v>
@@ -13312,24 +13891,24 @@
         <v>152</v>
       </c>
       <c r="H9" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B10" s="6">
         <v>0</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>152</v>
@@ -13338,24 +13917,24 @@
         <v>152</v>
       </c>
       <c r="H10" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B11" s="6">
         <v>0</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>152</v>
@@ -13364,24 +13943,24 @@
         <v>152</v>
       </c>
       <c r="H11" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B12" s="6">
         <v>0</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>700</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>701</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>703</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>163</v>
@@ -13390,24 +13969,24 @@
         <v>163</v>
       </c>
       <c r="H12" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B13" s="6">
         <v>0</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>163</v>
@@ -13416,12 +13995,12 @@
         <v>163</v>
       </c>
       <c r="H13" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B14" s="6">
         <v>0</v>
@@ -13430,10 +14009,10 @@
         <v>209</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>163</v>
@@ -13442,12 +14021,12 @@
         <v>163</v>
       </c>
       <c r="H14" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B15" s="6">
         <v>0</v>
@@ -13456,10 +14035,10 @@
         <v>209</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>152</v>
@@ -13468,12 +14047,12 @@
         <v>152</v>
       </c>
       <c r="H15" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B16" s="6">
         <v>0</v>
@@ -13482,10 +14061,10 @@
         <v>209</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>163</v>
@@ -13494,12 +14073,12 @@
         <v>163</v>
       </c>
       <c r="H16" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B17" s="6">
         <v>0</v>
@@ -13508,10 +14087,10 @@
         <v>209</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>152</v>
@@ -13520,24 +14099,24 @@
         <v>152</v>
       </c>
       <c r="H17" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B18" s="6">
         <v>0</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>39</v>
@@ -13546,24 +14125,24 @@
         <v>163</v>
       </c>
       <c r="H18" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B19" s="6">
         <v>0</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>19</v>
@@ -13572,24 +14151,24 @@
         <v>152</v>
       </c>
       <c r="H19" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B20" s="6">
         <v>0</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>39</v>
@@ -13598,24 +14177,24 @@
         <v>163</v>
       </c>
       <c r="H20" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="B21" s="6">
         <v>0</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>39</v>
@@ -13624,24 +14203,24 @@
         <v>163</v>
       </c>
       <c r="H21" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="30" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B22" s="6">
         <v>0</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>19</v>
@@ -13650,24 +14229,24 @@
         <v>152</v>
       </c>
       <c r="H22" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B23" s="6">
         <v>0</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>19</v>
@@ -13676,24 +14255,24 @@
         <v>152</v>
       </c>
       <c r="H23" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="30" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B24" s="6">
         <v>0</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>19</v>
@@ -13702,24 +14281,24 @@
         <v>152</v>
       </c>
       <c r="H24" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B25" s="6">
         <v>0</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>39</v>
@@ -13728,24 +14307,24 @@
         <v>163</v>
       </c>
       <c r="H25" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="30" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B26" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>19</v>
@@ -13754,12 +14333,12 @@
         <v>152</v>
       </c>
       <c r="H26" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B27" s="6">
         <v>0</v>
@@ -13768,10 +14347,10 @@
         <v>209</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>39</v>
@@ -13780,12 +14359,12 @@
         <v>163</v>
       </c>
       <c r="H27" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="30" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B28" s="6">
         <v>0</v>
@@ -13794,10 +14373,10 @@
         <v>209</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>39</v>
@@ -13806,12 +14385,12 @@
         <v>163</v>
       </c>
       <c r="H28" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B29" s="6">
         <v>0</v>
@@ -13820,10 +14399,10 @@
         <v>209</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>19</v>
@@ -13832,12 +14411,12 @@
         <v>152</v>
       </c>
       <c r="H29" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="30" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B30" s="6">
         <v>0</v>
@@ -13846,10 +14425,10 @@
         <v>209</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>39</v>
@@ -13858,12 +14437,12 @@
         <v>163</v>
       </c>
       <c r="H30" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B31" s="6">
         <v>0</v>
@@ -13872,10 +14451,10 @@
         <v>209</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>19</v>
@@ -13884,12 +14463,12 @@
         <v>152</v>
       </c>
       <c r="H31" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="30" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B32" s="6">
         <v>0</v>
@@ -13898,10 +14477,10 @@
         <v>209</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>39</v>
@@ -13910,12 +14489,12 @@
         <v>163</v>
       </c>
       <c r="H32" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B33" s="6">
         <v>0</v>
@@ -13924,10 +14503,10 @@
         <v>209</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>19</v>
@@ -13936,12 +14515,12 @@
         <v>152</v>
       </c>
       <c r="H33" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="30" customHeight="1">
       <c r="A34" s="5" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B34" s="6">
         <v>0</v>
@@ -13950,10 +14529,10 @@
         <v>209</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>39</v>
@@ -13962,12 +14541,12 @@
         <v>163</v>
       </c>
       <c r="H34" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B35" s="6">
         <v>0</v>
@@ -13976,10 +14555,10 @@
         <v>209</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>19</v>
@@ -13988,7 +14567,7 @@
         <v>152</v>
       </c>
       <c r="H35" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
   </sheetData>

--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3675" windowWidth="21735" windowHeight="4965" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="3705" windowWidth="21735" windowHeight="4935" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="元数据表" sheetId="11" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2450" uniqueCount="1062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="1062">
   <si>
     <t>loginName</t>
   </si>
@@ -4081,10 +4081,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"allCount": "1","isApply": "Y","orders": [{"userinfoNo": "与student是同学","time": "0",}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"allCount": "1","isApply": "Y","orders": [{"userinfoNo": "与student是同学","time": "1",}]}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4275,10 +4271,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{ "projectName": "牛大咖", "loanTerm": "1", "loanSubSrc": "NDK", "time": "0", "repayStatus": "NORMAL" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{ "projectName": "牛小宝", "loanTerm": "1", "loanSubSrc": "NXB", "time": "0", "repayStatus": "NORMAL" }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4312,6 +4304,14 @@
   </si>
   <si>
     <t>失败的牛大款订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "牛大咖", "loanTerm": "1", "loanSubSrc": "NDK", "time": "0", "repayStatus": "" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"allCount": "1","isApply": "Y","orders": [{"userinfoNo": "与student是同学","time": "0",}]}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4751,7 +4751,7 @@
   <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4805,7 +4805,7 @@
         <v>950</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4853,7 +4853,7 @@
         <v>866</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4901,7 +4901,7 @@
         <v>870</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5013,7 +5013,7 @@
         <v>960</v>
       </c>
       <c r="B32" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5101,7 +5101,7 @@
         <v>917</v>
       </c>
       <c r="B43" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -5250,74 +5250,74 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="4" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="4" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="4" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="4" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>1052</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="4" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="4" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="4" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
   </sheetData>
@@ -5492,10 +5492,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5573,16 +5573,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E4" t="s">
         <v>1046</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1047</v>
       </c>
       <c r="F4" t="s">
         <v>642</v>
@@ -5633,19 +5633,59 @@
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C7" t="s">
         <v>762</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E7" t="s">
         <v>1046</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1047</v>
       </c>
       <c r="F7" t="s">
         <v>641</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>762</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="6">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>779</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>778</v>
       </c>
     </row>
   </sheetData>
@@ -5658,8 +5698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5713,12 +5753,12 @@
         <v>854</v>
       </c>
       <c r="L1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>2</v>
@@ -6013,7 +6053,7 @@
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>2</v>
@@ -6475,7 +6515,7 @@
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>645</v>
@@ -6508,7 +6548,7 @@
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>646</v>
@@ -6607,7 +6647,7 @@
     </row>
     <row r="29" spans="1:12" ht="30" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>2</v>
@@ -6708,7 +6748,7 @@
     </row>
     <row r="32" spans="1:12" ht="30" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>2</v>
@@ -6742,7 +6782,7 @@
     </row>
     <row r="33" spans="1:12" ht="30" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B33" s="21" t="s">
         <v>2</v>
@@ -6773,12 +6813,12 @@
         <v>935</v>
       </c>
       <c r="L33" s="22" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B34" s="21" t="s">
         <v>2</v>
@@ -6809,12 +6849,12 @@
         <v>935</v>
       </c>
       <c r="L34" s="22" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="30" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B35" s="21" t="s">
         <v>679</v>
@@ -6844,12 +6884,12 @@
         <v>936</v>
       </c>
       <c r="L35" s="22" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="30" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B36" s="21" t="s">
         <v>680</v>
@@ -6879,12 +6919,12 @@
         <v>936</v>
       </c>
       <c r="L36" s="22" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="30" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B37" s="21" t="s">
         <v>679</v>
@@ -6914,12 +6954,12 @@
         <v>936</v>
       </c>
       <c r="L37" s="22" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="30" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B38" s="21" t="s">
         <v>679</v>
@@ -6949,12 +6989,12 @@
         <v>936</v>
       </c>
       <c r="L38" s="22" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="30" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B39" s="21" t="s">
         <v>679</v>
@@ -6984,12 +7024,12 @@
         <v>936</v>
       </c>
       <c r="L39" s="22" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="30" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B40" s="21" t="s">
         <v>679</v>
@@ -7019,12 +7059,12 @@
         <v>936</v>
       </c>
       <c r="L40" s="22" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B41" s="21" t="s">
         <v>679</v>
@@ -7054,12 +7094,12 @@
         <v>936</v>
       </c>
       <c r="L41" s="22" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>679</v>
@@ -7089,12 +7129,12 @@
         <v>936</v>
       </c>
       <c r="L42" s="22" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="30" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B43" s="21" t="s">
         <v>679</v>
@@ -7124,7 +7164,7 @@
         <v>936</v>
       </c>
       <c r="L43" s="22" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
   </sheetData>
@@ -8427,8 +8467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView topLeftCell="I41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8673,7 +8713,7 @@
         <v>348</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>303</v>
@@ -9078,11 +9118,11 @@
     </row>
     <row r="46" spans="1:13" ht="27">
       <c r="A46" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B46" s="3"/>
       <c r="L46" s="16" t="s">
-        <v>1004</v>
+        <v>1061</v>
       </c>
       <c r="M46" s="16"/>
     </row>
@@ -9102,7 +9142,7 @@
       </c>
       <c r="B48" s="3"/>
       <c r="L48" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="M48" s="16"/>
     </row>
@@ -9128,10 +9168,10 @@
     </row>
     <row r="51" spans="1:16" ht="27">
       <c r="A51" s="13" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>1048</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>1049</v>
       </c>
       <c r="L51" s="16"/>
       <c r="M51" s="16" t="s">
@@ -9605,8 +9645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H186"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10019,7 +10059,7 @@
         <v>173</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1">
@@ -11459,7 +11499,7 @@
         <v>644</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>643</v>
@@ -11615,7 +11655,7 @@
         <v>676</v>
       </c>
       <c r="B103" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>644</v>
@@ -11641,7 +11681,7 @@
         <v>644</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>674</v>
@@ -12620,14 +12660,14 @@
       <c r="C153" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="D153" s="10" t="s">
+      <c r="D153" s="6" t="s">
         <v>544</v>
       </c>
       <c r="E153" s="6" t="s">
         <v>537</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="30" customHeight="1">
@@ -13245,7 +13285,7 @@
         <v>625</v>
       </c>
       <c r="B185" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>209</v>
@@ -13645,8 +13685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14315,7 +14355,7 @@
         <v>734</v>
       </c>
       <c r="B26" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>690</v>

--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3705" windowWidth="21735" windowHeight="4935" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="3705" windowWidth="21735" windowHeight="4935" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="元数据表" sheetId="11" r:id="rId1"/>
@@ -5495,7 +5495,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5590,7 +5590,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>65</v>
@@ -5610,7 +5610,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>65</v>
@@ -5650,7 +5650,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>28</v>
@@ -5670,7 +5670,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>28</v>

--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3795" windowWidth="21735" windowHeight="4845"/>
+    <workbookView xWindow="0" yWindow="3825" windowWidth="21735" windowHeight="4815" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="元数据表" sheetId="11" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2546" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2587" uniqueCount="1090">
   <si>
     <t>{"photoAuthStatus":"AS"}</t>
   </si>
@@ -3635,9 +3635,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"phoneAuthStatus":"AS","mobile":"18000000010","mobileSign":"999999999"}</t>
-  </si>
-  <si>
     <t>手机号认证失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3892,10 +3889,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一线城市手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>二线城市手机号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4050,10 +4043,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"phoneAuthStatus":"AS","mobile":"18000000011","mobileSign":"999999999"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>手机号认证成功3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4182,10 +4171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{ "projectName": "牛大咖", "loanTerm": "1", "loanSubSrc": "NDK", "time": "1", "repayStatus": "WAIT_REPAY" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>非当天创建的待还订单（牛大咖）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4199,10 +4184,6 @@
   </si>
   <si>
     <t>allpass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>graduate0-6一线城市本科</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4318,10 +4299,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{ "projectName": "触宝", "loanTerm": "1", "loanSubSrc": "CHUBAO", "time": "1", "repayStatus": "WAIT_REPAY" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>非当天创建的待还订单（触宝）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4384,6 +4361,70 @@
   </si>
   <si>
     <t>{ "projectName": "牛大款", "loanTerm": "1", "loanSubSrc": "NKK", "time": "0", "repayStatus": "NORMAL" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "牛大咖", "loanTerm": "1", "loanSubSrc": "NDK", "time": "1", "repayStatus": "WAIT_REPAY" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "触宝", "loanTerm": "1", "loanSubSrc": "CHUBAO", "time": "1", "repayStatus": "WAIT_REPAY" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isEducationWhite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phoneAuthStatus":"AS","mobile":"18000000011","mobileSign":"999999999"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phoneAuthStatus":"AS","mobile":"18000000010","mobileSign":"999999999"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触宝成人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历白名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一线城市手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一线城市手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一线城市手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二线城市手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二线城市手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历白名单(手机号段一线城市)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历白名单(手机号段二线城市)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduate0-6一线城市本科</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4822,8 +4863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4850,7 +4891,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B3" t="s">
         <v>872</v>
@@ -4858,7 +4899,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>873</v>
@@ -4866,7 +4907,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>874</v>
@@ -4874,10 +4915,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4898,7 +4939,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B9" t="s">
         <v>877</v>
@@ -4925,7 +4966,7 @@
         <v>864</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4946,7 +4987,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B15" t="s">
         <v>882</v>
@@ -4973,7 +5014,7 @@
         <v>868</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5002,7 +5043,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B22" t="s">
         <v>888</v>
@@ -5010,119 +5051,119 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B23" t="s">
-        <v>889</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B24" t="s">
-        <v>996</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="B25" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>889</v>
+      </c>
+      <c r="B26" t="s">
         <v>890</v>
-      </c>
-      <c r="B26" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>955</v>
+        <v>1082</v>
       </c>
       <c r="B27" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
+        <v>892</v>
+      </c>
+      <c r="B28" t="s">
         <v>893</v>
-      </c>
-      <c r="B28" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
+        <v>894</v>
+      </c>
+      <c r="B29" t="s">
         <v>895</v>
-      </c>
-      <c r="B29" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B30" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
+        <v>897</v>
+      </c>
+      <c r="B31" t="s">
         <v>898</v>
-      </c>
-      <c r="B31" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B32" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
+        <v>900</v>
+      </c>
+      <c r="B33" t="s">
         <v>901</v>
-      </c>
-      <c r="B33" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B34" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="B35" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="B36" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B37" t="s">
         <v>0</v>
@@ -5130,143 +5171,143 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
+        <v>909</v>
+      </c>
+      <c r="B38" t="s">
         <v>910</v>
-      </c>
-      <c r="B38" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B39" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
+        <v>911</v>
+      </c>
+      <c r="B40" t="s">
         <v>912</v>
-      </c>
-      <c r="B40" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="4" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="4" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B43" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="4" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B44" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="4" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="4" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="4" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B47" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="4" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B48" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="4" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B49" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B50" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B51" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="4" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>919</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>921</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="4" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>337</v>
@@ -5274,7 +5315,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="4" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>161</v>
@@ -5282,7 +5323,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="4" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>152</v>
@@ -5290,7 +5331,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="4" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>315</v>
@@ -5298,130 +5339,130 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="4" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="4" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="B61" t="s">
         <v>936</v>
-      </c>
-      <c r="B61" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="4" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="4" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="4" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="4" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="4" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="4" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>1063</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="4" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>1029</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="4" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="4" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="4" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="4" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="4" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="4" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -5601,8 +5642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5760,16 +5801,16 @@
         <v>0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="C8" t="s">
         <v>760</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="E8" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="F8" t="s">
         <v>640</v>
@@ -5780,16 +5821,16 @@
         <v>0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="C9" t="s">
         <v>66</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="E9" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="F9" t="s">
         <v>641</v>
@@ -5803,10 +5844,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5823,49 +5864,53 @@
     <col min="10" max="10" width="31.875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="22.375" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="31.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1">
+    <row r="1" spans="1:13" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="C1" t="s">
         <v>532</v>
       </c>
       <c r="D1" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="E1" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="F1" t="s">
         <v>653</v>
       </c>
       <c r="G1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H1" t="s">
+        <v>983</v>
+      </c>
+      <c r="I1" t="s">
+        <v>984</v>
+      </c>
+      <c r="J1" t="s">
         <v>985</v>
-      </c>
-      <c r="I1" t="s">
-        <v>986</v>
-      </c>
-      <c r="J1" t="s">
-        <v>987</v>
       </c>
       <c r="K1" t="s">
         <v>852</v>
       </c>
       <c r="L1" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1">
+        <v>1011</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>1</v>
@@ -5875,28 +5920,28 @@
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="30" customHeight="1">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="30" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>160</v>
       </c>
@@ -5910,24 +5955,24 @@
         <v>856</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:12" ht="30" customHeight="1">
+    <row r="4" spans="1:13" ht="30" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>208</v>
       </c>
@@ -5939,28 +5984,28 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="30" customHeight="1">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>840</v>
       </c>
@@ -5972,28 +6017,28 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>840</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="30" customHeight="1">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="30" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>842</v>
       </c>
@@ -6005,28 +6050,28 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>842</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="30" customHeight="1">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>841</v>
       </c>
@@ -6038,28 +6083,28 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="30" customHeight="1">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>843</v>
       </c>
@@ -6071,28 +6116,28 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>843</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="30" customHeight="1">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>466</v>
       </c>
@@ -6104,28 +6149,28 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>842</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="30" customHeight="1">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="30" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>694</v>
       </c>
@@ -6139,26 +6184,26 @@
         <v>858</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="30" customHeight="1">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="30" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>210</v>
       </c>
@@ -6169,29 +6214,29 @@
         <v>533</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="30" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>318</v>
       </c>
@@ -6203,30 +6248,30 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="30" customHeight="1">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="30" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>1</v>
@@ -6236,30 +6281,30 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="30" customHeight="1">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="30" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>1</v>
@@ -6269,28 +6314,28 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="30" customHeight="1">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="30" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>449</v>
       </c>
@@ -6302,28 +6347,28 @@
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>449</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="30" customHeight="1">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="30" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>467</v>
       </c>
@@ -6337,23 +6382,23 @@
         <v>442</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1">
@@ -6368,25 +6413,25 @@
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
@@ -6403,28 +6448,28 @@
         <v>472</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="30" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>534</v>
@@ -6434,25 +6479,25 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="5" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F19" s="6" t="s">
+        <v>957</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>959</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>961</v>
-      </c>
       <c r="H19" s="7" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="30" customHeight="1">
@@ -6467,25 +6512,25 @@
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="5" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1">
@@ -6500,25 +6545,25 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="5" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="30" customHeight="1">
@@ -6533,25 +6578,25 @@
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="5" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="30" customHeight="1">
@@ -6566,25 +6611,25 @@
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="5" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="30" customHeight="1">
@@ -6599,30 +6644,30 @@
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="5" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>644</v>
@@ -6631,31 +6676,31 @@
         <v>533</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>645</v>
@@ -6665,25 +6710,25 @@
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="5" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>672</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1">
@@ -6698,25 +6743,25 @@
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1">
@@ -6731,30 +6776,30 @@
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="30" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>1034</v>
+        <v>1089</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>1</v>
@@ -6763,26 +6808,26 @@
         <v>533</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1">
@@ -6796,26 +6841,26 @@
         <v>533</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="L30" s="10"/>
     </row>
@@ -6830,32 +6875,32 @@
         <v>533</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="L31" s="10"/>
     </row>
     <row r="32" spans="1:12" ht="30" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>1</v>
@@ -6864,32 +6909,32 @@
         <v>533</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:12" ht="30" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="B33" s="21" t="s">
         <v>1</v>
@@ -6898,34 +6943,34 @@
         <v>533</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="L33" s="22" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B34" s="21" t="s">
         <v>1</v>
@@ -6934,34 +6979,34 @@
         <v>533</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="L34" s="22" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="30" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="B35" s="21" t="s">
         <v>678</v>
@@ -6970,33 +7015,33 @@
         <v>533</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>857</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K35" s="22" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="L35" s="22" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="30" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="B36" s="21" t="s">
         <v>679</v>
@@ -7005,33 +7050,33 @@
         <v>533</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>651</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="L36" s="22" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="30" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="B37" s="21" t="s">
         <v>678</v>
@@ -7040,33 +7085,33 @@
         <v>533</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="I37" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K37" s="22" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="L37" s="22" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="30" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="B38" s="21" t="s">
         <v>678</v>
@@ -7075,33 +7120,33 @@
         <v>533</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K38" s="22" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="L38" s="22" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="30" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="B39" s="21" t="s">
         <v>679</v>
@@ -7110,33 +7155,33 @@
         <v>533</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K39" s="22" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="L39" s="22" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="30" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="B40" s="21" t="s">
         <v>679</v>
@@ -7145,33 +7190,33 @@
         <v>533</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>857</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="I40" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K40" s="22" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="L40" s="22" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="B41" s="21" t="s">
         <v>679</v>
@@ -7180,33 +7225,33 @@
         <v>533</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>651</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K41" s="22" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="L41" s="22" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>679</v>
@@ -7215,33 +7260,33 @@
         <v>533</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="I42" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K42" s="22" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="L42" s="22" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="30" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="B43" s="21" t="s">
         <v>679</v>
@@ -7250,33 +7295,33 @@
         <v>533</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="I43" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K43" s="22" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="L43" s="22" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="30" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>678</v>
@@ -7285,33 +7330,33 @@
         <v>533</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K44" s="22" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="L44" s="22" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="30" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>678</v>
@@ -7320,33 +7365,33 @@
         <v>533</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K45" s="22" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="L45" s="22" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="30" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="B46" s="21" t="s">
         <v>678</v>
@@ -7355,33 +7400,33 @@
         <v>533</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="I46" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K46" s="22" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="L46" s="22" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="30" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>678</v>
@@ -7390,33 +7435,33 @@
         <v>533</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="I47" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K47" s="22" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="L47" s="22" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="30" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="B48" s="21" t="s">
         <v>678</v>
@@ -7425,33 +7470,33 @@
         <v>533</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>893</v>
+        <v>1085</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="I48" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K48" s="22" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="L48" s="22" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="27">
+      <c r="A49" s="4" t="s">
         <v>1051</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="27">
-      <c r="A49" s="4" t="s">
-        <v>1056</v>
       </c>
       <c r="B49" s="21" t="s">
         <v>1</v>
@@ -7463,27 +7508,27 @@
         <v>858</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>955</v>
+        <v>1083</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="I49" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K49" s="22" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="30" customHeight="1">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="30" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="B50" s="21" t="s">
         <v>678</v>
@@ -7492,32 +7537,164 @@
         <v>533</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="I50" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K50" s="22" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="L50" s="22" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="4"/>
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="30" customHeight="1">
+      <c r="A51" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>645</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>903</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="I51" s="22" t="s">
+        <v>926</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="K51" s="22" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="30" customHeight="1">
+      <c r="A52" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="H52" s="7"/>
+      <c r="I52" s="22" t="s">
+        <v>926</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="K52" s="22" t="s">
+        <v>933</v>
+      </c>
+      <c r="M52" s="22" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="30" customHeight="1">
+      <c r="A53" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="H53" s="7"/>
+      <c r="I53" s="22" t="s">
+        <v>926</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="K53" s="22" t="s">
+        <v>933</v>
+      </c>
+      <c r="M53" s="22" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="30" customHeight="1">
+      <c r="A54" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="H54" s="7"/>
+      <c r="I54" s="22" t="s">
+        <v>926</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="K54" s="22" t="s">
+        <v>933</v>
+      </c>
+      <c r="M54" s="22" t="s">
+        <v>1080</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7575,7 +7752,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9065,7 +9242,7 @@
         <v>347</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>302</v>
@@ -9470,11 +9647,11 @@
     </row>
     <row r="46" spans="1:13" ht="27">
       <c r="A46" s="5" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="B46" s="3"/>
       <c r="L46" s="16" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="M46" s="16"/>
     </row>
@@ -9494,7 +9671,7 @@
       </c>
       <c r="B48" s="3"/>
       <c r="L48" s="16" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="M48" s="16"/>
     </row>
@@ -9520,10 +9697,10 @@
     </row>
     <row r="51" spans="1:16" ht="27">
       <c r="A51" s="13" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="L51" s="16"/>
       <c r="M51" s="16" t="s">
@@ -10411,7 +10588,7 @@
         <v>172</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1">
@@ -10674,7 +10851,7 @@
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B36" s="6">
         <v>0</v>
@@ -11288,7 +11465,7 @@
         <v>0</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>306</v>
@@ -11831,7 +12008,7 @@
         <v>643</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>642</v>
@@ -11857,7 +12034,7 @@
         <v>643</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>642</v>
@@ -12039,7 +12216,7 @@
         <v>643</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>673</v>
@@ -13119,7 +13296,7 @@
         <v>208</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E158" s="6" t="s">
         <v>557</v>

--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3825" windowWidth="21735" windowHeight="4815" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="3855" windowWidth="21735" windowHeight="4785" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="元数据表" sheetId="11" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2587" uniqueCount="1090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="1099">
   <si>
     <t>{"photoAuthStatus":"AS"}</t>
   </si>
@@ -4232,10 +4232,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成功的牛小宝订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>成功的牛大款订单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4425,6 +4421,46 @@
   </si>
   <si>
     <t>graduate0-6一线城市本科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功的牛小宝订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "牛小宝", "loanTerm": "1", "loanSubSrc": "NXB", "time": "0", "repayStatus": "WAIT_REPAY" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天创建的待还订单（牛小宝）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天创建的待还订单（牛小宝）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛小宝订单mobileSign为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛小宝订单mobileSign相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛小宝订单mobileSign不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败的牛小宝订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "牛小宝", "loanTerm": "1", "loanSubSrc": "NXB", "time": "0", "repayStatus": "" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败的牛小宝订单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4861,10 +4897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5054,7 +5090,7 @@
         <v>949</v>
       </c>
       <c r="B23" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5062,7 +5098,7 @@
         <v>993</v>
       </c>
       <c r="B24" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5083,7 +5119,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B27" t="s">
         <v>891</v>
@@ -5147,7 +5183,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B35" t="s">
         <v>906</v>
@@ -5155,10 +5191,10 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B36" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -5379,39 +5415,39 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="4" t="s">
-        <v>1014</v>
+        <v>1091</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>1024</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="4" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>1039</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="4" t="s">
-        <v>1054</v>
+        <v>1018</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>1025</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="4" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>1075</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="4" t="s">
-        <v>1026</v>
+        <v>1057</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>1074</v>
@@ -5419,54 +5455,70 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="4" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>1047</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="4" t="s">
-        <v>1040</v>
+        <v>1031</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="4" t="s">
-        <v>1043</v>
+        <v>1089</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>1073</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="4" t="s">
-        <v>1045</v>
+        <v>1096</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>1044</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="4" t="s">
-        <v>1062</v>
+        <v>1042</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>1053</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="4" t="s">
-        <v>1067</v>
+        <v>1044</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="4" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="B75" s="4"/>
+      <c r="B76" s="4" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="B77" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5642,7 +5694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -5844,10 +5896,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5872,7 +5924,7 @@
         <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C1" t="s">
         <v>532</v>
@@ -5905,7 +5957,7 @@
         <v>1011</v>
       </c>
       <c r="M1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="30" customHeight="1">
@@ -6799,7 +6851,7 @@
     </row>
     <row r="29" spans="1:12" ht="30" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>1</v>
@@ -7111,7 +7163,7 @@
     </row>
     <row r="38" spans="1:12" ht="30" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>1072</v>
+        <v>1095</v>
       </c>
       <c r="B38" s="21" t="s">
         <v>678</v>
@@ -7119,11 +7171,9 @@
       <c r="C38" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>947</v>
-      </c>
+      <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
-        <v>892</v>
+        <v>857</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>903</v>
@@ -7131,6 +7181,9 @@
       <c r="G38" s="7" t="s">
         <v>908</v>
       </c>
+      <c r="H38" s="7" t="s">
+        <v>916</v>
+      </c>
       <c r="I38" s="22" t="s">
         <v>926</v>
       </c>
@@ -7141,12 +7194,12 @@
         <v>933</v>
       </c>
       <c r="L38" s="22" t="s">
-        <v>1016</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="30" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>1055</v>
+        <v>1093</v>
       </c>
       <c r="B39" s="21" t="s">
         <v>679</v>
@@ -7154,18 +7207,19 @@
       <c r="C39" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>947</v>
-      </c>
+      <c r="D39" s="7"/>
       <c r="E39" s="7" t="s">
-        <v>892</v>
+        <v>651</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>1056</v>
+        <v>903</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>908</v>
       </c>
+      <c r="H39" s="7" t="s">
+        <v>916</v>
+      </c>
       <c r="I39" s="22" t="s">
         <v>926</v>
       </c>
@@ -7176,31 +7230,32 @@
         <v>933</v>
       </c>
       <c r="L39" s="22" t="s">
-        <v>1015</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="30" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>1069</v>
+        <v>1094</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>947</v>
-      </c>
+      <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>857</v>
+        <v>892</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>1056</v>
+        <v>903</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>908</v>
       </c>
+      <c r="H40" s="7" t="s">
+        <v>916</v>
+      </c>
       <c r="I40" s="22" t="s">
         <v>926</v>
       </c>
@@ -7211,15 +7266,15 @@
         <v>933</v>
       </c>
       <c r="L40" s="22" t="s">
-        <v>1015</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>1061</v>
+        <v>1071</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>533</v>
@@ -7228,7 +7283,7 @@
         <v>947</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>651</v>
+        <v>892</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>903</v>
@@ -7246,12 +7301,12 @@
         <v>933</v>
       </c>
       <c r="L41" s="22" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>1065</v>
+        <v>1054</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>679</v>
@@ -7266,7 +7321,7 @@
         <v>892</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>908</v>
@@ -7281,12 +7336,12 @@
         <v>933</v>
       </c>
       <c r="L42" s="22" t="s">
-        <v>1059</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="30" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>1064</v>
+        <v>1068</v>
       </c>
       <c r="B43" s="21" t="s">
         <v>679</v>
@@ -7298,10 +7353,10 @@
         <v>947</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>892</v>
+        <v>857</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>908</v>
@@ -7316,7 +7371,7 @@
         <v>933</v>
       </c>
       <c r="L43" s="22" t="s">
-        <v>1063</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="30" customHeight="1">
@@ -7324,7 +7379,7 @@
         <v>1060</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>533</v>
@@ -7333,7 +7388,7 @@
         <v>947</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>892</v>
+        <v>651</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>903</v>
@@ -7351,15 +7406,15 @@
         <v>933</v>
       </c>
       <c r="L44" s="22" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="30" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>1032</v>
+        <v>1064</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>533</v>
@@ -7371,7 +7426,7 @@
         <v>892</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>903</v>
+        <v>1055</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>908</v>
@@ -7386,15 +7441,15 @@
         <v>933</v>
       </c>
       <c r="L45" s="22" t="s">
-        <v>1030</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="30" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>1041</v>
+        <v>1063</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>533</v>
@@ -7406,7 +7461,7 @@
         <v>892</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>903</v>
+        <v>1055</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>908</v>
@@ -7421,12 +7476,12 @@
         <v>933</v>
       </c>
       <c r="L46" s="22" t="s">
-        <v>1041</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="30" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>1042</v>
+        <v>1059</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>678</v>
@@ -7456,12 +7511,12 @@
         <v>933</v>
       </c>
       <c r="L47" s="22" t="s">
-        <v>1042</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="30" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>1046</v>
+        <v>1032</v>
       </c>
       <c r="B48" s="21" t="s">
         <v>678</v>
@@ -7473,7 +7528,7 @@
         <v>947</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>1085</v>
+        <v>892</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>903</v>
@@ -7491,31 +7546,32 @@
         <v>933</v>
       </c>
       <c r="L48" s="22" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="27">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="30" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>1051</v>
+        <v>1040</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>1</v>
+        <v>678</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>858</v>
-      </c>
+      <c r="D49" s="7"/>
       <c r="E49" s="7" t="s">
-        <v>1083</v>
+        <v>892</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>1051</v>
+        <v>903</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>908</v>
       </c>
+      <c r="H49" s="7" t="s">
+        <v>916</v>
+      </c>
       <c r="I49" s="22" t="s">
         <v>926</v>
       </c>
@@ -7523,12 +7579,15 @@
         <v>928</v>
       </c>
       <c r="K49" s="22" t="s">
-        <v>932</v>
+        <v>933</v>
+      </c>
+      <c r="L49" s="22" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="30" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>1068</v>
+        <v>1096</v>
       </c>
       <c r="B50" s="21" t="s">
         <v>678</v>
@@ -7536,9 +7595,7 @@
       <c r="C50" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>947</v>
-      </c>
+      <c r="D50" s="7"/>
       <c r="E50" s="7" t="s">
         <v>892</v>
       </c>
@@ -7548,6 +7605,9 @@
       <c r="G50" s="7" t="s">
         <v>908</v>
       </c>
+      <c r="H50" s="7" t="s">
+        <v>916</v>
+      </c>
       <c r="I50" s="22" t="s">
         <v>926</v>
       </c>
@@ -7558,22 +7618,24 @@
         <v>933</v>
       </c>
       <c r="L50" s="22" t="s">
-        <v>1067</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="30" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>1079</v>
+        <v>1041</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>645</v>
+        <v>678</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D51" s="7"/>
-      <c r="E51" s="5" t="s">
-        <v>993</v>
+      <c r="D51" s="7" t="s">
+        <v>947</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>892</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>903</v>
@@ -7581,9 +7643,6 @@
       <c r="G51" s="7" t="s">
         <v>908</v>
       </c>
-      <c r="H51" s="7" t="s">
-        <v>672</v>
-      </c>
       <c r="I51" s="22" t="s">
         <v>926</v>
       </c>
@@ -7593,28 +7652,32 @@
       <c r="K51" s="22" t="s">
         <v>933</v>
       </c>
+      <c r="L51" s="22" t="s">
+        <v>1041</v>
+      </c>
     </row>
     <row r="52" spans="1:13" ht="30" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>1081</v>
+        <v>1045</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>1</v>
+        <v>678</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D52" s="7"/>
+      <c r="D52" s="7" t="s">
+        <v>947</v>
+      </c>
       <c r="E52" s="7" t="s">
-        <v>949</v>
+        <v>1084</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>908</v>
       </c>
-      <c r="H52" s="7"/>
       <c r="I52" s="22" t="s">
         <v>926</v>
       </c>
@@ -7624,13 +7687,13 @@
       <c r="K52" s="22" t="s">
         <v>933</v>
       </c>
-      <c r="M52" s="22" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="30" customHeight="1">
+      <c r="L52" s="22" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="27">
       <c r="A53" s="4" t="s">
-        <v>1087</v>
+        <v>1050</v>
       </c>
       <c r="B53" s="21" t="s">
         <v>1</v>
@@ -7638,17 +7701,18 @@
       <c r="C53" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D53" s="7"/>
+      <c r="D53" s="7" t="s">
+        <v>858</v>
+      </c>
       <c r="E53" s="7" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>899</v>
+        <v>1050</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>908</v>
       </c>
-      <c r="H53" s="7"/>
       <c r="I53" s="22" t="s">
         <v>926</v>
       </c>
@@ -7656,33 +7720,31 @@
         <v>928</v>
       </c>
       <c r="K53" s="22" t="s">
-        <v>933</v>
-      </c>
-      <c r="M53" s="22" t="s">
-        <v>1080</v>
+        <v>932</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="30" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>1088</v>
+        <v>1067</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>1</v>
+        <v>678</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D54" s="7"/>
+      <c r="D54" s="7" t="s">
+        <v>947</v>
+      </c>
       <c r="E54" s="7" t="s">
-        <v>1086</v>
+        <v>892</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>908</v>
       </c>
-      <c r="H54" s="7"/>
       <c r="I54" s="22" t="s">
         <v>926</v>
       </c>
@@ -7692,8 +7754,143 @@
       <c r="K54" s="22" t="s">
         <v>933</v>
       </c>
-      <c r="M54" s="22" t="s">
+      <c r="L54" s="22" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="30" customHeight="1">
+      <c r="A55" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>645</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>903</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="I55" s="22" t="s">
+        <v>926</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="K55" s="22" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="30" customHeight="1">
+      <c r="A56" s="4" t="s">
         <v>1080</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="H56" s="7"/>
+      <c r="I56" s="22" t="s">
+        <v>926</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="K56" s="22" t="s">
+        <v>933</v>
+      </c>
+      <c r="M56" s="22" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="30" customHeight="1">
+      <c r="A57" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="H57" s="7"/>
+      <c r="I57" s="22" t="s">
+        <v>926</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="K57" s="22" t="s">
+        <v>933</v>
+      </c>
+      <c r="M57" s="22" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="30" customHeight="1">
+      <c r="A58" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="H58" s="7"/>
+      <c r="I58" s="22" t="s">
+        <v>926</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="K58" s="22" t="s">
+        <v>933</v>
+      </c>
+      <c r="M58" s="22" t="s">
+        <v>1079</v>
       </c>
     </row>
   </sheetData>
@@ -8996,8 +9193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="K60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P62" sqref="P62:P67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9242,7 +9439,7 @@
         <v>347</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>302</v>
@@ -9651,7 +9848,7 @@
       </c>
       <c r="B46" s="3"/>
       <c r="L46" s="16" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="M46" s="16"/>
     </row>
@@ -10174,8 +10371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H186"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="F129" sqref="F129:F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="1119">
   <si>
     <t>{"photoAuthStatus":"AS"}</t>
   </si>
@@ -2259,10 +2259,6 @@
   </si>
   <si>
     <t>与student不同专业</t>
-  </si>
-  <si>
-    <t>与student不同专业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{"allNum": "1","userinfo": [{"userinfoNo": "与student不同专业","inAddrListNum": "1"}]}</t>
@@ -4232,6 +4228,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>成功的牛小宝订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>成功的牛大款订单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4300,10 +4300,6 @@
   </si>
   <si>
     <t>非当天创建的待还订单（触宝）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非当天创建的待还订单（牛大咖）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4400,67 +4396,151 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>二线城市手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二线城市手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历白名单(手机号段一线城市)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历白名单(手机号段二线城市)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduate0-6一线城市本科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功的牛小宝订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "牛小宝", "loanTerm": "1", "loanSubSrc": "NXB", "time": "0", "repayStatus": "WAIT_REPAY" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天创建的待还订单（牛小宝）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天创建的待还订单（牛小宝）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛小宝订单mobileSign为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛小宝订单mobileSign相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛小宝订单mobileSign不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败的牛小宝订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "牛小宝", "loanTerm": "1", "loanSubSrc": "NXB", "time": "0", "repayStatus": "" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败的牛小宝订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败的牛小宝订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与student不同专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非当天创建的待还订单（牛大咖）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非当天创建的待还订单（牛小宝）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "牛小宝", "loanTerm": "1", "loanSubSrc": "NXB", "time": "1", "repayStatus": "WAIT_REPAY" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非当天创建的待还订单（牛小宝）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非当天创建的待还订单（牛小宝）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败的牛大款订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2014-09-01","province":"重庆市","city":"沙坪坝区","collegeName":"重庆大学","professionName":"","clogLevel":"本科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校在重庆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student本科学校在新疆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校在重庆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校在深圳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"schoolRollAuthStatus":"AS","entranceTime":"2014-09-01","province":"广东省","city":"深圳市","collegeName":"深圳大学","professionName":"","clogLevel":"本科"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校在深圳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student学校在重庆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student学校在深圳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student一线城市本科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student一线城市手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>一线城市手机号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二线城市手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二线城市手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学历白名单(手机号段一线城市)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学历白名单(手机号段二线城市)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>graduate0-6一线城市本科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功的牛小宝订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "projectName": "牛小宝", "loanTerm": "1", "loanSubSrc": "NXB", "time": "0", "repayStatus": "WAIT_REPAY" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当天创建的待还订单（牛小宝）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当天创建的待还订单（牛小宝）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛小宝订单mobileSign为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛小宝订单mobileSign相同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛小宝订单mobileSign不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失败的牛小宝订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "projectName": "牛小宝", "loanTerm": "1", "loanSubSrc": "NXB", "time": "0", "repayStatus": "" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失败的牛小宝订单</t>
+    <t>一线城市手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student二线城市手机号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4897,10 +4977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4911,162 +4991,162 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B1" t="s">
         <v>854</v>
-      </c>
-      <c r="B1" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B9" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B15" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5074,111 +5154,111 @@
         <v>442</v>
       </c>
       <c r="B21" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B22" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B23" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B24" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>993</v>
+      </c>
+      <c r="B25" t="s">
         <v>994</v>
-      </c>
-      <c r="B25" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>888</v>
+      </c>
+      <c r="B26" t="s">
         <v>889</v>
-      </c>
-      <c r="B26" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>1081</v>
+        <v>1116</v>
       </c>
       <c r="B27" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
+        <v>891</v>
+      </c>
+      <c r="B28" t="s">
         <v>892</v>
-      </c>
-      <c r="B28" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
+        <v>893</v>
+      </c>
+      <c r="B29" t="s">
         <v>894</v>
-      </c>
-      <c r="B29" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B30" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
+        <v>896</v>
+      </c>
+      <c r="B31" t="s">
         <v>897</v>
-      </c>
-      <c r="B31" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B32" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
+        <v>899</v>
+      </c>
+      <c r="B33" t="s">
         <v>900</v>
-      </c>
-      <c r="B33" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B34" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -5186,7 +5266,7 @@
         <v>1056</v>
       </c>
       <c r="B35" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -5199,7 +5279,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B37" t="s">
         <v>0</v>
@@ -5207,318 +5287,342 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
+        <v>908</v>
+      </c>
+      <c r="B38" t="s">
         <v>909</v>
-      </c>
-      <c r="B38" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B39" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
+        <v>910</v>
+      </c>
+      <c r="B40" t="s">
         <v>911</v>
-      </c>
-      <c r="B40" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="4" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="4" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B43" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B44" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="4" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="4" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="4" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B47" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="4" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B48" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="4" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B49" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="B50" t="s">
         <v>973</v>
-      </c>
-      <c r="B50" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>978</v>
+        <v>1106</v>
       </c>
       <c r="B51" t="s">
-        <v>976</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="4" t="s">
-        <v>977</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>917</v>
+        <v>1111</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
-        <v>918</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>919</v>
+        <v>977</v>
+      </c>
+      <c r="B53" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="4" t="s">
-        <v>920</v>
+        <v>976</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="4" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>337</v>
+        <v>918</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="4" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>161</v>
+        <v>920</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="4" t="s">
-        <v>979</v>
+        <v>925</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>152</v>
+        <v>337</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="4" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>315</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="4" t="s">
-        <v>932</v>
+        <v>978</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>931</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="4" t="s">
-        <v>933</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>930</v>
+        <v>928</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="4" t="s">
-        <v>935</v>
-      </c>
-      <c r="B61" t="s">
-        <v>936</v>
+        <v>931</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="4" t="s">
-        <v>980</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>937</v>
+        <v>932</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="4" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>1023</v>
+        <v>934</v>
+      </c>
+      <c r="B63" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="4" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>1090</v>
+        <v>979</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="4" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="4" t="s">
-        <v>1018</v>
+        <v>1089</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>1039</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="4" t="s">
-        <v>1053</v>
+        <v>1013</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="4" t="s">
-        <v>1057</v>
+        <v>1017</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>1074</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="4" t="s">
-        <v>1026</v>
+        <v>1053</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>1073</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="4" t="s">
-        <v>1031</v>
+        <v>1057</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>1046</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="4" t="s">
-        <v>1089</v>
+        <v>1025</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>1051</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="4" t="s">
-        <v>1096</v>
+        <v>1100</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>1097</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="4" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>1072</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="4" t="s">
-        <v>1044</v>
+        <v>1087</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>1043</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="4" t="s">
-        <v>1061</v>
+        <v>1094</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>1052</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="4" t="s">
-        <v>1066</v>
+        <v>1042</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="4" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="B77" s="4"/>
+      <c r="B79" s="4" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="B80" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5548,36 +5652,36 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1">
       <c r="A1" s="13" t="s">
+        <v>825</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>826</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>827</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>828</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>829</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>830</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>831</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6">
@@ -5586,13 +5690,13 @@
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6">
@@ -5601,13 +5705,13 @@
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6">
@@ -5616,13 +5720,13 @@
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E5" s="6">
         <v>900</v>
@@ -5630,7 +5734,7 @@
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
@@ -5644,13 +5748,13 @@
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B7" s="6">
         <v>0</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E7" s="6">
         <v>600</v>
@@ -5658,13 +5762,13 @@
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B8" s="6">
         <v>0</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E8" s="6">
         <v>1500</v>
@@ -5672,13 +5776,13 @@
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B9" s="6">
         <v>0</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E9" s="6">
         <v>1130</v>
@@ -5725,7 +5829,7 @@
         <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5745,7 +5849,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5756,7 +5860,7 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
@@ -5765,7 +5869,7 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5776,7 +5880,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
@@ -5785,7 +5889,7 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5799,13 +5903,13 @@
         <v>66</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E5" t="s">
         <v>65</v>
       </c>
       <c r="F5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5816,16 +5920,16 @@
         <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="E6" t="s">
         <v>758</v>
       </c>
-      <c r="E6" t="s">
-        <v>759</v>
-      </c>
       <c r="F6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5836,16 +5940,16 @@
         <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="E7" t="s">
         <v>758</v>
       </c>
-      <c r="E7" t="s">
-        <v>759</v>
-      </c>
       <c r="F7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5853,19 +5957,19 @@
         <v>0</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C8" t="s">
+        <v>759</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>1033</v>
       </c>
-      <c r="C8" t="s">
-        <v>760</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" t="s">
         <v>1034</v>
       </c>
-      <c r="E8" t="s">
-        <v>1035</v>
-      </c>
       <c r="F8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5873,19 +5977,19 @@
         <v>0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C9" t="s">
         <v>66</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E9" t="s">
         <v>1034</v>
       </c>
-      <c r="E9" t="s">
-        <v>1035</v>
-      </c>
       <c r="F9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -5896,10 +6000,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5924,45 +6028,45 @@
         <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C1" t="s">
         <v>532</v>
       </c>
       <c r="D1" t="s">
+        <v>980</v>
+      </c>
+      <c r="E1" t="s">
         <v>981</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>652</v>
+      </c>
+      <c r="G1" t="s">
+        <v>906</v>
+      </c>
+      <c r="H1" t="s">
         <v>982</v>
       </c>
-      <c r="F1" t="s">
-        <v>653</v>
-      </c>
-      <c r="G1" t="s">
-        <v>907</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>983</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>984</v>
       </c>
-      <c r="J1" t="s">
-        <v>985</v>
-      </c>
       <c r="K1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="L1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="M1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>1</v>
@@ -5972,25 +6076,25 @@
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="30" customHeight="1">
@@ -6004,22 +6108,22 @@
         <v>533</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -6036,30 +6140,30 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>840</v>
+        <v>1115</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>1</v>
@@ -6069,30 +6173,30 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>950</v>
+        <v>1117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>959</v>
+        <v>907</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>840</v>
+        <v>915</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>842</v>
+        <v>1118</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>1</v>
@@ -6102,30 +6206,30 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>950</v>
+        <v>891</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>959</v>
+        <v>907</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>842</v>
+        <v>915</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>841</v>
+        <v>1114</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>1</v>
@@ -6135,30 +6239,30 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>965</v>
+        <v>839</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="30" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>1</v>
@@ -6168,30 +6272,30 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="30" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>466</v>
+        <v>840</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>1</v>
@@ -6201,30 +6305,30 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>842</v>
+        <v>964</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="30" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>694</v>
+        <v>842</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>1</v>
@@ -6232,32 +6336,32 @@
       <c r="C10" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>858</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>959</v>
-      </c>
-      <c r="H10" s="7"/>
+        <v>958</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>842</v>
+      </c>
       <c r="I10" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="30" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>210</v>
+        <v>466</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>1</v>
@@ -6265,32 +6369,32 @@
       <c r="C11" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>941</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>959</v>
-      </c>
-      <c r="H11" s="7"/>
+        <v>958</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>841</v>
+      </c>
       <c r="I11" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="30" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>318</v>
+        <v>693</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>1</v>
@@ -6298,32 +6402,32 @@
       <c r="C12" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>857</v>
+      </c>
       <c r="E12" s="7" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>959</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>968</v>
-      </c>
+        <v>958</v>
+      </c>
+      <c r="H12" s="7"/>
       <c r="I12" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="30" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>987</v>
+        <v>210</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>1</v>
@@ -6331,32 +6435,32 @@
       <c r="C13" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>940</v>
+      </c>
       <c r="E13" s="7" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>959</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>968</v>
-      </c>
+        <v>958</v>
+      </c>
+      <c r="H13" s="7"/>
       <c r="I13" s="22" t="s">
-        <v>926</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>929</v>
+        <v>925</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>927</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="30" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>988</v>
+        <v>318</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>1</v>
@@ -6366,30 +6470,30 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>926</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>929</v>
+        <v>925</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>927</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="30" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>449</v>
+        <v>986</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>1</v>
@@ -6399,30 +6503,30 @@
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>449</v>
+        <v>967</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>926</v>
-      </c>
-      <c r="J15" s="7" t="s">
+        <v>925</v>
+      </c>
+      <c r="J15" s="22" t="s">
         <v>928</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="30" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>467</v>
+        <v>987</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>1</v>
@@ -6430,32 +6534,32 @@
       <c r="C16" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>442</v>
-      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>959</v>
-      </c>
-      <c r="H16" s="7"/>
+        <v>958</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>968</v>
+      </c>
       <c r="I16" s="22" t="s">
-        <v>926</v>
-      </c>
-      <c r="J16" s="7" t="s">
+        <v>925</v>
+      </c>
+      <c r="J16" s="22" t="s">
         <v>928</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="30" customHeight="1">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="30" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>457</v>
+        <v>1107</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>1</v>
@@ -6465,30 +6569,30 @@
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>959</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>973</v>
+        <v>958</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>449</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="30" customHeight="1">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="30" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>472</v>
+        <v>1112</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>1</v>
@@ -6496,164 +6600,164 @@
       <c r="C18" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>472</v>
-      </c>
+      <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>959</v>
-      </c>
-      <c r="H18" s="7"/>
+        <v>907</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>1108</v>
+      </c>
       <c r="I18" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="30" customHeight="1">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="30" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>998</v>
+        <v>1113</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>534</v>
+        <v>1</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>533</v>
       </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>957</v>
+      <c r="E19" s="7" t="s">
+        <v>948</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>898</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>959</v>
+        <v>907</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>916</v>
+        <v>1109</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="30" customHeight="1">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="30" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>564</v>
+        <v>467</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>563</v>
+        <v>1</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="5" t="s">
-        <v>994</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>905</v>
+      <c r="D20" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>898</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>959</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>916</v>
-      </c>
+        <v>958</v>
+      </c>
+      <c r="H20" s="7"/>
       <c r="I20" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="30" customHeight="1">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="30" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>544</v>
+        <v>457</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>534</v>
+        <v>1</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>533</v>
       </c>
       <c r="D21" s="7"/>
-      <c r="E21" s="5" t="s">
-        <v>993</v>
+      <c r="E21" s="7" t="s">
+        <v>949</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>959</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>975</v>
+        <v>958</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>972</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="30" customHeight="1">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="30" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>550</v>
+        <v>472</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>534</v>
+        <v>1</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="5" t="s">
-        <v>993</v>
+      <c r="D22" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>949</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>959</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>918</v>
-      </c>
+        <v>958</v>
+      </c>
+      <c r="H22" s="7"/>
       <c r="I22" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="30" customHeight="1">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="30" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>554</v>
+        <v>997</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>534</v>
@@ -6663,330 +6767,327 @@
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>903</v>
+        <v>992</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>956</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>959</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>920</v>
+        <v>958</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>915</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="30" customHeight="1">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="30" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>534</v>
+        <v>562</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>558</v>
+        <v>533</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="5" t="s">
         <v>993</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>903</v>
+      <c r="F24" s="6" t="s">
+        <v>904</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="30" customHeight="1">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="30" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>1038</v>
+        <v>544</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>644</v>
+        <v>534</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>938</v>
-      </c>
+      <c r="D25" s="7"/>
       <c r="E25" s="5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>959</v>
-      </c>
-      <c r="H25" s="7"/>
+        <v>958</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>974</v>
+      </c>
       <c r="I25" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="30" customHeight="1">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="30" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>978</v>
+        <v>550</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>645</v>
+        <v>534</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>533</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>959</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>672</v>
+        <v>958</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>917</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="30" customHeight="1">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="30" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>857</v>
+        <v>1098</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>678</v>
+        <v>534</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>533</v>
       </c>
       <c r="D27" s="7"/>
-      <c r="E27" s="7" t="s">
-        <v>952</v>
+      <c r="E27" s="5" t="s">
+        <v>992</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>959</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>916</v>
+        <v>958</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>919</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="30" customHeight="1">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="30" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>651</v>
+        <v>558</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>679</v>
+        <v>534</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>533</v>
+        <v>557</v>
       </c>
       <c r="D28" s="7"/>
-      <c r="E28" s="7" t="s">
-        <v>953</v>
+      <c r="E28" s="5" t="s">
+        <v>992</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="30" customHeight="1">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="30" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>1088</v>
+        <v>1037</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>1</v>
+        <v>643</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>533</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>938</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>954</v>
+        <v>937</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>992</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K29" s="22" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="30" customHeight="1">
+    <row r="30" spans="1:11" ht="30" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>849</v>
+        <v>977</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>1</v>
+        <v>644</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>954</v>
+      <c r="D30" s="7"/>
+      <c r="E30" s="5" t="s">
+        <v>992</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>959</v>
-      </c>
-      <c r="H30" s="7"/>
+        <v>958</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>671</v>
+      </c>
       <c r="I30" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K30" s="22" t="s">
         <v>932</v>
       </c>
-      <c r="L30" s="10"/>
-    </row>
-    <row r="31" spans="1:12" ht="30" customHeight="1">
+    </row>
+    <row r="31" spans="1:11" ht="30" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>1</v>
+        <v>677</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>946</v>
-      </c>
+      <c r="D31" s="7"/>
       <c r="E31" s="7" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>959</v>
-      </c>
-      <c r="H31" s="7"/>
+        <v>958</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>915</v>
+      </c>
       <c r="I31" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K31" s="22" t="s">
         <v>932</v>
       </c>
-      <c r="L31" s="10"/>
-    </row>
-    <row r="32" spans="1:12" ht="30" customHeight="1">
+    </row>
+    <row r="32" spans="1:11" ht="30" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>1028</v>
+        <v>650</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>1</v>
+        <v>678</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>948</v>
-      </c>
+      <c r="D32" s="7"/>
       <c r="E32" s="7" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>959</v>
-      </c>
-      <c r="H32" s="7"/>
+        <v>958</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>915</v>
+      </c>
       <c r="I32" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K32" s="22" t="s">
         <v>932</v>
       </c>
-      <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:12" ht="30" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>1004</v>
+        <v>1086</v>
       </c>
       <c r="B33" s="21" t="s">
         <v>1</v>
@@ -6995,34 +7096,31 @@
         <v>533</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>948</v>
+        <v>937</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>932</v>
-      </c>
-      <c r="L33" s="22" t="s">
-        <v>1017</v>
+        <v>931</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>1010</v>
+        <v>848</v>
       </c>
       <c r="B34" s="21" t="s">
         <v>1</v>
@@ -7031,72 +7129,69 @@
         <v>533</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>932</v>
-      </c>
-      <c r="L34" s="22" t="s">
-        <v>1019</v>
-      </c>
+        <v>931</v>
+      </c>
+      <c r="L34" s="10"/>
     </row>
     <row r="35" spans="1:12" ht="30" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>1020</v>
+        <v>852</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>678</v>
+        <v>1</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>533</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>857</v>
+        <v>954</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>908</v>
-      </c>
+        <v>958</v>
+      </c>
+      <c r="H35" s="7"/>
       <c r="I35" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K35" s="22" t="s">
-        <v>933</v>
-      </c>
-      <c r="L35" s="22" t="s">
-        <v>1013</v>
-      </c>
+        <v>931</v>
+      </c>
+      <c r="L35" s="10"/>
     </row>
     <row r="36" spans="1:12" ht="30" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>679</v>
+        <v>1</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>533</v>
@@ -7105,33 +7200,32 @@
         <v>947</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>651</v>
+        <v>954</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>908</v>
-      </c>
+        <v>958</v>
+      </c>
+      <c r="H36" s="7"/>
       <c r="I36" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>933</v>
-      </c>
-      <c r="L36" s="22" t="s">
-        <v>1013</v>
-      </c>
+        <v>931</v>
+      </c>
+      <c r="L36" s="10"/>
     </row>
     <row r="37" spans="1:12" ht="30" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>1022</v>
+        <v>1003</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>678</v>
+        <v>1</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>533</v>
@@ -7140,102 +7234,102 @@
         <v>947</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>892</v>
+        <v>954</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>908</v>
-      </c>
+        <v>958</v>
+      </c>
+      <c r="H37" s="7"/>
       <c r="I37" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K37" s="22" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="L37" s="22" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="30" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>1095</v>
+        <v>1009</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>678</v>
+        <v>1</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D38" s="7"/>
+      <c r="D38" s="7" t="s">
+        <v>947</v>
+      </c>
       <c r="E38" s="7" t="s">
-        <v>857</v>
+        <v>954</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>908</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>916</v>
-      </c>
+        <v>958</v>
+      </c>
+      <c r="H38" s="7"/>
       <c r="I38" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K38" s="22" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="L38" s="22" t="s">
-        <v>1092</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="30" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>1093</v>
+        <v>1019</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D39" s="7"/>
+      <c r="D39" s="7" t="s">
+        <v>946</v>
+      </c>
       <c r="E39" s="7" t="s">
-        <v>651</v>
+        <v>856</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>908</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K39" s="22" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="L39" s="22" t="s">
-        <v>1092</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="30" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>1094</v>
+        <v>1020</v>
       </c>
       <c r="B40" s="21" t="s">
         <v>678</v>
@@ -7243,245 +7337,247 @@
       <c r="C40" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D40" s="7"/>
+      <c r="D40" s="7" t="s">
+        <v>946</v>
+      </c>
       <c r="E40" s="7" t="s">
-        <v>892</v>
+        <v>650</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>908</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="I40" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K40" s="22" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="L40" s="22" t="s">
-        <v>1092</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>1071</v>
+        <v>1021</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>533</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K41" s="22" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="L41" s="22" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>1054</v>
+        <v>1093</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>947</v>
-      </c>
+      <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>892</v>
+        <v>856</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>1055</v>
+        <v>902</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>908</v>
+        <v>907</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>915</v>
       </c>
       <c r="I42" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K42" s="22" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="L42" s="22" t="s">
-        <v>1015</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="30" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>1068</v>
+        <v>1091</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>947</v>
-      </c>
+      <c r="D43" s="7"/>
       <c r="E43" s="7" t="s">
-        <v>857</v>
+        <v>650</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>1055</v>
+        <v>902</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>908</v>
+        <v>907</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>915</v>
       </c>
       <c r="I43" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K43" s="22" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="L43" s="22" t="s">
-        <v>1015</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="30" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>1060</v>
+        <v>1092</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>947</v>
-      </c>
+      <c r="D44" s="7"/>
       <c r="E44" s="7" t="s">
-        <v>651</v>
+        <v>891</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>908</v>
+        <v>907</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>915</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K44" s="22" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="L44" s="22" t="s">
-        <v>1015</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="30" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>1064</v>
+        <v>1070</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>533</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>1055</v>
+        <v>902</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K45" s="22" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="L45" s="22" t="s">
-        <v>1058</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="30" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>1063</v>
+        <v>1054</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>533</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>1055</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I46" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K46" s="22" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="L46" s="22" t="s">
-        <v>1062</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="30" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>1059</v>
+        <v>1067</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>678</v>
@@ -7490,33 +7586,33 @@
         <v>533</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>892</v>
+        <v>856</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>903</v>
+        <v>1055</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I47" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K47" s="22" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="L47" s="22" t="s">
-        <v>1027</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="30" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>1032</v>
+        <v>1059</v>
       </c>
       <c r="B48" s="21" t="s">
         <v>678</v>
@@ -7525,33 +7621,33 @@
         <v>533</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>892</v>
+        <v>650</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I48" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K48" s="22" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="L48" s="22" t="s">
-        <v>1030</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="30" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>1040</v>
+        <v>1063</v>
       </c>
       <c r="B49" s="21" t="s">
         <v>678</v>
@@ -7559,35 +7655,34 @@
       <c r="C49" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D49" s="7"/>
+      <c r="D49" s="7" t="s">
+        <v>946</v>
+      </c>
       <c r="E49" s="7" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>903</v>
+        <v>1055</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>908</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="I49" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K49" s="22" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="L49" s="22" t="s">
-        <v>1040</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="30" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>1096</v>
+        <v>1062</v>
       </c>
       <c r="B50" s="21" t="s">
         <v>678</v>
@@ -7595,273 +7690,282 @@
       <c r="C50" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D50" s="7"/>
+      <c r="D50" s="7" t="s">
+        <v>946</v>
+      </c>
       <c r="E50" s="7" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>903</v>
+        <v>1055</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>908</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="I50" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K50" s="22" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="L50" s="22" t="s">
-        <v>1098</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="30" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>1041</v>
+        <v>1099</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>533</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I51" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K51" s="22" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="L51" s="22" t="s">
-        <v>1041</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="30" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>1045</v>
+        <v>1102</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>947</v>
-      </c>
+      <c r="D52" s="7"/>
       <c r="E52" s="7" t="s">
-        <v>1084</v>
+        <v>891</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>908</v>
+        <v>907</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>915</v>
       </c>
       <c r="I52" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K52" s="22" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="L52" s="22" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="27">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="30" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>1050</v>
+        <v>1031</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>1</v>
+        <v>677</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>533</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>858</v>
+        <v>946</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>1082</v>
+        <v>891</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>1050</v>
+        <v>902</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I53" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K53" s="22" t="s">
         <v>932</v>
       </c>
+      <c r="L53" s="22" t="s">
+        <v>1029</v>
+      </c>
     </row>
     <row r="54" spans="1:13" ht="30" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>1067</v>
+        <v>1039</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>947</v>
-      </c>
+      <c r="D54" s="7"/>
       <c r="E54" s="7" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>908</v>
+        <v>907</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>915</v>
       </c>
       <c r="I54" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K54" s="22" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="L54" s="22" t="s">
-        <v>1066</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="30" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>1078</v>
+        <v>1097</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>645</v>
+        <v>677</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>533</v>
       </c>
       <c r="D55" s="7"/>
-      <c r="E55" s="5" t="s">
-        <v>993</v>
+      <c r="E55" s="7" t="s">
+        <v>891</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>672</v>
+        <v>915</v>
       </c>
       <c r="I55" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K55" s="22" t="s">
-        <v>933</v>
+        <v>932</v>
+      </c>
+      <c r="L55" s="22" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="30" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>1080</v>
+        <v>1041</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>1</v>
+        <v>677</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D56" s="7"/>
+      <c r="D56" s="7" t="s">
+        <v>946</v>
+      </c>
       <c r="E56" s="7" t="s">
-        <v>949</v>
+        <v>891</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>908</v>
-      </c>
-      <c r="H56" s="7"/>
+        <v>907</v>
+      </c>
       <c r="I56" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K56" s="22" t="s">
-        <v>933</v>
-      </c>
-      <c r="M56" s="22" t="s">
-        <v>1079</v>
+        <v>932</v>
+      </c>
+      <c r="L56" s="22" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="30" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>1086</v>
+        <v>1104</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>1</v>
+        <v>677</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D57" s="7"/>
+      <c r="D57" s="7" t="s">
+        <v>946</v>
+      </c>
       <c r="E57" s="7" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>908</v>
-      </c>
-      <c r="H57" s="7"/>
+        <v>907</v>
+      </c>
       <c r="I57" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K57" s="22" t="s">
-        <v>933</v>
-      </c>
-      <c r="M57" s="22" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="30" customHeight="1">
+        <v>932</v>
+      </c>
+      <c r="L57" s="22" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="27">
       <c r="A58" s="4" t="s">
-        <v>1087</v>
+        <v>1050</v>
       </c>
       <c r="B58" s="21" t="s">
         <v>1</v>
@@ -7869,28 +7973,196 @@
       <c r="C58" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D58" s="7"/>
+      <c r="D58" s="7" t="s">
+        <v>857</v>
+      </c>
       <c r="E58" s="7" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>907</v>
+      </c>
+      <c r="I58" s="22" t="s">
+        <v>925</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="K58" s="22" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="30" customHeight="1">
+      <c r="A59" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>677</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>946</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>902</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>907</v>
+      </c>
+      <c r="I59" s="22" t="s">
+        <v>925</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="K59" s="22" t="s">
+        <v>932</v>
+      </c>
+      <c r="L59" s="22" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="30" customHeight="1">
+      <c r="A60" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>644</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D60" s="7"/>
+      <c r="E60" s="5" t="s">
+        <v>992</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>902</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>907</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="I60" s="22" t="s">
+        <v>925</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="K60" s="22" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="30" customHeight="1">
+      <c r="A61" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7" t="s">
+        <v>948</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>907</v>
+      </c>
+      <c r="H61" s="7"/>
+      <c r="I61" s="22" t="s">
+        <v>925</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="K61" s="22" t="s">
+        <v>932</v>
+      </c>
+      <c r="M61" s="22" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="30" customHeight="1">
+      <c r="A62" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>907</v>
+      </c>
+      <c r="H62" s="7"/>
+      <c r="I62" s="22" t="s">
+        <v>925</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="K62" s="22" t="s">
+        <v>932</v>
+      </c>
+      <c r="M62" s="22" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="30" customHeight="1">
+      <c r="A63" s="4" t="s">
         <v>1085</v>
       </c>
-      <c r="F58" s="7" t="s">
-        <v>899</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>908</v>
-      </c>
-      <c r="H58" s="7"/>
-      <c r="I58" s="22" t="s">
-        <v>926</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>928</v>
-      </c>
-      <c r="K58" s="22" t="s">
-        <v>933</v>
-      </c>
-      <c r="M58" s="22" t="s">
-        <v>1079</v>
+      <c r="B63" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>907</v>
+      </c>
+      <c r="H63" s="7"/>
+      <c r="I63" s="22" t="s">
+        <v>925</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="K63" s="22" t="s">
+        <v>932</v>
+      </c>
+      <c r="M63" s="22" t="s">
+        <v>1078</v>
       </c>
     </row>
   </sheetData>
@@ -7968,7 +8240,7 @@
         <v>94</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>2</v>
@@ -8076,7 +8348,7 @@
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
       <c r="A9" s="13" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B9" s="6"/>
       <c r="D9" s="7" t="s">
@@ -8088,7 +8360,7 @@
     </row>
     <row r="10" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
       <c r="A10" s="13" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B10" s="6"/>
       <c r="D10" s="7" t="s">
@@ -8100,7 +8372,7 @@
     </row>
     <row r="11" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
       <c r="A11" s="13" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B11" s="6"/>
       <c r="D11" s="7" t="s">
@@ -8111,7 +8383,7 @@
     </row>
     <row r="12" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
       <c r="A12" s="13" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B12" s="6"/>
       <c r="D12" s="7" t="s">
@@ -8122,7 +8394,7 @@
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
       <c r="A13" s="13" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B13" s="6"/>
       <c r="E13" s="6"/>
@@ -8332,7 +8604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -8574,7 +8846,7 @@
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1">
       <c r="A9" s="13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>92</v>
@@ -8586,7 +8858,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
@@ -8600,7 +8872,7 @@
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1">
       <c r="A10" s="13" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>92</v>
@@ -8612,7 +8884,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
@@ -8626,7 +8898,7 @@
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1">
       <c r="A11" s="13" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>92</v>
@@ -8638,7 +8910,7 @@
         <v>21</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
@@ -8652,7 +8924,7 @@
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1">
       <c r="A12" s="13" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>92</v>
@@ -8664,7 +8936,7 @@
         <v>21</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
@@ -8678,7 +8950,7 @@
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1">
       <c r="A13" s="13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>92</v>
@@ -8690,7 +8962,7 @@
         <v>21</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
@@ -9193,8 +9465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView topLeftCell="K60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P62" sqref="P62:P67"/>
+    <sheetView topLeftCell="H37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9224,7 +9496,7 @@
         <v>196</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>197</v>
@@ -9254,10 +9526,10 @@
         <v>331</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="N1" s="13" t="s">
         <v>443</v>
@@ -9272,7 +9544,7 @@
         <v>537</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="S1" s="13" t="s">
         <v>2</v>
@@ -9439,7 +9711,7 @@
         <v>347</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>302</v>
@@ -9450,7 +9722,7 @@
         <v>356</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>302</v>
@@ -9479,7 +9751,7 @@
         <v>346</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>302</v>
@@ -9490,7 +9762,7 @@
         <v>356</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>302</v>
@@ -9760,7 +10032,7 @@
         <v>380</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>359</v>
@@ -9779,7 +10051,7 @@
         <v>383</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>359</v>
@@ -9831,7 +10103,7 @@
         <v>344</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="27">
@@ -9839,12 +10111,12 @@
         <v>351</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="27">
       <c r="A46" s="5" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B46" s="3"/>
       <c r="L46" s="16" t="s">
@@ -9854,66 +10126,66 @@
     </row>
     <row r="47" spans="1:13" ht="27">
       <c r="A47" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B47" s="3"/>
       <c r="L47" s="16" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M47" s="16"/>
     </row>
     <row r="48" spans="1:13" ht="27">
       <c r="A48" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B48" s="3"/>
       <c r="L48" s="16" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="M48" s="16"/>
     </row>
     <row r="49" spans="1:16" ht="40.5">
       <c r="A49" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B49" s="3"/>
       <c r="L49" s="16" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="M49" s="16"/>
     </row>
     <row r="50" spans="1:16" ht="27">
       <c r="A50" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B50" s="3"/>
       <c r="L50" s="16" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M50" s="16"/>
     </row>
     <row r="51" spans="1:16" ht="27">
       <c r="A51" s="13" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>1036</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>1037</v>
       </c>
       <c r="L51" s="16"/>
       <c r="M51" s="16" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="27">
       <c r="A52" s="13" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L52" s="16"/>
       <c r="M52" s="16" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="30" customHeight="1">
@@ -9945,7 +10217,7 @@
         <v>431</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="N56" s="17" t="s">
         <v>421</v>
@@ -9956,7 +10228,7 @@
         <v>433</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="N57" s="17" t="s">
         <v>421</v>
@@ -9983,7 +10255,7 @@
         <v>499</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="O60" t="s">
         <v>444</v>
@@ -9994,7 +10266,7 @@
         <v>501</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="O61" t="s">
         <v>444</v>
@@ -10053,7 +10325,7 @@
         <v>497</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="P68" s="3" t="s">
         <v>481</v>
@@ -10064,7 +10336,7 @@
         <v>503</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="P69" s="3" t="s">
         <v>481</v>
@@ -10115,7 +10387,7 @@
         <v>519</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="P75" s="3" t="s">
         <v>481</v>
@@ -10126,7 +10398,7 @@
         <v>520</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>481</v>
@@ -10134,7 +10406,7 @@
     </row>
     <row r="77" spans="1:17" ht="57" customHeight="1">
       <c r="A77" s="13" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="Q77" s="2" t="s">
         <v>538</v>
@@ -10174,34 +10446,34 @@
     </row>
     <row r="82" spans="1:21" ht="40.5">
       <c r="A82" s="13" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="Q82" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="83" spans="1:21" ht="54">
       <c r="A83" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q83" s="2" t="s">
         <v>560</v>
-      </c>
-      <c r="Q83" s="2" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="84" spans="1:21" ht="67.5">
       <c r="A84" s="13" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="Q84" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="85" spans="1:21" ht="40.5">
       <c r="A85" s="13" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="Q85" s="2" t="s">
         <v>539</v>
@@ -10209,10 +10481,10 @@
     </row>
     <row r="86" spans="1:21" ht="40.5">
       <c r="A86" s="13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="Q86" s="2" t="s">
         <v>539</v>
@@ -10220,7 +10492,7 @@
     </row>
     <row r="87" spans="1:21">
       <c r="A87" s="13" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="R87" s="10">
         <v>17</v>
@@ -10228,7 +10500,7 @@
     </row>
     <row r="88" spans="1:21">
       <c r="A88" s="13" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="R88" s="10">
         <v>18</v>
@@ -10236,7 +10508,7 @@
     </row>
     <row r="89" spans="1:21">
       <c r="A89" s="13" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="R89" s="10">
         <v>30</v>
@@ -10244,7 +10516,7 @@
     </row>
     <row r="90" spans="1:21">
       <c r="A90" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="R90" s="10">
         <v>29</v>
@@ -10252,7 +10524,7 @@
     </row>
     <row r="91" spans="1:21">
       <c r="A91" s="13" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="R91" s="10">
         <v>50</v>
@@ -10260,7 +10532,7 @@
     </row>
     <row r="92" spans="1:21">
       <c r="A92" s="13" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="R92" s="10">
         <v>49</v>
@@ -10288,7 +10560,7 @@
     </row>
     <row r="95" spans="1:21" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="A95" s="13" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="S95" s="6"/>
       <c r="T95" s="7" t="s">
@@ -10298,7 +10570,7 @@
     </row>
     <row r="96" spans="1:21" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="A96" s="13" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="S96" s="6"/>
       <c r="T96" s="7" t="s">
@@ -10308,7 +10580,7 @@
     </row>
     <row r="97" spans="1:21" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="A97" s="13" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="S97" s="6"/>
       <c r="T97" s="7" t="s">
@@ -10318,7 +10590,7 @@
     </row>
     <row r="98" spans="1:21" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="A98" s="13" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="S98" s="6"/>
       <c r="T98" s="7" t="s">
@@ -10328,7 +10600,7 @@
     </row>
     <row r="99" spans="1:21" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="A99" s="13" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="S99" s="6"/>
       <c r="T99" s="6"/>
@@ -10339,7 +10611,7 @@
         <v>48</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="S100" s="6"/>
       <c r="T100" s="6"/>
@@ -10352,7 +10624,7 @@
         <v>49</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="S101" s="6"/>
       <c r="T101" s="6"/>
@@ -10371,8 +10643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H186"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="F129" sqref="F129:F134"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90:A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10785,7 +11057,7 @@
         <v>172</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1">
@@ -10880,7 +11152,7 @@
         <v>199</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>162</v>
@@ -11048,7 +11320,7 @@
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B36" s="6">
         <v>0</v>
@@ -11662,7 +11934,7 @@
         <v>0</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>306</v>
@@ -12196,19 +12468,19 @@
     </row>
     <row r="94" spans="1:8" ht="30" customHeight="1">
       <c r="A94" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B94" s="6">
         <v>0</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>162</v>
@@ -12217,24 +12489,24 @@
         <v>162</v>
       </c>
       <c r="H94" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="30" customHeight="1">
       <c r="A95" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B95" s="6">
         <v>0</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>151</v>
@@ -12242,19 +12514,19 @@
     </row>
     <row r="96" spans="1:8" s="20" customFormat="1" ht="30" customHeight="1">
       <c r="A96" s="18" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B96" s="6">
         <v>0</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F96" s="19" t="s">
         <v>151</v>
@@ -12264,7 +12536,7 @@
     </row>
     <row r="97" spans="1:6" ht="30" customHeight="1">
       <c r="A97" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B97" s="6">
         <v>0</v>
@@ -12273,10 +12545,10 @@
         <v>218</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>162</v>
@@ -12284,7 +12556,7 @@
     </row>
     <row r="98" spans="1:6" ht="30" customHeight="1">
       <c r="A98" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B98" s="6">
         <v>0</v>
@@ -12293,10 +12565,10 @@
         <v>210</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>162</v>
@@ -12304,19 +12576,19 @@
     </row>
     <row r="99" spans="1:6" ht="30" customHeight="1">
       <c r="A99" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B99" s="6">
         <v>0</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>151</v>
@@ -12324,19 +12596,19 @@
     </row>
     <row r="100" spans="1:6" ht="30" customHeight="1">
       <c r="A100" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B100" s="6">
         <v>0</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>162</v>
@@ -12344,19 +12616,19 @@
     </row>
     <row r="101" spans="1:6" ht="30" customHeight="1">
       <c r="A101" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B101" s="6">
         <v>0</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F101" s="6" t="s">
         <v>151</v>
@@ -12364,19 +12636,19 @@
     </row>
     <row r="102" spans="1:6" ht="30" customHeight="1">
       <c r="A102" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B102" s="6">
         <v>0</v>
       </c>
       <c r="C102" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="E102" s="6" t="s">
         <v>651</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>652</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>151</v>
@@ -12384,19 +12656,19 @@
     </row>
     <row r="103" spans="1:6" ht="30" customHeight="1">
       <c r="A103" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B103" s="6">
         <v>0</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>162</v>
@@ -12404,19 +12676,19 @@
     </row>
     <row r="104" spans="1:6" ht="30" customHeight="1">
       <c r="A104" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B104" s="6">
         <v>0</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>151</v>
@@ -12484,7 +12756,7 @@
     </row>
     <row r="108" spans="1:6" ht="30" customHeight="1">
       <c r="A108" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B108" s="6">
         <v>0</v>
@@ -12524,7 +12796,7 @@
     </row>
     <row r="110" spans="1:6" ht="30" customHeight="1">
       <c r="A110" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B110" s="6">
         <v>0</v>
@@ -13164,7 +13436,7 @@
     </row>
     <row r="142" spans="1:6" ht="30" customHeight="1">
       <c r="A142" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B142" s="6">
         <v>0</v>
@@ -13364,7 +13636,7 @@
     </row>
     <row r="152" spans="1:6" ht="30" customHeight="1">
       <c r="A152" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B152" s="6">
         <v>0</v>
@@ -13373,7 +13645,7 @@
         <v>208</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E152" s="6" t="s">
         <v>536</v>
@@ -13384,7 +13656,7 @@
     </row>
     <row r="153" spans="1:6" ht="30" customHeight="1">
       <c r="A153" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B153" s="6">
         <v>0</v>
@@ -13404,7 +13676,7 @@
     </row>
     <row r="154" spans="1:6" ht="30" customHeight="1">
       <c r="A154" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B154" s="6">
         <v>0</v>
@@ -13424,7 +13696,7 @@
     </row>
     <row r="155" spans="1:6" ht="30" customHeight="1">
       <c r="A155" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B155" s="6">
         <v>0</v>
@@ -13444,7 +13716,7 @@
     </row>
     <row r="156" spans="1:6" ht="30" customHeight="1">
       <c r="A156" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B156" s="6">
         <v>0</v>
@@ -13456,7 +13728,7 @@
         <v>553</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F156" s="6" t="s">
         <v>151</v>
@@ -13464,7 +13736,7 @@
     </row>
     <row r="157" spans="1:6" ht="30" customHeight="1">
       <c r="A157" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B157" s="6">
         <v>0</v>
@@ -13473,10 +13745,10 @@
         <v>208</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F157" s="6" t="s">
         <v>151</v>
@@ -13484,7 +13756,7 @@
     </row>
     <row r="158" spans="1:6" ht="30" customHeight="1">
       <c r="A158" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B158" s="6">
         <v>0</v>
@@ -13493,10 +13765,10 @@
         <v>208</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F158" s="6" t="s">
         <v>162</v>
@@ -13504,7 +13776,7 @@
     </row>
     <row r="159" spans="1:6" ht="30" customHeight="1">
       <c r="A159" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B159" s="6">
         <v>0</v>
@@ -13513,10 +13785,10 @@
         <v>208</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F159" s="6" t="s">
         <v>151</v>
@@ -13524,7 +13796,7 @@
     </row>
     <row r="160" spans="1:6" ht="30" customHeight="1">
       <c r="A160" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B160" s="6">
         <v>0</v>
@@ -13533,10 +13805,10 @@
         <v>208</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F160" s="6" t="s">
         <v>162</v>
@@ -13544,7 +13816,7 @@
     </row>
     <row r="161" spans="1:6" ht="30" customHeight="1">
       <c r="A161" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B161" s="6">
         <v>0</v>
@@ -13553,7 +13825,7 @@
         <v>323</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E161" s="6" t="s">
         <v>536</v>
@@ -13564,7 +13836,7 @@
     </row>
     <row r="162" spans="1:6" ht="30" customHeight="1">
       <c r="A162" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B162" s="6">
         <v>0</v>
@@ -13573,10 +13845,10 @@
         <v>208</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F162" s="6" t="s">
         <v>162</v>
@@ -13584,7 +13856,7 @@
     </row>
     <row r="163" spans="1:6" ht="30" customHeight="1">
       <c r="A163" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B163" s="6">
         <v>0</v>
@@ -13593,10 +13865,10 @@
         <v>208</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F163" s="6" t="s">
         <v>151</v>
@@ -13604,7 +13876,7 @@
     </row>
     <row r="164" spans="1:6" ht="30" customHeight="1">
       <c r="A164" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B164" s="6">
         <v>0</v>
@@ -13613,10 +13885,10 @@
         <v>208</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F164" s="6" t="s">
         <v>162</v>
@@ -13624,7 +13896,7 @@
     </row>
     <row r="165" spans="1:6" ht="29.25" customHeight="1">
       <c r="A165" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B165" s="6">
         <v>0</v>
@@ -13633,10 +13905,10 @@
         <v>208</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F165" s="6" t="s">
         <v>151</v>
@@ -13644,7 +13916,7 @@
     </row>
     <row r="166" spans="1:6" ht="30" customHeight="1">
       <c r="A166" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B166" s="6">
         <v>0</v>
@@ -13653,10 +13925,10 @@
         <v>323</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F166" s="6" t="s">
         <v>162</v>
@@ -13664,7 +13936,7 @@
     </row>
     <row r="167" spans="1:6" ht="30" customHeight="1">
       <c r="A167" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B167" s="6">
         <v>0</v>
@@ -13673,10 +13945,10 @@
         <v>323</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F167" s="6" t="s">
         <v>151</v>
@@ -13684,7 +13956,7 @@
     </row>
     <row r="168" spans="1:6" ht="30" customHeight="1">
       <c r="A168" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B168" s="6">
         <v>0</v>
@@ -13693,10 +13965,10 @@
         <v>323</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F168" s="6" t="s">
         <v>162</v>
@@ -13704,7 +13976,7 @@
     </row>
     <row r="169" spans="1:6" ht="30" customHeight="1">
       <c r="A169" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B169" s="6">
         <v>0</v>
@@ -13713,10 +13985,10 @@
         <v>323</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F169" s="6" t="s">
         <v>151</v>
@@ -13724,19 +13996,19 @@
     </row>
     <row r="170" spans="1:6" ht="30" customHeight="1">
       <c r="A170" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B170" s="6">
         <v>0</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F170" s="6" t="s">
         <v>162</v>
@@ -13744,7 +14016,7 @@
     </row>
     <row r="171" spans="1:6" ht="30" customHeight="1">
       <c r="A171" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B171" s="6">
         <v>0</v>
@@ -13753,10 +14025,10 @@
         <v>430</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F171" s="6" t="s">
         <v>151</v>
@@ -13764,7 +14036,7 @@
     </row>
     <row r="172" spans="1:6" ht="30" customHeight="1">
       <c r="A172" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B172" s="6">
         <v>0</v>
@@ -13773,10 +14045,10 @@
         <v>430</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F172" s="6" t="s">
         <v>162</v>
@@ -13784,7 +14056,7 @@
     </row>
     <row r="173" spans="1:6" ht="30" customHeight="1">
       <c r="A173" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B173" s="6">
         <v>0</v>
@@ -13793,10 +14065,10 @@
         <v>430</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F173" s="6" t="s">
         <v>151</v>
@@ -13804,7 +14076,7 @@
     </row>
     <row r="174" spans="1:6" ht="30" customHeight="1">
       <c r="A174" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B174" s="6">
         <v>0</v>
@@ -13814,7 +14086,7 @@
       </c>
       <c r="D174" s="6"/>
       <c r="E174" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F174" s="6" t="s">
         <v>151</v>
@@ -13822,17 +14094,17 @@
     </row>
     <row r="175" spans="1:6" ht="30" customHeight="1">
       <c r="A175" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B175" s="6">
         <v>0</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D175" s="6"/>
       <c r="E175" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F175" s="6" t="s">
         <v>162</v>
@@ -13840,7 +14112,7 @@
     </row>
     <row r="176" spans="1:6" ht="30" customHeight="1">
       <c r="A176" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B176" s="6">
         <v>0</v>
@@ -13849,7 +14121,7 @@
         <v>323</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F176" s="6" t="s">
         <v>151</v>
@@ -13857,7 +14129,7 @@
     </row>
     <row r="177" spans="1:6" ht="30" customHeight="1">
       <c r="A177" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B177" s="6">
         <v>0</v>
@@ -13866,7 +14138,7 @@
         <v>430</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F177" s="6" t="s">
         <v>151</v>
@@ -13874,7 +14146,7 @@
     </row>
     <row r="178" spans="1:6" ht="30" customHeight="1">
       <c r="A178" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B178" s="6">
         <v>0</v>
@@ -13883,10 +14155,10 @@
         <v>208</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F178" s="6" t="s">
         <v>38</v>
@@ -13894,7 +14166,7 @@
     </row>
     <row r="179" spans="1:6" ht="30" customHeight="1">
       <c r="A179" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B179" s="6">
         <v>0</v>
@@ -13903,10 +14175,10 @@
         <v>208</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F179" s="6" t="s">
         <v>18</v>
@@ -13914,7 +14186,7 @@
     </row>
     <row r="180" spans="1:6" ht="30" customHeight="1">
       <c r="A180" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B180" s="6">
         <v>0</v>
@@ -13923,10 +14195,10 @@
         <v>208</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F180" s="6" t="s">
         <v>38</v>
@@ -13934,7 +14206,7 @@
     </row>
     <row r="181" spans="1:6" ht="30" customHeight="1">
       <c r="A181" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B181" s="6">
         <v>0</v>
@@ -13943,10 +14215,10 @@
         <v>208</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F181" s="6" t="s">
         <v>38</v>
@@ -13954,7 +14226,7 @@
     </row>
     <row r="182" spans="1:6" ht="30" customHeight="1">
       <c r="A182" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B182" s="6">
         <v>0</v>
@@ -13963,10 +14235,10 @@
         <v>208</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F182" s="6" t="s">
         <v>18</v>
@@ -13974,7 +14246,7 @@
     </row>
     <row r="183" spans="1:6" ht="30" customHeight="1">
       <c r="A183" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B183" s="6">
         <v>0</v>
@@ -13983,10 +14255,10 @@
         <v>208</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F183" s="6" t="s">
         <v>18</v>
@@ -13994,7 +14266,7 @@
     </row>
     <row r="184" spans="1:6" ht="30" customHeight="1">
       <c r="A184" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B184" s="6">
         <v>0</v>
@@ -14003,10 +14275,10 @@
         <v>208</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F184" s="6" t="s">
         <v>18</v>
@@ -14014,7 +14286,7 @@
     </row>
     <row r="185" spans="1:6" ht="30" customHeight="1">
       <c r="A185" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B185" s="6">
         <v>0</v>
@@ -14023,10 +14295,10 @@
         <v>208</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F185" s="6" t="s">
         <v>38</v>
@@ -14034,7 +14306,7 @@
     </row>
     <row r="186" spans="1:6" ht="30" customHeight="1">
       <c r="A186" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B186" s="6">
         <v>0</v>
@@ -14043,10 +14315,10 @@
         <v>208</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F186" s="6" t="s">
         <v>18</v>
@@ -14082,16 +14354,16 @@
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="22.5" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>2</v>
@@ -14100,91 +14372,91 @@
         <v>3</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="40.5">
       <c r="A2" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:9" ht="40.5">
       <c r="A3" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
     </row>
     <row r="4" spans="1:9" ht="40.5">
       <c r="A4" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="40.5">
       <c r="A5" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>712</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>713</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="40.5">
       <c r="A6" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>696</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>697</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
     </row>
     <row r="7" spans="1:9" ht="40.5">
       <c r="A7" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:9" ht="40.5">
       <c r="A8" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>704</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>705</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
     </row>
     <row r="9" spans="1:9" ht="40.5">
       <c r="A9" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -14209,7 +14481,7 @@
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1">
       <c r="A12" s="13" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="7" t="s">
@@ -14218,7 +14490,7 @@
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1">
       <c r="A13" s="13" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="7" t="s">
@@ -14227,7 +14499,7 @@
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1">
       <c r="A14" s="13" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="7" t="s">
@@ -14236,7 +14508,7 @@
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1">
       <c r="A15" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="7" t="s">
@@ -14245,12 +14517,12 @@
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1">
       <c r="A16" s="13" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1">
       <c r="A17" s="13" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>41</v>
@@ -14258,7 +14530,7 @@
     </row>
     <row r="18" spans="1:8" ht="30" customHeight="1">
       <c r="A18" s="13" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>42</v>
@@ -14266,144 +14538,144 @@
     </row>
     <row r="19" spans="1:8" ht="40.5">
       <c r="A19" s="13" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="40.5">
       <c r="A20" s="13" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:8" ht="41.25" customHeight="1">
       <c r="A21" s="13" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="7" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="41.25" customHeight="1">
       <c r="A22" s="13" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="7" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="94.5">
       <c r="A23" s="13" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C23" s="7"/>
       <c r="H23" s="16" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="67.5">
       <c r="A24" s="13" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="40.5">
       <c r="A25" s="13" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="40.5">
       <c r="A26" s="13" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="40.5">
       <c r="A27" s="13" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="40.5">
       <c r="A28" s="13" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="40.5">
       <c r="A29" s="13" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="40.5">
       <c r="A30" s="13" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="40.5">
       <c r="A31" s="13" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
   </sheetData>
@@ -14460,19 +14732,19 @@
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>162</v>
@@ -14481,24 +14753,24 @@
         <v>162</v>
       </c>
       <c r="H2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>151</v>
@@ -14507,24 +14779,24 @@
         <v>151</v>
       </c>
       <c r="H3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>151</v>
@@ -14533,24 +14805,24 @@
         <v>151</v>
       </c>
       <c r="H4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>151</v>
@@ -14559,24 +14831,24 @@
         <v>151</v>
       </c>
       <c r="H5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>162</v>
@@ -14585,24 +14857,24 @@
         <v>162</v>
       </c>
       <c r="H6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B7" s="6">
         <v>0</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>162</v>
@@ -14611,24 +14883,24 @@
         <v>162</v>
       </c>
       <c r="H7" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B8" s="6">
         <v>0</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>162</v>
@@ -14637,24 +14909,24 @@
         <v>162</v>
       </c>
       <c r="H8" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B9" s="6">
         <v>0</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>151</v>
@@ -14663,24 +14935,24 @@
         <v>151</v>
       </c>
       <c r="H9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B10" s="6">
         <v>0</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>151</v>
@@ -14689,24 +14961,24 @@
         <v>151</v>
       </c>
       <c r="H10" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B11" s="6">
         <v>0</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>151</v>
@@ -14715,24 +14987,24 @@
         <v>151</v>
       </c>
       <c r="H11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B12" s="6">
         <v>0</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>695</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>696</v>
-      </c>
       <c r="E12" s="6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>162</v>
@@ -14741,24 +15013,24 @@
         <v>162</v>
       </c>
       <c r="H12" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B13" s="6">
         <v>0</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>162</v>
@@ -14767,12 +15039,12 @@
         <v>162</v>
       </c>
       <c r="H13" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B14" s="6">
         <v>0</v>
@@ -14781,10 +15053,10 @@
         <v>208</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>162</v>
@@ -14793,12 +15065,12 @@
         <v>162</v>
       </c>
       <c r="H14" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B15" s="6">
         <v>0</v>
@@ -14807,10 +15079,10 @@
         <v>208</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>151</v>
@@ -14819,12 +15091,12 @@
         <v>151</v>
       </c>
       <c r="H15" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B16" s="6">
         <v>0</v>
@@ -14833,10 +15105,10 @@
         <v>208</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>162</v>
@@ -14845,12 +15117,12 @@
         <v>162</v>
       </c>
       <c r="H16" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B17" s="6">
         <v>0</v>
@@ -14859,10 +15131,10 @@
         <v>208</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>151</v>
@@ -14871,24 +15143,24 @@
         <v>151</v>
       </c>
       <c r="H17" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B18" s="6">
         <v>0</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>38</v>
@@ -14897,24 +15169,24 @@
         <v>162</v>
       </c>
       <c r="H18" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B19" s="6">
         <v>0</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>18</v>
@@ -14923,24 +15195,24 @@
         <v>151</v>
       </c>
       <c r="H19" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B20" s="6">
         <v>0</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>38</v>
@@ -14949,24 +15221,24 @@
         <v>162</v>
       </c>
       <c r="H20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B21" s="6">
         <v>0</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>38</v>
@@ -14975,24 +15247,24 @@
         <v>162</v>
       </c>
       <c r="H21" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="30" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B22" s="6">
         <v>0</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>18</v>
@@ -15001,24 +15273,24 @@
         <v>151</v>
       </c>
       <c r="H22" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B23" s="6">
         <v>0</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>18</v>
@@ -15027,24 +15299,24 @@
         <v>151</v>
       </c>
       <c r="H23" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="30" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B24" s="6">
         <v>0</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>18</v>
@@ -15053,24 +15325,24 @@
         <v>151</v>
       </c>
       <c r="H24" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B25" s="6">
         <v>0</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>38</v>
@@ -15079,24 +15351,24 @@
         <v>162</v>
       </c>
       <c r="H25" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="30" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B26" s="6">
         <v>0</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>18</v>
@@ -15105,12 +15377,12 @@
         <v>151</v>
       </c>
       <c r="H26" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B27" s="6">
         <v>0</v>
@@ -15119,10 +15391,10 @@
         <v>208</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>38</v>
@@ -15131,12 +15403,12 @@
         <v>162</v>
       </c>
       <c r="H27" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="30" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B28" s="6">
         <v>0</v>
@@ -15145,10 +15417,10 @@
         <v>208</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>38</v>
@@ -15157,12 +15429,12 @@
         <v>162</v>
       </c>
       <c r="H28" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B29" s="6">
         <v>0</v>
@@ -15171,10 +15443,10 @@
         <v>208</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>18</v>
@@ -15183,12 +15455,12 @@
         <v>151</v>
       </c>
       <c r="H29" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="30" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B30" s="6">
         <v>0</v>
@@ -15197,10 +15469,10 @@
         <v>208</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>38</v>
@@ -15209,12 +15481,12 @@
         <v>162</v>
       </c>
       <c r="H30" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B31" s="6">
         <v>0</v>
@@ -15223,10 +15495,10 @@
         <v>208</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>18</v>
@@ -15235,12 +15507,12 @@
         <v>151</v>
       </c>
       <c r="H31" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="30" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B32" s="6">
         <v>0</v>
@@ -15249,10 +15521,10 @@
         <v>208</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>38</v>
@@ -15261,12 +15533,12 @@
         <v>162</v>
       </c>
       <c r="H32" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B33" s="6">
         <v>0</v>
@@ -15275,10 +15547,10 @@
         <v>208</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>18</v>
@@ -15287,12 +15559,12 @@
         <v>151</v>
       </c>
       <c r="H33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="30" customHeight="1">
       <c r="A34" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B34" s="6">
         <v>0</v>
@@ -15301,10 +15573,10 @@
         <v>208</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>38</v>
@@ -15313,12 +15585,12 @@
         <v>162</v>
       </c>
       <c r="H34" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B35" s="6">
         <v>0</v>
@@ -15327,10 +15599,10 @@
         <v>208</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>18</v>
@@ -15339,7 +15611,7 @@
         <v>151</v>
       </c>
       <c r="H35" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
   </sheetData>

--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3855" windowWidth="21735" windowHeight="4785" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="4005" windowWidth="21735" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="元数据表" sheetId="11" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2822" uniqueCount="1145">
   <si>
     <t>{"photoAuthStatus":"AS"}</t>
   </si>
@@ -2646,10 +2646,6 @@
   </si>
   <si>
     <t>VA_F010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>certAuth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3635,40 +3631,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"phoneAuthStatus":"AF","mobile":"18000000010","mobileSign":"999999999"}</t>
-  </si>
-  <si>
-    <t>{"phoneAuthStatus":"AS","mobile":"15221527000","mobileSign":"999999999"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>二线城市手机号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"phoneAuthStatus":"AS","mobile":"18260190000","mobileSign":"999999999"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三线城市手机号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"phoneAuthStatus":"AS","mobile":"15152550000","mobileSign":"999999999"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phoneAuthStatus":"AS","mobile":"18000000014","mobileSign":"888888888"}</t>
-  </si>
-  <si>
     <t>mobileSign为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"phoneAuthStatus":"AS","mobile":"18000000014","mobileSign":""}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>身份认证成功</t>
   </si>
   <si>
@@ -3695,9 +3669,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"certAuthStatus":"AS","custName":"戚广晓","idNo":"530101199108177729","cardNo":"6217001000000000212","userRole":"BORROWERS"}</t>
-  </si>
-  <si>
     <t>photoAuth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4043,10 +4014,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"phoneAuthStatus":"AS","mobile":"18000000012","mobileSign":"999999999"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"schoolRollAuthStatus":"AS","entranceTime":"2017-07-01","province":"江苏省","city":"苏州市","collegeName":"苏州大学","professionName":"","clogLevel":"本科"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4152,18 +4119,6 @@
   </si>
   <si>
     <t>牛大咖订单mobileSign相同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "projectName": "牛大咖", "loanTerm": "1", "loanSubSrc": "NDK", "time": "0", "repayStatus": "WAIT_REPAY" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "projectName": "牛大咖", "loanTerm": "1", "loanSubSrc": "NDK", "time": "10", "repayStatus": "OVERDUE_REPAID" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "projectName": "触宝", "loanTerm": "1", "loanSubSrc": "CHUBAO", "time": "0", "repayStatus": "WAIT_REPAY" }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4220,18 +4175,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{ "projectName": "牛大咖", "loanTerm": "1", "loanSubSrc": "NDK", "time": "10", "repayStatus": "NORMAL" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>成功的牛小宝订单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成功的牛小宝订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>成功的牛大款订单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4240,10 +4187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{ "projectName": "牛大款", "loanTerm": "1", "loanSubSrc": "NKK", "time": "0", "repayStatus": "" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>失败的牛大款订单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4252,10 +4195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{ "projectName": "牛大咖", "loanTerm": "1", "loanSubSrc": "NDK", "time": "0", "repayStatus": "" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"allCount": "1","isApply": "Y","orders": [{"userinfoNo": "与student是同学","time": "0",}]}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4272,18 +4211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{ "projectName": "牛小宝", "loanTerm": "1", "loanSubSrc": "NXB", "time": "0", "repayStatus": "NORMAL" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "projectName": "触宝", "loanTerm": "1", "loanSubSrc": "CHUBAO", "time": "0", "repayStatus": "NORMAL" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当天创建的待还订单（触宝）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>触宝订单mobileSign相同2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4320,14 +4247,6 @@
   </si>
   <si>
     <t>非当天创建的触宝订单mobileSign相同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "projectName": "触宝", "loanTerm": "1", "loanSubSrc": "CHUBAO", "time": "0", "repayStatus": "" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失败的触宝订单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4352,30 +4271,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{ "projectName": "牛大款", "loanTerm": "1", "loanSubSrc": "NKK", "time": "0", "repayStatus": "NORMAL" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "projectName": "牛大咖", "loanTerm": "1", "loanSubSrc": "NDK", "time": "1", "repayStatus": "WAIT_REPAY" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "projectName": "触宝", "loanTerm": "1", "loanSubSrc": "CHUBAO", "time": "1", "repayStatus": "WAIT_REPAY" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>isEducationWhite</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"phoneAuthStatus":"AS","mobile":"18000000011","mobileSign":"999999999"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phoneAuthStatus":"AS","mobile":"18000000010","mobileSign":"999999999"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>触宝成人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4420,10 +4319,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{ "projectName": "牛小宝", "loanTerm": "1", "loanSubSrc": "NXB", "time": "0", "repayStatus": "WAIT_REPAY" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当天创建的待还订单（牛小宝）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4448,10 +4343,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{ "projectName": "牛小宝", "loanTerm": "1", "loanSubSrc": "NXB", "time": "0", "repayStatus": "" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>失败的牛小宝订单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4472,10 +4363,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{ "projectName": "牛小宝", "loanTerm": "1", "loanSubSrc": "NXB", "time": "1", "repayStatus": "WAIT_REPAY" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>非当天创建的待还订单（牛小宝）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4528,19 +4415,240 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>一线城市手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一线城市手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student二线城市手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>student一线城市手机号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一线城市手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一线城市手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>student二线城市手机号</t>
+    <t>失败的复大医疗订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功的复大医疗订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功的复大医疗订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败的复大医疗订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败的触宝订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>certAuth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准工作认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准工作认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phoneAuthStatus":"AS","mobile":"18000000010","mobileSign":"999999999","cookie":"999999999"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phoneAuthStatus":"AS","mobile":"18000000011","mobileSign":"999999999","cookie":"999999999"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phoneAuthStatus":"AS","mobile":"18000000012","mobileSign":"999999999","cookie":"999999999"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phoneAuthStatus":"AF","mobile":"18000000010","mobileSign":"999999999","cookie":"999999999"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phoneAuthStatus":"AS","mobile":"15221527000","mobileSign":"999999999","cookie":"999999999"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phoneAuthStatus":"AS","mobile":"18260190000","mobileSign":"999999999","cookie":"999999999"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phoneAuthStatus":"AS","mobile":"15152550000","mobileSign":"999999999","cookie":"999999999"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phoneAuthStatus":"AS","mobile":"18000000014","mobileSign":"888888888","cookie":"888888888"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phoneAuthStatus":"AS","mobile":"18000000014","mobileSign":"","cookie":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准工作认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功的复大医疗订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已申请到复大医疗订单cookie相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功的复大医疗订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已申请到复大医疗订单cookie不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已申请到复大医疗订单cookie为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已申请到复大医疗订单cookie相同但不同天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非当天成功的复大医疗订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非当天成功的复大医疗订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天创建的待还订单（触宝）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天创建的待还订单(复大)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天创建的待还订单(复大)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复大医疗待还订单待还订单_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复大医疗待还订单待还订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "牛大咖", "loanTerm": "1", "loanSubSrc": "NDK", "time": "0", "repayStatus": "","auditStatus":"RETURN"  }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "牛小宝", "loanTerm": "1", "loanSubSrc": "NXB", "time": "1", "repayStatus": "WAIT_REPAY","auditStatus":"LOANED"  }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "复大医疗", "loanTerm": "1", "loanSubSrc": "FD", "time": "1", "repayStatus": "SETTLED","auditStatus":"LOANED" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "触宝", "loanTerm": "1", "loanSubSrc": "CHUBAO", "time": "0", "repayStatus": "SETTLED","auditStatus":"LOANED" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "牛大款", "loanTerm": "1", "loanSubSrc": "NKK", "time": "0", "repayStatus": "SETTLED","auditStatus":"LOANED" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "牛小宝", "loanTerm": "1", "loanSubSrc": "NXB", "time": "0", "repayStatus": "SETTLED","auditStatus":"LOANED" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "companyId": "999", "companyName": "测试公司", "companyScaleMax": "100", "companyScaleMin": "0", "companyProvince": "江苏省", "companyCity": "苏州市",
+"laborRelationsType": "正式", "workStatus": "正常", "monthlySalaryMax": "10000", "monthlySalaryMin": "8001" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "牛大咖", "loanTerm": "1", "loanSubSrc": "NDK", "time": "0", "repayStatus": "WAIT_REPAY","auditStatus":"LOANED" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "牛小宝", "loanTerm": "1", "loanSubSrc": "NXB", "time": "0", "repayStatus": "WAIT_REPAY","auditStatus":"LOANED" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "牛大咖", "loanTerm": "1", "loanSubSrc": "NDK", "time": "10", "repayStatus": "OVERDUE","auditStatus":"LOANED" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "牛大咖", "loanTerm": "1", "loanSubSrc": "NDK", "time": "10", "repayStatus": "SETTLED","auditStatus":"LOANED"  }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "触宝", "loanTerm": "1", "loanSubSrc": "CHUBAO", "time": "0", "repayStatus": "WAIT_REPAY","auditStatus":"LOANED"  }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "触宝", "loanTerm": "1", "loanSubSrc": "CHUBAO", "time": "1", "repayStatus": "WAIT_REPAY","auditStatus":"LOANED"  }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "牛大咖", "loanTerm": "1", "loanSubSrc": "NDK", "time": "1", "repayStatus": "WAIT_REPAY","auditStatus":"LOANED"  }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "复大医疗", "loanTerm": "1", "loanSubSrc": "FD", "time": "0", "repayStatus": "WAIT_REPAY","auditStatus":"LOANED" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "复大医疗", "loanTerm": "1", "loanSubSrc": "FD", "time": "0", "repayStatus": "","auditStatus":"RETURN" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "触宝", "loanTerm": "1", "loanSubSrc": "CHUBAO", "time": "0", "repayStatus": "","auditStatus":"RETURN" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "牛小宝", "loanTerm": "1", "loanSubSrc": "NXB", "time": "0", "repayStatus": "","auditStatus":"RETURN" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "牛大款", "loanTerm": "1", "loanSubSrc": "NKK", "time": "0", "repayStatus": "","auditStatus":"RETURN" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功的牛小宝订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "复大医疗", "loanTerm": "1", "loanSubSrc": "FD", "time": "0", "repayStatus": "SETTLED","auditStatus":"LOANED" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功的牛小宝订单(复大用户)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"certAuthStatus":"AS","custName":"戚广晓","idNo":"530101199108177729","cardNo":"6217001000000000212","userRole":"BORROWERS"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4977,176 +5085,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="39.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="189.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="206" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B1" t="s">
         <v>853</v>
-      </c>
-      <c r="B1" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="B3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="B9" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="B15" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1007</v>
+        <v>998</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5154,132 +5262,132 @@
         <v>442</v>
       </c>
       <c r="B21" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="B22" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="B23" t="s">
-        <v>1076</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="B24" t="s">
-        <v>1075</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="B25" t="s">
-        <v>994</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B26" t="s">
-        <v>889</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>1116</v>
+        <v>1086</v>
       </c>
       <c r="B27" t="s">
-        <v>890</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B28" t="s">
-        <v>892</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="B29" t="s">
-        <v>894</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="B30" t="s">
-        <v>895</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="B31" t="s">
-        <v>897</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="B32" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="B33" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="B34" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>1056</v>
+        <v>1037</v>
       </c>
       <c r="B35" t="s">
-        <v>905</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>1049</v>
+        <v>1033</v>
       </c>
       <c r="B36" t="s">
-        <v>1048</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="B37" t="s">
         <v>0</v>
@@ -5287,159 +5395,159 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="B38" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="B39" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="B40" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="4" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="4" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="4" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="B43" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="4" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="B44" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="4" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="4" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="4" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="B47" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="4" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="B48" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="4" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="B49" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="B50" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>1106</v>
+        <v>1077</v>
       </c>
       <c r="B51" t="s">
-        <v>1105</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="4" t="s">
-        <v>1111</v>
+        <v>1082</v>
       </c>
       <c r="B52" t="s">
-        <v>1110</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="B53" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="4" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="4" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="4" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="4" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>337</v>
@@ -5447,7 +5555,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="4" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>161</v>
@@ -5455,7 +5563,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="4" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>152</v>
@@ -5463,7 +5571,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="4" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>315</v>
@@ -5471,158 +5579,195 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="4" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="4" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="4" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="B63" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="4" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="4" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>1022</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="4" t="s">
-        <v>1089</v>
+        <v>1062</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>1088</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="4" t="s">
-        <v>1013</v>
+        <v>1004</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>1023</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="4" t="s">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>1038</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="4" t="s">
-        <v>1053</v>
+        <v>1116</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>1024</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="4" t="s">
-        <v>1057</v>
+        <v>1038</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>1073</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="4" t="s">
-        <v>1025</v>
+        <v>1013</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>1072</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="4" t="s">
-        <v>1100</v>
+        <v>1072</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>1101</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="4" t="s">
-        <v>1030</v>
+        <v>1018</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>1046</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="4" t="s">
-        <v>1087</v>
+        <v>1061</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>1051</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="4" t="s">
-        <v>1094</v>
+        <v>1067</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>1095</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="4" t="s">
-        <v>1042</v>
+        <v>1028</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>1071</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="4" t="s">
-        <v>1044</v>
+        <v>1029</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>1043</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="4" t="s">
-        <v>1060</v>
+        <v>1041</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>1052</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
-        <v>1065</v>
+        <v>1045</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>1064</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="B80" s="4"/>
+      <c r="A80" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="27">
+      <c r="A84" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>1128</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5652,36 +5797,36 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1">
       <c r="A1" s="13" t="s">
+        <v>824</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>825</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>826</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>827</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>828</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>829</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>830</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6">
@@ -5690,13 +5835,13 @@
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6">
@@ -5705,13 +5850,13 @@
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6">
@@ -5720,13 +5865,13 @@
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E5" s="6">
         <v>900</v>
@@ -5734,7 +5879,7 @@
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
@@ -5748,13 +5893,13 @@
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B7" s="6">
         <v>0</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E7" s="6">
         <v>600</v>
@@ -5762,13 +5907,13 @@
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B8" s="6">
         <v>0</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E8" s="6">
         <v>1500</v>
@@ -5776,13 +5921,13 @@
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B9" s="6">
         <v>0</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E9" s="6">
         <v>1130</v>
@@ -5860,7 +6005,7 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
@@ -5880,7 +6025,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
@@ -5889,7 +6034,7 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5903,7 +6048,7 @@
         <v>66</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E5" t="s">
         <v>65</v>
@@ -5920,13 +6065,13 @@
         <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="E6" t="s">
         <v>757</v>
-      </c>
-      <c r="E6" t="s">
-        <v>758</v>
       </c>
       <c r="F6" t="s">
         <v>639</v>
@@ -5940,16 +6085,16 @@
         <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="E7" t="s">
         <v>757</v>
       </c>
-      <c r="E7" t="s">
-        <v>758</v>
-      </c>
       <c r="F7" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5957,16 +6102,16 @@
         <v>0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1032</v>
+        <v>1020</v>
       </c>
       <c r="C8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
       <c r="E8" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
       <c r="F8" t="s">
         <v>639</v>
@@ -5977,16 +6122,16 @@
         <v>0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1032</v>
+        <v>1020</v>
       </c>
       <c r="C9" t="s">
         <v>66</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
       <c r="E9" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
       <c r="F9" t="s">
         <v>640</v>
@@ -6000,10 +6145,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6019,54 +6164,58 @@
     <col min="9" max="9" width="15" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="31.875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="22.375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="31.75" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.375" customWidth="1"/>
+    <col min="13" max="13" width="31.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" customHeight="1">
+    <row r="1" spans="1:14" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>1069</v>
+        <v>1048</v>
       </c>
       <c r="C1" t="s">
         <v>532</v>
       </c>
       <c r="D1" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="E1" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="F1" t="s">
-        <v>652</v>
+        <v>1095</v>
       </c>
       <c r="G1" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="H1" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="I1" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="J1" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="K1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="L1" t="s">
-        <v>1010</v>
+        <v>7</v>
       </c>
       <c r="M1" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="30" customHeight="1">
+        <v>1001</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>1</v>
@@ -6076,28 +6225,29 @@
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>907</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>915</v>
-      </c>
       <c r="I2" s="22" t="s">
+        <v>917</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>925</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>927</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="30" customHeight="1">
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" ht="30" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>160</v>
       </c>
@@ -6108,27 +6258,28 @@
         <v>533</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:13" ht="30" customHeight="1">
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" ht="30" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>208</v>
       </c>
@@ -6140,30 +6291,31 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L4" s="22"/>
+    </row>
+    <row r="5" spans="1:14" ht="30" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>1115</v>
+        <v>1089</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>1</v>
@@ -6173,30 +6325,31 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>1117</v>
+        <v>1087</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>907</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>915</v>
-      </c>
       <c r="I5" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L5" s="22"/>
+    </row>
+    <row r="6" spans="1:14" ht="30" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>1118</v>
+        <v>1088</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>1</v>
@@ -6206,30 +6359,31 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>891</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>898</v>
-      </c>
       <c r="G6" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>907</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>915</v>
-      </c>
       <c r="I6" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L6" s="22"/>
+    </row>
+    <row r="7" spans="1:14" ht="30" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>1114</v>
+        <v>1085</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>1</v>
@@ -6239,30 +6393,31 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L7" s="22"/>
+    </row>
+    <row r="8" spans="1:14" ht="30" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>1</v>
@@ -6272,30 +6427,31 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L8" s="22"/>
+    </row>
+    <row r="9" spans="1:14" ht="30" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>1</v>
@@ -6305,30 +6461,31 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="30" customHeight="1">
+        <v>926</v>
+      </c>
+      <c r="L9" s="22"/>
+    </row>
+    <row r="10" spans="1:14" ht="30" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>1</v>
@@ -6338,28 +6495,29 @@
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="30" customHeight="1">
+        <v>926</v>
+      </c>
+      <c r="L10" s="22"/>
+    </row>
+    <row r="11" spans="1:14" ht="30" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>466</v>
       </c>
@@ -6371,30 +6529,31 @@
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L11" s="22"/>
+    </row>
+    <row r="12" spans="1:14" ht="30" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>1</v>
@@ -6403,29 +6562,30 @@
         <v>533</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L12" s="22"/>
+    </row>
+    <row r="13" spans="1:14" ht="30" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>210</v>
       </c>
@@ -6436,29 +6596,30 @@
         <v>533</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L13" s="22"/>
+    </row>
+    <row r="14" spans="1:14" ht="30" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>318</v>
       </c>
@@ -6470,30 +6631,31 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L14" s="22"/>
+    </row>
+    <row r="15" spans="1:14" ht="30" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>1</v>
@@ -6503,30 +6665,31 @@
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L15" s="22"/>
+    </row>
+    <row r="16" spans="1:14" ht="30" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>1</v>
@@ -6536,30 +6699,31 @@
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J16" s="22" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L16" s="22"/>
+    </row>
+    <row r="17" spans="1:12" ht="30" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>1107</v>
+        <v>1078</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>1</v>
@@ -6569,30 +6733,31 @@
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>449</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>1112</v>
+        <v>1083</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>1</v>
@@ -6602,30 +6767,31 @@
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>1108</v>
+        <v>1079</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="1:12" ht="30" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>1113</v>
+        <v>1084</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>1</v>
@@ -6635,28 +6801,29 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>1109</v>
+        <v>1080</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" spans="1:12" ht="30" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>467</v>
       </c>
@@ -6670,26 +6837,27 @@
         <v>442</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L20" s="22"/>
+    </row>
+    <row r="21" spans="1:12" ht="30" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>457</v>
       </c>
@@ -6701,28 +6869,29 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="30" customHeight="1">
+        <v>971</v>
+      </c>
+      <c r="L21" s="22"/>
+    </row>
+    <row r="22" spans="1:12" ht="30" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>472</v>
       </c>
@@ -6736,28 +6905,29 @@
         <v>472</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L22" s="22"/>
+    </row>
+    <row r="23" spans="1:12" ht="30" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>534</v>
@@ -6767,28 +6937,29 @@
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="5" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L23" s="22"/>
+    </row>
+    <row r="24" spans="1:12" ht="30" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>563</v>
       </c>
@@ -6800,28 +6971,29 @@
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="5" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L24" s="22"/>
+    </row>
+    <row r="25" spans="1:12" ht="30" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>544</v>
       </c>
@@ -6833,28 +7005,29 @@
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="5" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L25" s="22"/>
+    </row>
+    <row r="26" spans="1:12" ht="30" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>550</v>
       </c>
@@ -6866,30 +7039,31 @@
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="5" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="H26" s="22" t="s">
+        <v>909</v>
+      </c>
+      <c r="I26" s="22" t="s">
         <v>917</v>
       </c>
-      <c r="I26" s="22" t="s">
-        <v>925</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L26" s="22"/>
+    </row>
+    <row r="27" spans="1:12" ht="30" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>1098</v>
+        <v>1070</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>534</v>
@@ -6899,28 +7073,29 @@
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="5" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="H27" s="22" t="s">
+        <v>911</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>917</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>919</v>
       </c>
-      <c r="I27" s="22" t="s">
-        <v>925</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>927</v>
-      </c>
       <c r="K27" s="22" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L27" s="22"/>
+    </row>
+    <row r="28" spans="1:12" ht="30" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>558</v>
       </c>
@@ -6932,30 +7107,31 @@
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="5" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L28" s="22"/>
+    </row>
+    <row r="29" spans="1:12" ht="30" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>643</v>
@@ -6964,31 +7140,32 @@
         <v>533</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L29" s="22"/>
+    </row>
+    <row r="30" spans="1:12" ht="30" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>644</v>
@@ -6998,96 +7175,99 @@
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="5" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L30" s="22"/>
+    </row>
+    <row r="31" spans="1:12" ht="30" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>533</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L31" s="22"/>
+    </row>
+    <row r="32" spans="1:12" ht="30" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>650</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>533</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L32" s="22"/>
+    </row>
+    <row r="33" spans="1:13" ht="30" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>1086</v>
+        <v>1060</v>
       </c>
       <c r="B33" s="21" t="s">
         <v>1</v>
@@ -7096,31 +7276,32 @@
         <v>533</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="30" customHeight="1">
+        <v>923</v>
+      </c>
+      <c r="L33" s="22"/>
+    </row>
+    <row r="34" spans="1:13" ht="30" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B34" s="21" t="s">
         <v>1</v>
@@ -7129,32 +7310,33 @@
         <v>533</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>931</v>
-      </c>
-      <c r="L34" s="10"/>
-    </row>
-    <row r="35" spans="1:12" ht="30" customHeight="1">
+        <v>923</v>
+      </c>
+      <c r="L34" s="22"/>
+      <c r="M34" s="10"/>
+    </row>
+    <row r="35" spans="1:13" ht="30" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B35" s="21" t="s">
         <v>1</v>
@@ -7163,32 +7345,33 @@
         <v>533</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K35" s="22" t="s">
-        <v>931</v>
-      </c>
-      <c r="L35" s="10"/>
-    </row>
-    <row r="36" spans="1:12" ht="30" customHeight="1">
+        <v>923</v>
+      </c>
+      <c r="L35" s="22"/>
+      <c r="M35" s="10"/>
+    </row>
+    <row r="36" spans="1:13" ht="30" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
       <c r="B36" s="21" t="s">
         <v>1</v>
@@ -7197,32 +7380,33 @@
         <v>533</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>931</v>
-      </c>
-      <c r="L36" s="10"/>
-    </row>
-    <row r="37" spans="1:12" ht="30" customHeight="1">
+        <v>923</v>
+      </c>
+      <c r="L36" s="22"/>
+      <c r="M36" s="10"/>
+    </row>
+    <row r="37" spans="1:13" ht="30" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="B37" s="21" t="s">
         <v>1</v>
@@ -7231,34 +7415,35 @@
         <v>533</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K37" s="22" t="s">
-        <v>931</v>
-      </c>
-      <c r="L37" s="22" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="30" customHeight="1">
+        <v>923</v>
+      </c>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="30" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="B38" s="21" t="s">
         <v>1</v>
@@ -7267,178 +7452,183 @@
         <v>533</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K38" s="22" t="s">
-        <v>931</v>
-      </c>
-      <c r="L38" s="22" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="30" customHeight="1">
+        <v>923</v>
+      </c>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="30" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>533</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K39" s="22" t="s">
-        <v>932</v>
-      </c>
-      <c r="L39" s="22" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="30" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>533</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>650</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="I40" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K40" s="22" t="s">
-        <v>932</v>
-      </c>
-      <c r="L40" s="22" t="s">
+        <v>924</v>
+      </c>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="30" customHeight="1">
+      <c r="A41" s="4" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="30" customHeight="1">
-      <c r="A41" s="4" t="s">
-        <v>1021</v>
-      </c>
       <c r="B41" s="21" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>533</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K41" s="22" t="s">
-        <v>932</v>
-      </c>
-      <c r="L41" s="22" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="30" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>1093</v>
+        <v>1066</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>533</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="G42" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="H42" s="7" t="s">
         <v>907</v>
       </c>
-      <c r="H42" s="7" t="s">
-        <v>915</v>
-      </c>
       <c r="I42" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K42" s="22" t="s">
-        <v>932</v>
-      </c>
-      <c r="L42" s="22" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="30" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>1091</v>
+        <v>1064</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>533</v>
@@ -7448,524 +7638,539 @@
         <v>650</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="G43" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="H43" s="7" t="s">
         <v>907</v>
       </c>
-      <c r="H43" s="7" t="s">
-        <v>915</v>
-      </c>
       <c r="I43" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K43" s="22" t="s">
-        <v>932</v>
-      </c>
-      <c r="L43" s="22" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="30" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>1092</v>
+        <v>1065</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>533</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="G44" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="H44" s="7" t="s">
         <v>907</v>
       </c>
-      <c r="H44" s="7" t="s">
-        <v>915</v>
-      </c>
       <c r="I44" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K44" s="22" t="s">
-        <v>932</v>
-      </c>
-      <c r="L44" s="22" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="30" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>1070</v>
+        <v>1049</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>533</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K45" s="22" t="s">
-        <v>932</v>
-      </c>
-      <c r="L45" s="22" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="30" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>1054</v>
+        <v>1035</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>533</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>1055</v>
+        <v>1036</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="I46" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K46" s="22" t="s">
-        <v>932</v>
-      </c>
-      <c r="L46" s="22" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="30" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>533</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>1055</v>
+        <v>1036</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="I47" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K47" s="22" t="s">
-        <v>932</v>
-      </c>
-      <c r="L47" s="22" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="30" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>1059</v>
+        <v>1040</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>533</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>650</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="I48" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K48" s="22" t="s">
-        <v>932</v>
-      </c>
-      <c r="L48" s="22" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="30" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>1063</v>
+        <v>1044</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>533</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>1055</v>
+        <v>1036</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="I49" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K49" s="22" t="s">
-        <v>932</v>
-      </c>
-      <c r="L49" s="22" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="30" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>1062</v>
+        <v>1043</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>533</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>1055</v>
+        <v>1036</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="I50" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K50" s="22" t="s">
-        <v>932</v>
-      </c>
-      <c r="L50" s="22" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="30" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>1099</v>
+        <v>1071</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>533</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="I51" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K51" s="22" t="s">
-        <v>932</v>
-      </c>
-      <c r="L51" s="22" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="30" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>1102</v>
+        <v>1073</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>533</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="G52" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="H52" s="7" t="s">
         <v>907</v>
       </c>
-      <c r="H52" s="7" t="s">
-        <v>915</v>
-      </c>
       <c r="I52" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K52" s="22" t="s">
-        <v>932</v>
-      </c>
-      <c r="L52" s="22" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="30" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>533</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="I53" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K53" s="22" t="s">
-        <v>932</v>
-      </c>
-      <c r="L53" s="22" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="30" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>1039</v>
+        <v>1141</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>533</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="G54" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="H54" s="7" t="s">
         <v>907</v>
       </c>
-      <c r="H54" s="7" t="s">
-        <v>915</v>
-      </c>
       <c r="I54" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K54" s="22" t="s">
-        <v>932</v>
-      </c>
-      <c r="L54" s="22" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L54" s="22"/>
+      <c r="M54" s="22" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="30" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>1097</v>
+        <v>1069</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>533</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="G55" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="H55" s="7" t="s">
         <v>907</v>
       </c>
-      <c r="H55" s="7" t="s">
-        <v>915</v>
-      </c>
       <c r="I55" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K55" s="22" t="s">
-        <v>932</v>
-      </c>
-      <c r="L55" s="22" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="30" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>1041</v>
+        <v>1027</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>533</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="I56" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K56" s="22" t="s">
-        <v>932</v>
-      </c>
-      <c r="L56" s="22" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="30" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>1104</v>
+        <v>1075</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>533</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>1082</v>
+        <v>1056</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="I57" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K57" s="22" t="s">
-        <v>932</v>
-      </c>
-      <c r="L57" s="22" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="27">
+        <v>924</v>
+      </c>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="27">
       <c r="A58" s="4" t="s">
-        <v>1050</v>
+        <v>1034</v>
       </c>
       <c r="B58" s="21" t="s">
         <v>1</v>
@@ -7974,65 +8179,67 @@
         <v>533</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>1080</v>
+        <v>1054</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>1050</v>
+        <v>1034</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="I58" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K58" s="22" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="30" customHeight="1">
+        <v>923</v>
+      </c>
+      <c r="L58" s="22"/>
+    </row>
+    <row r="59" spans="1:14" ht="30" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>1066</v>
+        <v>1094</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>533</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="I59" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K59" s="22" t="s">
-        <v>932</v>
-      </c>
-      <c r="L59" s="22" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="30" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>1077</v>
+        <v>1051</v>
       </c>
       <c r="B60" s="21" t="s">
         <v>644</v>
@@ -8042,30 +8249,31 @@
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="5" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I60" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K60" s="22" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L60" s="22"/>
+    </row>
+    <row r="61" spans="1:14" ht="30" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>1079</v>
+        <v>1053</v>
       </c>
       <c r="B61" s="21" t="s">
         <v>1</v>
@@ -8075,31 +8283,32 @@
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="7" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K61" s="22" t="s">
-        <v>932</v>
-      </c>
-      <c r="M61" s="22" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L61" s="22"/>
+      <c r="N61" s="22" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="30" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>1084</v>
+        <v>1058</v>
       </c>
       <c r="B62" s="21" t="s">
         <v>1</v>
@@ -8109,31 +8318,32 @@
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7" t="s">
-        <v>1081</v>
+        <v>1055</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K62" s="22" t="s">
-        <v>932</v>
-      </c>
-      <c r="M62" s="22" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="30" customHeight="1">
+        <v>924</v>
+      </c>
+      <c r="L62" s="22"/>
+      <c r="N62" s="22" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="30" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>1085</v>
+        <v>1059</v>
       </c>
       <c r="B63" s="21" t="s">
         <v>1</v>
@@ -8143,26 +8353,420 @@
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7" t="s">
-        <v>1083</v>
+        <v>1057</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="22" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="K63" s="22" t="s">
-        <v>932</v>
-      </c>
-      <c r="M63" s="22" t="s">
-        <v>1078</v>
+        <v>924</v>
+      </c>
+      <c r="L63" s="22"/>
+      <c r="N63" s="22" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="30" customHeight="1">
+      <c r="A64" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7" t="s">
+        <v>940</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="H64" s="7"/>
+      <c r="I64" s="22" t="s">
+        <v>917</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="K64" s="22" t="s">
+        <v>924</v>
+      </c>
+      <c r="L64" s="22" t="s">
+        <v>1097</v>
+      </c>
+      <c r="M64" s="6" t="s">
+        <v>1108</v>
+      </c>
+      <c r="N64" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="30" customHeight="1">
+      <c r="A65" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7" t="s">
+        <v>940</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="H65" s="7"/>
+      <c r="I65" s="22" t="s">
+        <v>917</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="K65" s="22" t="s">
+        <v>924</v>
+      </c>
+      <c r="L65" s="22" t="s">
+        <v>1097</v>
+      </c>
+      <c r="M65" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="N65" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="30" customHeight="1">
+      <c r="A66" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7" t="s">
+        <v>940</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="H66" s="7"/>
+      <c r="I66" s="22" t="s">
+        <v>917</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="K66" s="22" t="s">
+        <v>924</v>
+      </c>
+      <c r="L66" s="22" t="s">
+        <v>1097</v>
+      </c>
+      <c r="N66" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="30" customHeight="1">
+      <c r="A67" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="H67" s="7"/>
+      <c r="I67" s="22" t="s">
+        <v>917</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="K67" s="22" t="s">
+        <v>924</v>
+      </c>
+      <c r="L67" s="22" t="s">
+        <v>1096</v>
+      </c>
+      <c r="M67" s="22" t="s">
+        <v>1110</v>
+      </c>
+      <c r="N67" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="30" customHeight="1">
+      <c r="A68" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="I68" s="22" t="s">
+        <v>917</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="K68" s="22" t="s">
+        <v>924</v>
+      </c>
+      <c r="L68" s="22" t="s">
+        <v>1096</v>
+      </c>
+      <c r="M68" s="22" t="s">
+        <v>1110</v>
+      </c>
+      <c r="N68" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="30" customHeight="1">
+      <c r="A69" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="I69" s="22" t="s">
+        <v>917</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="K69" s="22" t="s">
+        <v>924</v>
+      </c>
+      <c r="L69" s="22" t="s">
+        <v>1096</v>
+      </c>
+      <c r="M69" s="22" t="s">
+        <v>1110</v>
+      </c>
+      <c r="N69" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="30" customHeight="1">
+      <c r="A70" s="4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D70" s="7"/>
+      <c r="E70" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="H70" s="7"/>
+      <c r="I70" s="22" t="s">
+        <v>917</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="K70" s="22" t="s">
+        <v>924</v>
+      </c>
+      <c r="L70" s="22" t="s">
+        <v>1096</v>
+      </c>
+      <c r="M70" s="22" t="s">
+        <v>1115</v>
+      </c>
+      <c r="N70" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="30" customHeight="1">
+      <c r="A71" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="H71" s="7"/>
+      <c r="I71" s="22" t="s">
+        <v>917</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="K71" s="22" t="s">
+        <v>924</v>
+      </c>
+      <c r="L71" s="22" t="s">
+        <v>1096</v>
+      </c>
+      <c r="M71" s="22" t="s">
+        <v>1118</v>
+      </c>
+      <c r="N71" s="22" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="30" customHeight="1">
+      <c r="A72" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="H72" s="7"/>
+      <c r="I72" s="22" t="s">
+        <v>917</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="K72" s="22" t="s">
+        <v>924</v>
+      </c>
+      <c r="L72" s="22" t="s">
+        <v>1096</v>
+      </c>
+      <c r="M72" s="22" t="s">
+        <v>1118</v>
+      </c>
+      <c r="N72" s="22" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="30" customHeight="1">
+      <c r="A73" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="H73" s="7"/>
+      <c r="I73" s="22" t="s">
+        <v>917</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="K73" s="22" t="s">
+        <v>924</v>
+      </c>
+      <c r="L73" s="22" t="s">
+        <v>1096</v>
+      </c>
+      <c r="M73" s="22" t="s">
+        <v>1026</v>
+      </c>
+      <c r="N73" s="22" t="s">
+        <v>1119</v>
       </c>
     </row>
   </sheetData>
@@ -8177,7 +8781,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8221,7 +8825,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8604,7 +9208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -9465,8 +10069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView topLeftCell="H37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD43"/>
+    <sheetView topLeftCell="G37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9526,10 +10130,10 @@
         <v>331</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="N1" s="13" t="s">
         <v>443</v>
@@ -9711,7 +10315,7 @@
         <v>347</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1068</v>
+        <v>1047</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>302</v>
@@ -9722,7 +10326,7 @@
         <v>356</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>302</v>
@@ -9751,7 +10355,7 @@
         <v>346</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>302</v>
@@ -9762,7 +10366,7 @@
         <v>356</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>302</v>
@@ -10032,7 +10636,7 @@
         <v>380</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>359</v>
@@ -10051,7 +10655,7 @@
         <v>383</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>359</v>
@@ -10103,7 +10707,7 @@
         <v>344</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="27">
@@ -10111,36 +10715,36 @@
         <v>351</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="27">
       <c r="A46" s="5" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="B46" s="3"/>
       <c r="L46" s="16" t="s">
-        <v>1047</v>
+        <v>1031</v>
       </c>
       <c r="M46" s="16"/>
     </row>
     <row r="47" spans="1:13" ht="27">
       <c r="A47" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B47" s="3"/>
       <c r="L47" s="16" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="M47" s="16"/>
     </row>
     <row r="48" spans="1:13" ht="27">
       <c r="A48" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B48" s="3"/>
       <c r="L48" s="16" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="M48" s="16"/>
     </row>
@@ -10150,42 +10754,42 @@
       </c>
       <c r="B49" s="3"/>
       <c r="L49" s="16" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M49" s="16"/>
     </row>
     <row r="50" spans="1:16" ht="27">
       <c r="A50" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B50" s="3"/>
       <c r="L50" s="16" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="M50" s="16"/>
     </row>
     <row r="51" spans="1:16" ht="27">
       <c r="A51" s="13" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
       <c r="L51" s="16"/>
       <c r="M51" s="16" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="27">
       <c r="A52" s="13" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="L52" s="16"/>
       <c r="M52" s="16" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="30" customHeight="1">
@@ -10217,7 +10821,7 @@
         <v>431</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="N56" s="17" t="s">
         <v>421</v>
@@ -10228,7 +10832,7 @@
         <v>433</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="N57" s="17" t="s">
         <v>421</v>
@@ -10255,7 +10859,7 @@
         <v>499</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="O60" t="s">
         <v>444</v>
@@ -10266,7 +10870,7 @@
         <v>501</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O61" t="s">
         <v>444</v>
@@ -10325,7 +10929,7 @@
         <v>497</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="P68" s="3" t="s">
         <v>481</v>
@@ -10336,7 +10940,7 @@
         <v>503</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="P69" s="3" t="s">
         <v>481</v>
@@ -10387,7 +10991,7 @@
         <v>519</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="P75" s="3" t="s">
         <v>481</v>
@@ -10398,7 +11002,7 @@
         <v>520</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>481</v>
@@ -10473,7 +11077,7 @@
         <v>575</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="Q85" s="2" t="s">
         <v>539</v>
@@ -10484,7 +11088,7 @@
         <v>572</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q86" s="2" t="s">
         <v>539</v>
@@ -10611,7 +11215,7 @@
         <v>48</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="S100" s="6"/>
       <c r="T100" s="6"/>
@@ -10624,7 +11228,7 @@
         <v>49</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="S101" s="6"/>
       <c r="T101" s="6"/>
@@ -10643,8 +11247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H186"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90:A93"/>
+    <sheetView topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10687,7 +11291,7 @@
         <v>157</v>
       </c>
       <c r="B2" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>158</v>
@@ -10705,7 +11309,7 @@
         <v>159</v>
       </c>
       <c r="B3" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>160</v>
@@ -11057,7 +11661,7 @@
         <v>172</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1">
@@ -11152,7 +11756,7 @@
         <v>199</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>162</v>
@@ -11163,7 +11767,7 @@
         <v>246</v>
       </c>
       <c r="B28" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>217</v>
@@ -11183,7 +11787,7 @@
         <v>245</v>
       </c>
       <c r="B29" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>217</v>
@@ -11320,7 +11924,7 @@
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="B36" s="6">
         <v>0</v>
@@ -11934,7 +12538,7 @@
         <v>0</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>306</v>
@@ -12468,7 +13072,7 @@
     </row>
     <row r="94" spans="1:8" ht="30" customHeight="1">
       <c r="A94" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B94" s="6">
         <v>0</v>
@@ -12477,7 +13081,7 @@
         <v>642</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>641</v>
@@ -12489,12 +13093,12 @@
         <v>162</v>
       </c>
       <c r="H94" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="30" customHeight="1">
       <c r="A95" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B95" s="6">
         <v>0</v>
@@ -12503,7 +13107,7 @@
         <v>642</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>641</v>
@@ -12536,7 +13140,7 @@
     </row>
     <row r="97" spans="1:6" ht="30" customHeight="1">
       <c r="A97" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B97" s="6">
         <v>0</v>
@@ -12545,7 +13149,7 @@
         <v>218</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>641</v>
@@ -12556,7 +13160,7 @@
     </row>
     <row r="98" spans="1:6" ht="30" customHeight="1">
       <c r="A98" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B98" s="6">
         <v>0</v>
@@ -12565,7 +13169,7 @@
         <v>210</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>641</v>
@@ -12576,7 +13180,7 @@
     </row>
     <row r="99" spans="1:6" ht="30" customHeight="1">
       <c r="A99" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B99" s="6">
         <v>0</v>
@@ -12585,7 +13189,7 @@
         <v>650</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>641</v>
@@ -12596,7 +13200,7 @@
     </row>
     <row r="100" spans="1:6" ht="30" customHeight="1">
       <c r="A100" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B100" s="6">
         <v>0</v>
@@ -12605,7 +13209,7 @@
         <v>642</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>651</v>
@@ -12616,7 +13220,7 @@
     </row>
     <row r="101" spans="1:6" ht="30" customHeight="1">
       <c r="A101" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B101" s="6">
         <v>0</v>
@@ -12625,7 +13229,7 @@
         <v>642</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>651</v>
@@ -12636,7 +13240,7 @@
     </row>
     <row r="102" spans="1:6" ht="30" customHeight="1">
       <c r="A102" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B102" s="6">
         <v>0</v>
@@ -12656,7 +13260,7 @@
     </row>
     <row r="103" spans="1:6" ht="30" customHeight="1">
       <c r="A103" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B103" s="6">
         <v>0</v>
@@ -12665,10 +13269,10 @@
         <v>642</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>162</v>
@@ -12676,7 +13280,7 @@
     </row>
     <row r="104" spans="1:6" ht="30" customHeight="1">
       <c r="A104" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B104" s="6">
         <v>0</v>
@@ -12685,10 +13289,10 @@
         <v>642</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>151</v>
@@ -13765,7 +14369,7 @@
         <v>208</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="E158" s="6" t="s">
         <v>556</v>
@@ -13976,7 +14580,7 @@
     </row>
     <row r="169" spans="1:6" ht="30" customHeight="1">
       <c r="A169" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B169" s="6">
         <v>0</v>
@@ -13996,13 +14600,13 @@
     </row>
     <row r="170" spans="1:6" ht="30" customHeight="1">
       <c r="A170" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B170" s="6">
         <v>0</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D170" s="6" t="s">
         <v>581</v>
@@ -14016,7 +14620,7 @@
     </row>
     <row r="171" spans="1:6" ht="30" customHeight="1">
       <c r="A171" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B171" s="6">
         <v>0</v>
@@ -14036,7 +14640,7 @@
     </row>
     <row r="172" spans="1:6" ht="30" customHeight="1">
       <c r="A172" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B172" s="6">
         <v>0</v>
@@ -14056,7 +14660,7 @@
     </row>
     <row r="173" spans="1:6" ht="30" customHeight="1">
       <c r="A173" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B173" s="6">
         <v>0</v>
@@ -14335,8 +14939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14354,16 +14958,16 @@
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="22.5" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>2</v>
@@ -14372,91 +14976,91 @@
         <v>3</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="40.5">
       <c r="A2" s="5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:9" ht="40.5">
       <c r="A3" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
     </row>
     <row r="4" spans="1:9" ht="40.5">
       <c r="A4" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="40.5">
       <c r="A5" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>711</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>712</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="40.5">
       <c r="A6" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>695</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>696</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
     </row>
     <row r="7" spans="1:9" ht="40.5">
       <c r="A7" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:9" ht="40.5">
       <c r="A8" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>703</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>704</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
     </row>
     <row r="9" spans="1:9" ht="40.5">
       <c r="A9" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -14522,7 +15126,7 @@
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1">
       <c r="A17" s="13" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>41</v>
@@ -14530,7 +15134,7 @@
     </row>
     <row r="18" spans="1:8" ht="30" customHeight="1">
       <c r="A18" s="13" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>42</v>
@@ -14538,144 +15142,144 @@
     </row>
     <row r="19" spans="1:8" ht="40.5">
       <c r="A19" s="13" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="40.5">
       <c r="A20" s="13" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:8" ht="41.25" customHeight="1">
       <c r="A21" s="13" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="7" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="41.25" customHeight="1">
       <c r="A22" s="13" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="94.5">
       <c r="A23" s="13" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C23" s="7"/>
       <c r="H23" s="16" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="67.5">
       <c r="A24" s="13" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="40.5">
       <c r="A25" s="13" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="40.5">
       <c r="A26" s="13" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="40.5">
       <c r="A27" s="13" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="40.5">
       <c r="A28" s="13" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="40.5">
       <c r="A29" s="13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="40.5">
       <c r="A30" s="13" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="40.5">
       <c r="A31" s="13" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
   </sheetData>
@@ -14732,19 +15336,19 @@
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>162</v>
@@ -14753,24 +15357,24 @@
         <v>162</v>
       </c>
       <c r="H2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>151</v>
@@ -14779,24 +15383,24 @@
         <v>151</v>
       </c>
       <c r="H3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>151</v>
@@ -14805,24 +15409,24 @@
         <v>151</v>
       </c>
       <c r="H4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>151</v>
@@ -14831,24 +15435,24 @@
         <v>151</v>
       </c>
       <c r="H5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>162</v>
@@ -14857,24 +15461,24 @@
         <v>162</v>
       </c>
       <c r="H6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B7" s="6">
         <v>0</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>162</v>
@@ -14883,24 +15487,24 @@
         <v>162</v>
       </c>
       <c r="H7" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B8" s="6">
         <v>0</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>162</v>
@@ -14909,24 +15513,24 @@
         <v>162</v>
       </c>
       <c r="H8" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B9" s="6">
         <v>0</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>151</v>
@@ -14935,24 +15539,24 @@
         <v>151</v>
       </c>
       <c r="H9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B10" s="6">
         <v>0</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>151</v>
@@ -14961,24 +15565,24 @@
         <v>151</v>
       </c>
       <c r="H10" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B11" s="6">
         <v>0</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>151</v>
@@ -14987,24 +15591,24 @@
         <v>151</v>
       </c>
       <c r="H11" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B12" s="6">
         <v>0</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>695</v>
-      </c>
       <c r="E12" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>162</v>
@@ -15013,24 +15617,24 @@
         <v>162</v>
       </c>
       <c r="H12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B13" s="6">
         <v>0</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>162</v>
@@ -15039,12 +15643,12 @@
         <v>162</v>
       </c>
       <c r="H13" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B14" s="6">
         <v>0</v>
@@ -15053,10 +15657,10 @@
         <v>208</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>162</v>
@@ -15065,12 +15669,12 @@
         <v>162</v>
       </c>
       <c r="H14" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B15" s="6">
         <v>0</v>
@@ -15079,10 +15683,10 @@
         <v>208</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>151</v>
@@ -15091,12 +15695,12 @@
         <v>151</v>
       </c>
       <c r="H15" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B16" s="6">
         <v>0</v>
@@ -15105,10 +15709,10 @@
         <v>208</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>162</v>
@@ -15117,12 +15721,12 @@
         <v>162</v>
       </c>
       <c r="H16" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B17" s="6">
         <v>0</v>
@@ -15131,10 +15735,10 @@
         <v>208</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>151</v>
@@ -15143,24 +15747,24 @@
         <v>151</v>
       </c>
       <c r="H17" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B18" s="6">
         <v>0</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>38</v>
@@ -15169,24 +15773,24 @@
         <v>162</v>
       </c>
       <c r="H18" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B19" s="6">
         <v>0</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>18</v>
@@ -15195,24 +15799,24 @@
         <v>151</v>
       </c>
       <c r="H19" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B20" s="6">
         <v>0</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>38</v>
@@ -15221,24 +15825,24 @@
         <v>162</v>
       </c>
       <c r="H20" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B21" s="6">
         <v>0</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>38</v>
@@ -15247,24 +15851,24 @@
         <v>162</v>
       </c>
       <c r="H21" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="30" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B22" s="6">
         <v>0</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>18</v>
@@ -15273,24 +15877,24 @@
         <v>151</v>
       </c>
       <c r="H22" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B23" s="6">
         <v>0</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>18</v>
@@ -15299,24 +15903,24 @@
         <v>151</v>
       </c>
       <c r="H23" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="30" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B24" s="6">
         <v>0</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>18</v>
@@ -15325,24 +15929,24 @@
         <v>151</v>
       </c>
       <c r="H24" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B25" s="6">
         <v>0</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>38</v>
@@ -15351,24 +15955,24 @@
         <v>162</v>
       </c>
       <c r="H25" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="30" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B26" s="6">
         <v>0</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>18</v>
@@ -15377,12 +15981,12 @@
         <v>151</v>
       </c>
       <c r="H26" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B27" s="6">
         <v>0</v>
@@ -15391,10 +15995,10 @@
         <v>208</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>38</v>
@@ -15403,12 +16007,12 @@
         <v>162</v>
       </c>
       <c r="H27" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="30" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B28" s="6">
         <v>0</v>
@@ -15417,10 +16021,10 @@
         <v>208</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>38</v>
@@ -15429,12 +16033,12 @@
         <v>162</v>
       </c>
       <c r="H28" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B29" s="6">
         <v>0</v>
@@ -15443,10 +16047,10 @@
         <v>208</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>18</v>
@@ -15455,12 +16059,12 @@
         <v>151</v>
       </c>
       <c r="H29" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="30" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B30" s="6">
         <v>0</v>
@@ -15469,10 +16073,10 @@
         <v>208</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>38</v>
@@ -15481,12 +16085,12 @@
         <v>162</v>
       </c>
       <c r="H30" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B31" s="6">
         <v>0</v>
@@ -15495,10 +16099,10 @@
         <v>208</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>18</v>
@@ -15507,12 +16111,12 @@
         <v>151</v>
       </c>
       <c r="H31" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="30" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B32" s="6">
         <v>0</v>
@@ -15521,10 +16125,10 @@
         <v>208</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>38</v>
@@ -15533,12 +16137,12 @@
         <v>162</v>
       </c>
       <c r="H32" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B33" s="6">
         <v>0</v>
@@ -15547,10 +16151,10 @@
         <v>208</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>18</v>
@@ -15559,12 +16163,12 @@
         <v>151</v>
       </c>
       <c r="H33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="30" customHeight="1">
       <c r="A34" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B34" s="6">
         <v>0</v>
@@ -15573,10 +16177,10 @@
         <v>208</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>38</v>
@@ -15585,12 +16189,12 @@
         <v>162</v>
       </c>
       <c r="H34" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B35" s="6">
         <v>0</v>
@@ -15599,10 +16203,10 @@
         <v>208</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>18</v>
@@ -15611,7 +16215,7 @@
         <v>151</v>
       </c>
       <c r="H35" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
   </sheetData>

--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2822" uniqueCount="1145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2837" uniqueCount="1150">
   <si>
     <t>{"photoAuthStatus":"AS"}</t>
   </si>
@@ -4649,6 +4649,28 @@
   </si>
   <si>
     <t>{"certAuthStatus":"AS","custName":"戚广晓","idNo":"530101199108177729","cardNo":"6217001000000000212","userRole":"BORROWERS"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三线城市工作认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "companyId": "999", "companyName": "测试公司", "companyScaleMax": "100", "companyScaleMin": "0", "companyProvince": "江苏省", "companyCity": "淮安市",
+"laborRelationsType": "正式", "workStatus": "正常", "monthlySalaryMax": "10000", "monthlySalaryMin": "8001" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一线城市工作认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "companyId": "999", "companyName": "测试公司", "companyScaleMax": "100", "companyScaleMin": "0", "companyProvince": "江苏省", "companyCity": "南京市",
+"laborRelationsType": "正式", "workStatus": "正常", "monthlySalaryMax": "10000", "monthlySalaryMin": "8001" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑名单工作认证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5085,10 +5107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5767,6 +5789,22 @@
       </c>
       <c r="B84" s="4" t="s">
         <v>1128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="27">
+      <c r="A85" s="4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="27">
+      <c r="A86" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>1148</v>
       </c>
     </row>
   </sheetData>
@@ -6145,10 +6183,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N73"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8767,6 +8805,41 @@
       </c>
       <c r="N73" s="22" t="s">
         <v>1119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="30" customHeight="1">
+      <c r="A74" s="4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>940</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="I74" s="22" t="s">
+        <v>917</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="K74" s="22" t="s">
+        <v>924</v>
+      </c>
+      <c r="L74" s="22" t="s">
+        <v>1097</v>
+      </c>
+      <c r="N74" s="22" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4005" windowWidth="21735" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="4005" windowWidth="21735" windowHeight="4635" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="元数据表" sheetId="11" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2837" uniqueCount="1150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2843" uniqueCount="1153">
   <si>
     <t>{"photoAuthStatus":"AS"}</t>
   </si>
@@ -4543,10 +4543,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当天创建的待还订单(复大)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4671,6 +4667,22 @@
   </si>
   <si>
     <t>黑名单工作认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天创建的待还订单(复大)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复大医疗待还订单待还订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P014_有待还的复大医疗订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P014</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5109,8 +5121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5396,7 +5408,7 @@
         <v>1037</v>
       </c>
       <c r="B35" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -5636,7 +5648,7 @@
         <v>1002</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -5644,7 +5656,7 @@
         <v>1062</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -5652,7 +5664,7 @@
         <v>1004</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -5660,7 +5672,7 @@
         <v>1008</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -5668,7 +5680,7 @@
         <v>1116</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -5676,7 +5688,7 @@
         <v>1038</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -5684,7 +5696,7 @@
         <v>1013</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -5692,7 +5704,7 @@
         <v>1072</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -5700,7 +5712,7 @@
         <v>1018</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -5708,7 +5720,7 @@
         <v>1061</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -5716,7 +5728,7 @@
         <v>1067</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -5724,7 +5736,7 @@
         <v>1028</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -5732,7 +5744,7 @@
         <v>1029</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -5740,7 +5752,7 @@
         <v>1041</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -5748,7 +5760,7 @@
         <v>1045</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -5756,7 +5768,7 @@
         <v>1091</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -5764,7 +5776,7 @@
         <v>1114</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -5772,15 +5784,15 @@
         <v>1090</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
-        <v>1117</v>
+        <v>1149</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="27">
@@ -5788,23 +5800,23 @@
         <v>1096</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="27">
       <c r="A85" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>1145</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="27">
       <c r="A86" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>1147</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>1148</v>
       </c>
     </row>
   </sheetData>
@@ -6185,8 +6197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8062,7 +8074,7 @@
     </row>
     <row r="54" spans="1:14" ht="30" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B54" s="21" t="s">
         <v>676</v>
@@ -8689,7 +8701,7 @@
     </row>
     <row r="71" spans="1:14" ht="30" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B71" s="21" t="s">
         <v>1</v>
@@ -8697,7 +8709,9 @@
       <c r="C71" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D71" s="7"/>
+      <c r="D71" s="7" t="s">
+        <v>938</v>
+      </c>
       <c r="E71" s="5" t="s">
         <v>985</v>
       </c>
@@ -8707,7 +8721,9 @@
       <c r="G71" s="7" t="s">
         <v>899</v>
       </c>
-      <c r="H71" s="7"/>
+      <c r="H71" s="7" t="s">
+        <v>907</v>
+      </c>
       <c r="I71" s="22" t="s">
         <v>917</v>
       </c>
@@ -8721,15 +8737,15 @@
         <v>1096</v>
       </c>
       <c r="M71" s="22" t="s">
+        <v>1117</v>
+      </c>
+      <c r="N71" s="22" t="s">
         <v>1118</v>
-      </c>
-      <c r="N71" s="22" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="30" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B72" s="21" t="s">
         <v>1</v>
@@ -8761,15 +8777,15 @@
         <v>1096</v>
       </c>
       <c r="M72" s="22" t="s">
+        <v>1117</v>
+      </c>
+      <c r="N72" s="22" t="s">
         <v>1118</v>
-      </c>
-      <c r="N72" s="22" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="30" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B73" s="21" t="s">
         <v>1</v>
@@ -8804,12 +8820,12 @@
         <v>1026</v>
       </c>
       <c r="N73" s="22" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="30" customHeight="1">
       <c r="A74" s="4" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B74" s="21" t="s">
         <v>1</v>
@@ -10142,8 +10158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView topLeftCell="G37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11318,10 +11334,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H186"/>
+  <dimension ref="A1:H187"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="B185" sqref="B185"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11837,27 +11853,25 @@
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>246</v>
+        <v>1151</v>
       </c>
       <c r="B28" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>212</v>
-      </c>
+        <v>1150</v>
+      </c>
+      <c r="D28" s="6"/>
       <c r="E28" s="6" t="s">
-        <v>211</v>
+        <v>1152</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B29" s="6">
         <v>0</v>
@@ -11866,7 +11880,7 @@
         <v>217</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>211</v>
@@ -11877,7 +11891,7 @@
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B30" s="6">
         <v>0</v>
@@ -11886,18 +11900,18 @@
         <v>217</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>211</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="B31" s="6">
         <v>0</v>
@@ -11906,7 +11920,7 @@
         <v>217</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>211</v>
@@ -11917,7 +11931,7 @@
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B32" s="6">
         <v>0</v>
@@ -11926,7 +11940,7 @@
         <v>217</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>211</v>
@@ -11937,27 +11951,27 @@
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B33" s="6">
         <v>0</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>211</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1">
       <c r="A34" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B34" s="6">
         <v>0</v>
@@ -11966,18 +11980,18 @@
         <v>209</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>211</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B35" s="6">
         <v>0</v>
@@ -11986,7 +12000,7 @@
         <v>209</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>211</v>
@@ -11997,27 +12011,27 @@
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>977</v>
+        <v>221</v>
       </c>
       <c r="B36" s="6">
         <v>0</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>211</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>230</v>
+        <v>977</v>
       </c>
       <c r="B37" s="6">
         <v>0</v>
@@ -12026,18 +12040,18 @@
         <v>222</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>211</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1">
       <c r="A38" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B38" s="6">
         <v>0</v>
@@ -12046,7 +12060,7 @@
         <v>222</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>211</v>
@@ -12057,33 +12071,33 @@
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="B39" s="6">
         <v>0</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>217</v>
+        <v>222</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>225</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="30" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B40" s="6">
         <v>0</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>251</v>
@@ -12094,7 +12108,7 @@
     </row>
     <row r="41" spans="1:6" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B41" s="6">
         <v>0</v>
@@ -12103,38 +12117,38 @@
         <v>209</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>251</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30" customHeight="1">
       <c r="A42" s="5" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="B42" s="6">
         <v>0</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>251</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B43" s="6">
         <v>0</v>
@@ -12143,47 +12157,47 @@
         <v>222</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>251</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1">
       <c r="A44" s="5" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="B44" s="6">
         <v>0</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>217</v>
+        <v>222</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="B45" s="6">
         <v>0</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>151</v>
@@ -12191,7 +12205,7 @@
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1">
       <c r="A46" s="5" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="B46" s="6">
         <v>0</v>
@@ -12200,18 +12214,18 @@
         <v>209</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>269</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>345</v>
+        <v>285</v>
       </c>
       <c r="B47" s="6">
         <v>0</v>
@@ -12220,18 +12234,18 @@
         <v>209</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>347</v>
+        <v>265</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>269</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1">
       <c r="A48" s="5" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B48" s="6">
         <v>0</v>
@@ -12240,38 +12254,38 @@
         <v>209</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>269</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>286</v>
+        <v>353</v>
       </c>
       <c r="B49" s="6">
         <v>0</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>264</v>
+        <v>355</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>269</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="30" customHeight="1">
       <c r="A50" s="5" t="s">
-        <v>348</v>
+        <v>286</v>
       </c>
       <c r="B50" s="6">
         <v>0</v>
@@ -12280,38 +12294,38 @@
         <v>222</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>269</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="30" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B51" s="6">
         <v>0</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>350</v>
+        <v>265</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>269</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="30" customHeight="1">
       <c r="A52" s="5" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B52" s="6">
         <v>0</v>
@@ -12320,38 +12334,38 @@
         <v>210</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>269</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="30" customHeight="1">
       <c r="A53" s="5" t="s">
-        <v>279</v>
+        <v>354</v>
       </c>
       <c r="B53" s="6">
         <v>0</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>273</v>
+        <v>355</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="30" customHeight="1">
       <c r="A54" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B54" s="6">
         <v>0</v>
@@ -12360,41 +12374,44 @@
         <v>217</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>278</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="30" customHeight="1">
       <c r="A55" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B55" s="6">
         <v>0</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>209</v>
+        <v>217</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>274</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>278</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="30" customHeight="1">
       <c r="A56" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B56" s="6">
         <v>0</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>278</v>
@@ -12405,19 +12422,16 @@
     </row>
     <row r="57" spans="1:6" ht="30" customHeight="1">
       <c r="A57" s="5" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B57" s="6">
         <v>0</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>292</v>
+        <v>222</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>151</v>
@@ -12425,56 +12439,56 @@
     </row>
     <row r="58" spans="1:6" ht="30" customHeight="1">
       <c r="A58" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B58" s="6">
         <v>0</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>217</v>
+        <v>330</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="30" customHeight="1">
       <c r="A59" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B59" s="6">
         <v>0</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>321</v>
+        <v>217</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>293</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="30" customHeight="1">
       <c r="A60" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B60" s="6">
         <v>0</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>209</v>
+        <v>321</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>293</v>
@@ -12485,16 +12499,16 @@
     </row>
     <row r="61" spans="1:6" ht="30" customHeight="1">
       <c r="A61" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B61" s="6">
         <v>0</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>293</v>
@@ -12505,7 +12519,7 @@
     </row>
     <row r="62" spans="1:6" ht="30" customHeight="1">
       <c r="A62" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B62" s="6">
         <v>0</v>
@@ -12514,7 +12528,7 @@
         <v>210</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>293</v>
@@ -12525,19 +12539,19 @@
     </row>
     <row r="63" spans="1:6" ht="30" customHeight="1">
       <c r="A63" s="5" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B63" s="6">
         <v>0</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>317</v>
+        <v>210</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>151</v>
@@ -12545,16 +12559,16 @@
     </row>
     <row r="64" spans="1:6" ht="30" customHeight="1">
       <c r="A64" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B64" s="6">
         <v>0</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>303</v>
@@ -12565,7 +12579,7 @@
     </row>
     <row r="65" spans="1:6" ht="30" customHeight="1">
       <c r="A65" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B65" s="6">
         <v>0</v>
@@ -12574,7 +12588,7 @@
         <v>316</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>303</v>
@@ -12585,53 +12599,53 @@
     </row>
     <row r="66" spans="1:6" ht="30" customHeight="1">
       <c r="A66" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B66" s="6">
         <v>0</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>303</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="30" customHeight="1">
       <c r="A67" s="5" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B67" s="6">
         <v>0</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>980</v>
+        <v>317</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>303</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="30" customHeight="1">
       <c r="A68" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B68" s="6">
         <v>0</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>323</v>
+        <v>980</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>306</v>
@@ -12645,13 +12659,13 @@
     </row>
     <row r="69" spans="1:6" ht="30" customHeight="1">
       <c r="A69" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B69" s="6">
         <v>0</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>210</v>
+        <v>323</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>306</v>
@@ -12665,27 +12679,27 @@
     </row>
     <row r="70" spans="1:6" ht="30" customHeight="1">
       <c r="A70" s="5" t="s">
-        <v>400</v>
+        <v>324</v>
       </c>
       <c r="B70" s="6">
         <v>0</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>329</v>
+        <v>210</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>358</v>
+        <v>306</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>362</v>
+        <v>303</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="30" customHeight="1">
       <c r="A71" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B71" s="6">
         <v>0</v>
@@ -12694,18 +12708,18 @@
         <v>329</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>362</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="30" customHeight="1">
       <c r="A72" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B72" s="6">
         <v>0</v>
@@ -12714,7 +12728,7 @@
         <v>329</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>362</v>
@@ -12725,7 +12739,7 @@
     </row>
     <row r="73" spans="1:6" ht="30" customHeight="1">
       <c r="A73" s="5" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="B73" s="6">
         <v>0</v>
@@ -12734,18 +12748,18 @@
         <v>329</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>363</v>
+        <v>391</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>362</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="30" customHeight="1">
       <c r="A74" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B74" s="6">
         <v>0</v>
@@ -12754,7 +12768,7 @@
         <v>329</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>362</v>
@@ -12765,7 +12779,7 @@
     </row>
     <row r="75" spans="1:6" ht="30" customHeight="1">
       <c r="A75" s="5" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B75" s="6">
         <v>0</v>
@@ -12774,7 +12788,7 @@
         <v>329</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>362</v>
@@ -12785,7 +12799,7 @@
     </row>
     <row r="76" spans="1:6" ht="30" customHeight="1">
       <c r="A76" s="5" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B76" s="6">
         <v>0</v>
@@ -12794,18 +12808,18 @@
         <v>329</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>362</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="30" customHeight="1">
       <c r="A77" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B77" s="6">
         <v>0</v>
@@ -12814,18 +12828,18 @@
         <v>329</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>362</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="30" customHeight="1">
       <c r="A78" s="5" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="B78" s="6">
         <v>0</v>
@@ -12834,7 +12848,7 @@
         <v>329</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>362</v>
@@ -12845,7 +12859,7 @@
     </row>
     <row r="79" spans="1:6" ht="30" customHeight="1">
       <c r="A79" s="5" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="B79" s="6">
         <v>0</v>
@@ -12854,18 +12868,18 @@
         <v>329</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>362</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="30" customHeight="1">
       <c r="A80" s="5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B80" s="6">
         <v>0</v>
@@ -12874,38 +12888,38 @@
         <v>329</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>362</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="30" customHeight="1">
       <c r="A81" s="5" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="B81" s="6">
         <v>0</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>362</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="30" customHeight="1">
       <c r="A82" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B82" s="6">
         <v>0</v>
@@ -12914,38 +12928,38 @@
         <v>323</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>362</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="30" customHeight="1">
       <c r="A83" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B83" s="6">
         <v>0</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>210</v>
+        <v>323</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>362</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="30" customHeight="1">
       <c r="A84" s="5" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B84" s="6">
         <v>0</v>
@@ -12954,38 +12968,38 @@
         <v>210</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>362</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="30" customHeight="1">
       <c r="A85" s="5" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B85" s="6">
         <v>0</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>329</v>
+        <v>210</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="30" customHeight="1">
       <c r="A86" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B86" s="6">
         <v>0</v>
@@ -12994,18 +13008,18 @@
         <v>329</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>325</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="30" customHeight="1">
       <c r="A87" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B87" s="6">
         <v>0</v>
@@ -13014,7 +13028,7 @@
         <v>329</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>325</v>
@@ -13025,7 +13039,7 @@
     </row>
     <row r="88" spans="1:8" ht="30" customHeight="1">
       <c r="A88" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B88" s="6">
         <v>0</v>
@@ -13034,18 +13048,18 @@
         <v>329</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>325</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="30" customHeight="1">
       <c r="A89" s="5" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="B89" s="6">
         <v>0</v>
@@ -13054,38 +13068,38 @@
         <v>329</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>325</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="30" customHeight="1">
       <c r="A90" s="5" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="B90" s="6">
         <v>0</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>325</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="30" customHeight="1">
       <c r="A91" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B91" s="6">
         <v>0</v>
@@ -13094,84 +13108,78 @@
         <v>323</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>325</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="30" customHeight="1">
       <c r="A92" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B92" s="6">
         <v>0</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>430</v>
+        <v>323</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>325</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="30" customHeight="1">
       <c r="A93" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B93" s="6">
         <v>0</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>210</v>
+        <v>430</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>325</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="30" customHeight="1">
       <c r="A94" s="5" t="s">
-        <v>660</v>
+        <v>416</v>
       </c>
       <c r="B94" s="6">
         <v>0</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>642</v>
+        <v>210</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>987</v>
+        <v>335</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>641</v>
+        <v>325</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G94" t="s">
-        <v>162</v>
-      </c>
-      <c r="H94" t="s">
-        <v>816</v>
-      </c>
     </row>
     <row r="95" spans="1:8" ht="30" customHeight="1">
       <c r="A95" s="5" t="s">
-        <v>817</v>
+        <v>660</v>
       </c>
       <c r="B95" s="6">
         <v>0</v>
@@ -13180,66 +13188,72 @@
         <v>642</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>641</v>
       </c>
       <c r="F95" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G95" t="s">
+        <v>162</v>
+      </c>
+      <c r="H95" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="30" customHeight="1">
+      <c r="A96" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="B96" s="6">
+        <v>0</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>991</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="F96" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="20" customFormat="1" ht="30" customHeight="1">
-      <c r="A96" s="18" t="s">
+    <row r="97" spans="1:8" s="20" customFormat="1" ht="30" customHeight="1">
+      <c r="A97" s="18" t="s">
         <v>646</v>
       </c>
-      <c r="B96" s="6">
-        <v>0</v>
-      </c>
-      <c r="C96" s="19" t="s">
+      <c r="B97" s="6">
+        <v>0</v>
+      </c>
+      <c r="C97" s="19" t="s">
         <v>642</v>
       </c>
-      <c r="D96" s="19" t="s">
+      <c r="D97" s="19" t="s">
         <v>645</v>
       </c>
-      <c r="E96" s="19" t="s">
+      <c r="E97" s="19" t="s">
         <v>641</v>
       </c>
-      <c r="F96" s="19" t="s">
+      <c r="F97" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="G96"/>
-      <c r="H96"/>
-    </row>
-    <row r="97" spans="1:6" ht="30" customHeight="1">
-      <c r="A97" s="5" t="s">
+      <c r="G97"/>
+      <c r="H97"/>
+    </row>
+    <row r="98" spans="1:8" ht="30" customHeight="1">
+      <c r="A98" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="B97" s="6">
-        <v>0</v>
-      </c>
-      <c r="C97" s="6" t="s">
+      <c r="B98" s="6">
+        <v>0</v>
+      </c>
+      <c r="C98" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="30" customHeight="1">
-      <c r="A98" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="B98" s="6">
-        <v>0</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>210</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>652</v>
@@ -13251,15 +13265,15 @@
         <v>162</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="30" customHeight="1">
+    <row r="99" spans="1:8" ht="30" customHeight="1">
       <c r="A99" s="5" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B99" s="6">
         <v>0</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>650</v>
+        <v>210</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>652</v>
@@ -13268,32 +13282,32 @@
         <v>641</v>
       </c>
       <c r="F99" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="30" customHeight="1">
+      <c r="A100" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="B100" s="6">
+        <v>0</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="F100" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="30" customHeight="1">
-      <c r="A100" s="5" t="s">
+    <row r="101" spans="1:8" ht="30" customHeight="1">
+      <c r="A101" s="5" t="s">
         <v>663</v>
-      </c>
-      <c r="B100" s="6">
-        <v>0</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>642</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>655</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="30" customHeight="1">
-      <c r="A101" s="5" t="s">
-        <v>665</v>
       </c>
       <c r="B101" s="6">
         <v>0</v>
@@ -13302,27 +13316,27 @@
         <v>642</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>651</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="30" customHeight="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="30" customHeight="1">
       <c r="A102" s="5" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="B102" s="6">
         <v>0</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>651</v>
@@ -13331,29 +13345,29 @@
         <v>151</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="30" customHeight="1">
+    <row r="103" spans="1:8" ht="30" customHeight="1">
       <c r="A103" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="B103" s="6">
+        <v>0</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="30" customHeight="1">
+      <c r="A104" s="5" t="s">
         <v>673</v>
-      </c>
-      <c r="B103" s="6">
-        <v>0</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>642</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="30" customHeight="1">
-      <c r="A104" s="5" t="s">
-        <v>672</v>
       </c>
       <c r="B104" s="6">
         <v>0</v>
@@ -13362,38 +13376,38 @@
         <v>642</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>990</v>
+        <v>667</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>671</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="30" customHeight="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="30" customHeight="1">
       <c r="A105" s="5" t="s">
-        <v>424</v>
+        <v>672</v>
       </c>
       <c r="B105" s="6">
         <v>0</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>329</v>
+        <v>642</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>418</v>
+        <v>990</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>423</v>
+        <v>671</v>
       </c>
       <c r="F105" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="30" customHeight="1">
+    <row r="106" spans="1:8" ht="30" customHeight="1">
       <c r="A106" s="5" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="B106" s="6">
         <v>0</v>
@@ -13402,7 +13416,7 @@
         <v>329</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>423</v>
@@ -13411,9 +13425,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="30" customHeight="1">
+    <row r="107" spans="1:8" ht="30" customHeight="1">
       <c r="A107" s="5" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B107" s="6">
         <v>0</v>
@@ -13422,38 +13436,38 @@
         <v>329</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>423</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="30" customHeight="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="30" customHeight="1">
       <c r="A108" s="5" t="s">
-        <v>647</v>
+        <v>429</v>
       </c>
       <c r="B108" s="6">
         <v>0</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>423</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="30" customHeight="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="30" customHeight="1">
       <c r="A109" s="5" t="s">
-        <v>427</v>
+        <v>647</v>
       </c>
       <c r="B109" s="6">
         <v>0</v>
@@ -13462,38 +13476,38 @@
         <v>323</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="E109" s="6" t="s">
         <v>423</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="30" customHeight="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="30" customHeight="1">
       <c r="A110" s="5" t="s">
-        <v>648</v>
+        <v>427</v>
       </c>
       <c r="B110" s="6">
         <v>0</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>430</v>
+        <v>323</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>423</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="30" customHeight="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="30" customHeight="1">
       <c r="A111" s="5" t="s">
-        <v>524</v>
+        <v>648</v>
       </c>
       <c r="B111" s="6">
         <v>0</v>
@@ -13502,78 +13516,78 @@
         <v>430</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="E111" s="6" t="s">
         <v>423</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="30" customHeight="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="30" customHeight="1">
       <c r="A112" s="5" t="s">
-        <v>436</v>
+        <v>524</v>
       </c>
       <c r="B112" s="6">
         <v>0</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>329</v>
+        <v>430</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="E112" s="6" t="s">
         <v>423</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="30" customHeight="1">
       <c r="A113" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B113" s="6">
         <v>0</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>459</v>
+        <v>329</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E113" s="6" t="s">
         <v>423</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="30" customHeight="1">
       <c r="A114" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B114" s="6">
         <v>0</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>323</v>
+        <v>459</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E114" s="6" t="s">
         <v>423</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="30" customHeight="1">
       <c r="A115" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B115" s="6">
         <v>0</v>
@@ -13582,38 +13596,38 @@
         <v>323</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E115" s="6" t="s">
         <v>423</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="30" customHeight="1">
       <c r="A116" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B116" s="6">
         <v>0</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>430</v>
+        <v>323</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E116" s="6" t="s">
         <v>423</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="30" customHeight="1">
       <c r="A117" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B117" s="6">
         <v>0</v>
@@ -13622,30 +13636,30 @@
         <v>430</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E117" s="6" t="s">
         <v>423</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="30" customHeight="1">
       <c r="A118" s="5" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="B118" s="6">
         <v>0</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>448</v>
+        <v>423</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>162</v>
@@ -13653,7 +13667,7 @@
     </row>
     <row r="119" spans="1:6" ht="30" customHeight="1">
       <c r="A119" s="5" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B119" s="6">
         <v>0</v>
@@ -13662,27 +13676,27 @@
         <v>450</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="E119" s="6" t="s">
         <v>448</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="30" customHeight="1">
       <c r="A120" s="5" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B120" s="6">
         <v>0</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="E120" s="6" t="s">
         <v>448</v>
@@ -13693,36 +13707,36 @@
     </row>
     <row r="121" spans="1:6" ht="30" customHeight="1">
       <c r="A121" s="5" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="B121" s="6">
         <v>0</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="E121" s="6" t="s">
         <v>448</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="30" customHeight="1">
       <c r="A122" s="5" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="B122" s="6">
         <v>0</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="E122" s="6" t="s">
         <v>448</v>
@@ -13733,16 +13747,16 @@
     </row>
     <row r="123" spans="1:6" ht="30" customHeight="1">
       <c r="A123" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B123" s="6">
         <v>0</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="E123" s="6" t="s">
         <v>448</v>
@@ -13753,7 +13767,7 @@
     </row>
     <row r="124" spans="1:6" ht="30" customHeight="1">
       <c r="A124" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B124" s="6">
         <v>0</v>
@@ -13762,27 +13776,27 @@
         <v>465</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="E124" s="6" t="s">
         <v>448</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="30" customHeight="1">
       <c r="A125" s="5" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B125" s="6">
         <v>0</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="E125" s="6" t="s">
         <v>448</v>
@@ -13793,13 +13807,13 @@
     </row>
     <row r="126" spans="1:6" ht="30" customHeight="1">
       <c r="A126" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B126" s="6">
         <v>0</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>469</v>
@@ -13813,16 +13827,16 @@
     </row>
     <row r="127" spans="1:6" ht="30" customHeight="1">
       <c r="A127" s="5" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B127" s="6">
         <v>0</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E127" s="6" t="s">
         <v>448</v>
@@ -13833,7 +13847,7 @@
     </row>
     <row r="128" spans="1:6" ht="30" customHeight="1">
       <c r="A128" s="5" t="s">
-        <v>502</v>
+        <v>477</v>
       </c>
       <c r="B128" s="6">
         <v>0</v>
@@ -13842,38 +13856,38 @@
         <v>475</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>500</v>
+        <v>473</v>
       </c>
       <c r="E128" s="6" t="s">
         <v>448</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="30" customHeight="1">
       <c r="A129" s="5" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="B129" s="6">
         <v>0</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="30" customHeight="1">
       <c r="A130" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B130" s="6">
         <v>0</v>
@@ -13882,7 +13896,7 @@
         <v>460</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E130" s="6" t="s">
         <v>488</v>
@@ -13893,7 +13907,7 @@
     </row>
     <row r="131" spans="1:6" ht="30" customHeight="1">
       <c r="A131" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B131" s="6">
         <v>0</v>
@@ -13902,18 +13916,18 @@
         <v>460</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E131" s="6" t="s">
         <v>488</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="30" customHeight="1">
       <c r="A132" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B132" s="6">
         <v>0</v>
@@ -13922,18 +13936,18 @@
         <v>460</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="E132" s="6" t="s">
         <v>488</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="30" customHeight="1">
       <c r="A133" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B133" s="6">
         <v>0</v>
@@ -13942,7 +13956,7 @@
         <v>460</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E133" s="6" t="s">
         <v>488</v>
@@ -13953,7 +13967,7 @@
     </row>
     <row r="134" spans="1:6" ht="30" customHeight="1">
       <c r="A134" s="5" t="s">
-        <v>548</v>
+        <v>495</v>
       </c>
       <c r="B134" s="6">
         <v>0</v>
@@ -13962,7 +13976,7 @@
         <v>460</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E134" s="6" t="s">
         <v>488</v>
@@ -13973,7 +13987,7 @@
     </row>
     <row r="135" spans="1:6" ht="30" customHeight="1">
       <c r="A135" s="5" t="s">
-        <v>498</v>
+        <v>548</v>
       </c>
       <c r="B135" s="6">
         <v>0</v>
@@ -13982,7 +13996,7 @@
         <v>460</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E135" s="6" t="s">
         <v>488</v>
@@ -13993,7 +14007,7 @@
     </row>
     <row r="136" spans="1:6" ht="30" customHeight="1">
       <c r="A136" s="5" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B136" s="6">
         <v>0</v>
@@ -14002,38 +14016,38 @@
         <v>460</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E136" s="6" t="s">
         <v>488</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="30" customHeight="1">
       <c r="A137" s="5" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B137" s="6">
         <v>0</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>323</v>
+        <v>460</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="E137" s="6" t="s">
         <v>488</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="30" customHeight="1">
       <c r="A138" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B138" s="6">
         <v>0</v>
@@ -14042,7 +14056,7 @@
         <v>323</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="E138" s="6" t="s">
         <v>488</v>
@@ -14053,7 +14067,7 @@
     </row>
     <row r="139" spans="1:6" ht="30" customHeight="1">
       <c r="A139" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B139" s="6">
         <v>0</v>
@@ -14062,18 +14076,18 @@
         <v>323</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E139" s="6" t="s">
         <v>488</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="30" customHeight="1">
       <c r="A140" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B140" s="6">
         <v>0</v>
@@ -14081,19 +14095,19 @@
       <c r="C140" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="D140" s="10" t="s">
-        <v>515</v>
+      <c r="D140" s="6" t="s">
+        <v>507</v>
       </c>
       <c r="E140" s="6" t="s">
         <v>488</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="30" customHeight="1">
       <c r="A141" s="5" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B141" s="6">
         <v>0</v>
@@ -14101,8 +14115,8 @@
       <c r="C141" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="D141" s="6" t="s">
-        <v>517</v>
+      <c r="D141" s="10" t="s">
+        <v>515</v>
       </c>
       <c r="E141" s="6" t="s">
         <v>488</v>
@@ -14113,7 +14127,7 @@
     </row>
     <row r="142" spans="1:6" ht="30" customHeight="1">
       <c r="A142" s="5" t="s">
-        <v>576</v>
+        <v>518</v>
       </c>
       <c r="B142" s="6">
         <v>0</v>
@@ -14122,7 +14136,7 @@
         <v>323</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E142" s="6" t="s">
         <v>488</v>
@@ -14133,7 +14147,7 @@
     </row>
     <row r="143" spans="1:6" ht="30" customHeight="1">
       <c r="A143" s="5" t="s">
-        <v>523</v>
+        <v>576</v>
       </c>
       <c r="B143" s="6">
         <v>0</v>
@@ -14142,38 +14156,38 @@
         <v>323</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E143" s="6" t="s">
         <v>488</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="30" customHeight="1">
       <c r="A144" s="5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B144" s="6">
         <v>0</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>430</v>
+        <v>323</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="E144" s="6" t="s">
         <v>488</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="30" customHeight="1">
       <c r="A145" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B145" s="6">
         <v>0</v>
@@ -14182,7 +14196,7 @@
         <v>430</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="E145" s="6" t="s">
         <v>488</v>
@@ -14193,7 +14207,7 @@
     </row>
     <row r="146" spans="1:6" ht="30" customHeight="1">
       <c r="A146" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B146" s="6">
         <v>0</v>
@@ -14202,18 +14216,18 @@
         <v>430</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E146" s="6" t="s">
         <v>488</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="30" customHeight="1">
       <c r="A147" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B147" s="6">
         <v>0</v>
@@ -14221,19 +14235,19 @@
       <c r="C147" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="D147" s="10" t="s">
-        <v>515</v>
+      <c r="D147" s="6" t="s">
+        <v>507</v>
       </c>
       <c r="E147" s="6" t="s">
         <v>488</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="30" customHeight="1">
       <c r="A148" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B148" s="6">
         <v>0</v>
@@ -14241,8 +14255,8 @@
       <c r="C148" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="D148" s="6" t="s">
-        <v>517</v>
+      <c r="D148" s="10" t="s">
+        <v>515</v>
       </c>
       <c r="E148" s="6" t="s">
         <v>488</v>
@@ -14253,7 +14267,7 @@
     </row>
     <row r="149" spans="1:6" ht="30" customHeight="1">
       <c r="A149" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B149" s="6">
         <v>0</v>
@@ -14262,7 +14276,7 @@
         <v>430</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E149" s="6" t="s">
         <v>488</v>
@@ -14273,7 +14287,7 @@
     </row>
     <row r="150" spans="1:6" ht="30" customHeight="1">
       <c r="A150" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B150" s="6">
         <v>0</v>
@@ -14282,38 +14296,38 @@
         <v>430</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E150" s="6" t="s">
         <v>488</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="30" customHeight="1">
       <c r="A151" s="5" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="B151" s="6">
         <v>0</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>208</v>
+        <v>430</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>536</v>
+        <v>488</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="30" customHeight="1">
       <c r="A152" s="5" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
       <c r="B152" s="6">
         <v>0</v>
@@ -14322,18 +14336,18 @@
         <v>208</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>577</v>
+        <v>535</v>
       </c>
       <c r="E152" s="6" t="s">
         <v>536</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="30" customHeight="1">
       <c r="A153" s="5" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B153" s="6">
         <v>0</v>
@@ -14342,7 +14356,7 @@
         <v>208</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>543</v>
+        <v>577</v>
       </c>
       <c r="E153" s="6" t="s">
         <v>536</v>
@@ -14353,7 +14367,7 @@
     </row>
     <row r="154" spans="1:6" ht="30" customHeight="1">
       <c r="A154" s="5" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B154" s="6">
         <v>0</v>
@@ -14361,19 +14375,19 @@
       <c r="C154" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="D154" s="10" t="s">
-        <v>547</v>
+      <c r="D154" s="6" t="s">
+        <v>543</v>
       </c>
       <c r="E154" s="6" t="s">
         <v>536</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="30" customHeight="1">
       <c r="A155" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B155" s="6">
         <v>0</v>
@@ -14382,7 +14396,7 @@
         <v>208</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="E155" s="6" t="s">
         <v>536</v>
@@ -14393,7 +14407,7 @@
     </row>
     <row r="156" spans="1:6" ht="30" customHeight="1">
       <c r="A156" s="5" t="s">
-        <v>585</v>
+        <v>566</v>
       </c>
       <c r="B156" s="6">
         <v>0</v>
@@ -14402,10 +14416,10 @@
         <v>208</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>556</v>
+        <v>536</v>
       </c>
       <c r="F156" s="6" t="s">
         <v>151</v>
@@ -14413,7 +14427,7 @@
     </row>
     <row r="157" spans="1:6" ht="30" customHeight="1">
       <c r="A157" s="5" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
       <c r="B157" s="6">
         <v>0</v>
@@ -14421,8 +14435,8 @@
       <c r="C157" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="D157" s="6" t="s">
-        <v>559</v>
+      <c r="D157" s="10" t="s">
+        <v>553</v>
       </c>
       <c r="E157" s="6" t="s">
         <v>556</v>
@@ -14433,7 +14447,7 @@
     </row>
     <row r="158" spans="1:6" ht="30" customHeight="1">
       <c r="A158" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B158" s="6">
         <v>0</v>
@@ -14442,18 +14456,18 @@
         <v>208</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>983</v>
+        <v>559</v>
       </c>
       <c r="E158" s="6" t="s">
         <v>556</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="30" customHeight="1">
       <c r="A159" s="5" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B159" s="6">
         <v>0</v>
@@ -14462,18 +14476,18 @@
         <v>208</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>573</v>
+        <v>983</v>
       </c>
       <c r="E159" s="6" t="s">
         <v>556</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="30" customHeight="1">
       <c r="A160" s="5" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B160" s="6">
         <v>0</v>
@@ -14482,58 +14496,58 @@
         <v>208</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E160" s="6" t="s">
         <v>556</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="30" customHeight="1">
       <c r="A161" s="5" t="s">
-        <v>593</v>
+        <v>574</v>
       </c>
       <c r="B161" s="6">
         <v>0</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>323</v>
+        <v>208</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>536</v>
+        <v>556</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="30" customHeight="1">
       <c r="A162" s="5" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B162" s="6">
         <v>0</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>208</v>
+        <v>323</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>580</v>
+        <v>536</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="30" customHeight="1">
       <c r="A163" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B163" s="6">
         <v>0</v>
@@ -14542,18 +14556,18 @@
         <v>208</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E163" s="6" t="s">
         <v>580</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="30" customHeight="1">
       <c r="A164" s="5" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="B164" s="6">
         <v>0</v>
@@ -14562,18 +14576,18 @@
         <v>208</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E164" s="6" t="s">
         <v>580</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="29.25" customHeight="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="30" customHeight="1">
       <c r="A165" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B165" s="6">
         <v>0</v>
@@ -14582,38 +14596,38 @@
         <v>208</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E165" s="6" t="s">
         <v>580</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="30" customHeight="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="29.25" customHeight="1">
       <c r="A166" s="5" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B166" s="6">
         <v>0</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>323</v>
+        <v>208</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="E166" s="6" t="s">
         <v>580</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="30" customHeight="1">
       <c r="A167" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B167" s="6">
         <v>0</v>
@@ -14622,18 +14636,18 @@
         <v>323</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E167" s="6" t="s">
         <v>580</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="30" customHeight="1">
       <c r="A168" s="5" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B168" s="6">
         <v>0</v>
@@ -14642,18 +14656,18 @@
         <v>323</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="E168" s="6" t="s">
         <v>580</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="30" customHeight="1">
       <c r="A169" s="5" t="s">
-        <v>819</v>
+        <v>601</v>
       </c>
       <c r="B169" s="6">
         <v>0</v>
@@ -14662,58 +14676,58 @@
         <v>323</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E169" s="6" t="s">
         <v>580</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="30" customHeight="1">
       <c r="A170" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B170" s="6">
         <v>0</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>818</v>
+        <v>323</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="E170" s="6" t="s">
         <v>580</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="30" customHeight="1">
       <c r="A171" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B171" s="6">
         <v>0</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>430</v>
+        <v>818</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E171" s="6" t="s">
         <v>580</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="30" customHeight="1">
       <c r="A172" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B172" s="6">
         <v>0</v>
@@ -14722,18 +14736,18 @@
         <v>430</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="E172" s="6" t="s">
         <v>580</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="30" customHeight="1">
       <c r="A173" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B173" s="6">
         <v>0</v>
@@ -14742,28 +14756,30 @@
         <v>430</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E173" s="6" t="s">
         <v>580</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="30" customHeight="1">
       <c r="A174" s="5" t="s">
-        <v>606</v>
+        <v>823</v>
       </c>
       <c r="B174" s="6">
         <v>0</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D174" s="6"/>
+        <v>430</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>598</v>
+      </c>
       <c r="E174" s="6" t="s">
-        <v>603</v>
+        <v>580</v>
       </c>
       <c r="F174" s="6" t="s">
         <v>151</v>
@@ -14771,51 +14787,52 @@
     </row>
     <row r="175" spans="1:6" ht="30" customHeight="1">
       <c r="A175" s="5" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B175" s="6">
         <v>0</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>602</v>
+        <v>208</v>
       </c>
       <c r="D175" s="6"/>
       <c r="E175" s="6" t="s">
         <v>603</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="30" customHeight="1">
       <c r="A176" s="5" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B176" s="6">
         <v>0</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>323</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="D176" s="6"/>
       <c r="E176" s="6" t="s">
         <v>603</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="30" customHeight="1">
       <c r="A177" s="5" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B177" s="6">
         <v>0</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>430</v>
+        <v>323</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>626</v>
+        <v>603</v>
       </c>
       <c r="F177" s="6" t="s">
         <v>151</v>
@@ -14823,27 +14840,24 @@
     </row>
     <row r="178" spans="1:6" ht="30" customHeight="1">
       <c r="A178" s="5" t="s">
-        <v>630</v>
+        <v>607</v>
       </c>
       <c r="B178" s="6">
         <v>0</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D178" s="6" t="s">
-        <v>620</v>
+        <v>430</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>38</v>
+        <v>151</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="30" customHeight="1">
       <c r="A179" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B179" s="6">
         <v>0</v>
@@ -14852,18 +14866,18 @@
         <v>208</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E179" s="6" t="s">
         <v>628</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="30" customHeight="1">
       <c r="A180" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B180" s="6">
         <v>0</v>
@@ -14872,18 +14886,18 @@
         <v>208</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="30" customHeight="1">
       <c r="A181" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B181" s="6">
         <v>0</v>
@@ -14892,7 +14906,7 @@
         <v>208</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E181" s="6" t="s">
         <v>627</v>
@@ -14903,7 +14917,7 @@
     </row>
     <row r="182" spans="1:6" ht="30" customHeight="1">
       <c r="A182" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B182" s="6">
         <v>0</v>
@@ -14912,18 +14926,18 @@
         <v>208</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E182" s="6" t="s">
         <v>627</v>
       </c>
       <c r="F182" s="6" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="30" customHeight="1">
       <c r="A183" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B183" s="6">
         <v>0</v>
@@ -14932,7 +14946,7 @@
         <v>208</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E183" s="6" t="s">
         <v>627</v>
@@ -14943,7 +14957,7 @@
     </row>
     <row r="184" spans="1:6" ht="30" customHeight="1">
       <c r="A184" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B184" s="6">
         <v>0</v>
@@ -14952,7 +14966,7 @@
         <v>208</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="E184" s="6" t="s">
         <v>627</v>
@@ -14963,7 +14977,7 @@
     </row>
     <row r="185" spans="1:6" ht="30" customHeight="1">
       <c r="A185" s="5" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="B185" s="6">
         <v>0</v>
@@ -14972,18 +14986,18 @@
         <v>208</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="30" customHeight="1">
       <c r="A186" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B186" s="6">
         <v>0</v>
@@ -14992,12 +15006,32 @@
         <v>208</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E186" s="6" t="s">
         <v>629</v>
       </c>
       <c r="F186" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="30" customHeight="1">
+      <c r="A187" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="B187" s="6">
+        <v>0</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="F187" s="6" t="s">
         <v>18</v>
       </c>
     </row>
